--- a/配置文档/动画相关/帧动画.xlsx
+++ b/配置文档/动画相关/帧动画.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655" firstSheet="3" activeTab="3"/>
+    <workbookView windowWidth="20145" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="cfg_AnimaUnit_单位帧动画配置" sheetId="4" r:id="rId1"/>
@@ -1170,14 +1170,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1578,8 +1575,8 @@
   <sheetPr/>
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H17:H18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -1597,208 +1594,208 @@
     <col min="13" max="13" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" ht="57" spans="1:13">
-      <c r="A1" s="7" t="s">
+    <row r="1" s="3" customFormat="1" ht="57" spans="1:13">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="9" t="s">
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" s="5" customFormat="1" ht="14.25" spans="1:13">
-      <c r="A2" s="12" t="s">
+    <row r="2" s="4" customFormat="1" ht="14.25" spans="1:13">
+      <c r="A2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="13">
-        <v>1</v>
-      </c>
-      <c r="C2" s="13">
-        <v>1</v>
-      </c>
-      <c r="D2" s="13">
+      <c r="B2" s="12">
+        <v>1</v>
+      </c>
+      <c r="C2" s="12">
+        <v>1</v>
+      </c>
+      <c r="D2" s="12">
         <v>0</v>
       </c>
-      <c r="E2" s="13">
-        <v>2</v>
-      </c>
-      <c r="F2" s="14">
-        <v>2</v>
-      </c>
-      <c r="G2" s="14">
-        <v>2</v>
-      </c>
-      <c r="H2" s="14">
-        <v>2</v>
-      </c>
-      <c r="I2" s="14">
-        <v>2</v>
-      </c>
-      <c r="J2" s="14">
-        <v>2</v>
-      </c>
-      <c r="K2" s="14">
-        <v>2</v>
-      </c>
-      <c r="L2" s="14">
-        <v>2</v>
-      </c>
-      <c r="M2" s="14">
+      <c r="E2" s="12">
+        <v>2</v>
+      </c>
+      <c r="F2" s="13">
+        <v>2</v>
+      </c>
+      <c r="G2" s="13">
+        <v>2</v>
+      </c>
+      <c r="H2" s="13">
+        <v>2</v>
+      </c>
+      <c r="I2" s="13">
+        <v>2</v>
+      </c>
+      <c r="J2" s="13">
+        <v>2</v>
+      </c>
+      <c r="K2" s="13">
+        <v>2</v>
+      </c>
+      <c r="L2" s="13">
+        <v>2</v>
+      </c>
+      <c r="M2" s="13">
         <v>3</v>
       </c>
     </row>
-    <row r="3" s="5" customFormat="1" ht="14.25" spans="1:13">
-      <c r="A3" s="12" t="s">
+    <row r="3" s="4" customFormat="1" ht="14.25" spans="1:13">
+      <c r="A3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="K3" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="14" t="s">
+      <c r="L3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="14" t="s">
+      <c r="M3" s="13" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" s="5" customFormat="1" ht="14.25" spans="1:13">
-      <c r="A4" s="12" t="s">
+    <row r="4" s="4" customFormat="1" ht="14.25" spans="1:13">
+      <c r="A4" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="L4" s="12" t="s">
+      <c r="L4" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="14" t="s">
+      <c r="M4" s="13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" s="6" customFormat="1" ht="37.55" spans="1:13">
-      <c r="A5" s="6">
-        <v>2</v>
-      </c>
-      <c r="B5" s="6">
-        <v>1</v>
-      </c>
-      <c r="C5" s="6">
-        <v>1</v>
-      </c>
-      <c r="D5" s="6" t="s">
+    <row r="5" s="5" customFormat="1" ht="37.55" spans="1:13">
+      <c r="A5" s="5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="14">
         <v>4</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="16">
+      <c r="I5" s="15">
         <v>20</v>
       </c>
-      <c r="J5" s="16">
+      <c r="J5" s="15">
         <v>3</v>
       </c>
-      <c r="K5" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="L5" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="M5" s="16" t="str">
+      <c r="K5" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="L5" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="M5" s="15" t="str">
         <f>_xlfn.DISPIMG("ID_DE7940C7BC2D4D46915E35BA3143081A",1)</f>
         <v>=DISPIMG("ID_DE7940C7BC2D4D46915E35BA3143081A",1)</v>
       </c>
@@ -1838,208 +1835,208 @@
     <col min="13" max="13" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" ht="63" customHeight="1" spans="1:13">
-      <c r="A1" s="7" t="s">
+    <row r="1" s="3" customFormat="1" ht="63" customHeight="1" spans="1:13">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="9" t="s">
+      <c r="C1" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" s="5" customFormat="1" ht="14.25" spans="1:13">
-      <c r="A2" s="12" t="s">
+    <row r="2" s="4" customFormat="1" ht="14.25" spans="1:13">
+      <c r="A2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="13">
-        <v>1</v>
-      </c>
-      <c r="C2" s="13">
-        <v>1</v>
-      </c>
-      <c r="D2" s="13">
+      <c r="B2" s="12">
+        <v>1</v>
+      </c>
+      <c r="C2" s="12">
+        <v>1</v>
+      </c>
+      <c r="D2" s="12">
         <v>0</v>
       </c>
-      <c r="E2" s="13">
-        <v>2</v>
-      </c>
-      <c r="F2" s="14">
-        <v>2</v>
-      </c>
-      <c r="G2" s="14">
-        <v>2</v>
-      </c>
-      <c r="H2" s="14">
-        <v>2</v>
-      </c>
-      <c r="I2" s="14">
-        <v>2</v>
-      </c>
-      <c r="J2" s="14">
-        <v>2</v>
-      </c>
-      <c r="K2" s="14">
-        <v>2</v>
-      </c>
-      <c r="L2" s="14">
-        <v>2</v>
-      </c>
-      <c r="M2" s="14">
+      <c r="E2" s="12">
+        <v>2</v>
+      </c>
+      <c r="F2" s="13">
+        <v>2</v>
+      </c>
+      <c r="G2" s="13">
+        <v>2</v>
+      </c>
+      <c r="H2" s="13">
+        <v>2</v>
+      </c>
+      <c r="I2" s="13">
+        <v>2</v>
+      </c>
+      <c r="J2" s="13">
+        <v>2</v>
+      </c>
+      <c r="K2" s="13">
+        <v>2</v>
+      </c>
+      <c r="L2" s="13">
+        <v>2</v>
+      </c>
+      <c r="M2" s="13">
         <v>3</v>
       </c>
     </row>
-    <row r="3" s="5" customFormat="1" ht="14.25" spans="1:13">
-      <c r="A3" s="12" t="s">
+    <row r="3" s="4" customFormat="1" ht="14.25" spans="1:13">
+      <c r="A3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="K3" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="14" t="s">
+      <c r="L3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="14" t="s">
+      <c r="M3" s="13" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" s="5" customFormat="1" ht="14.25" spans="1:13">
-      <c r="A4" s="12" t="s">
+    <row r="4" s="4" customFormat="1" ht="14.25" spans="1:13">
+      <c r="A4" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="L4" s="12" t="s">
+      <c r="L4" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="14" t="s">
+      <c r="M4" s="13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" s="22" customFormat="1" ht="61.4" spans="1:13">
-      <c r="A5" s="22">
-        <v>1</v>
-      </c>
-      <c r="B5" s="22">
-        <v>1</v>
-      </c>
-      <c r="C5" s="22">
-        <v>1</v>
-      </c>
-      <c r="D5" s="22" t="s">
+    <row r="5" s="21" customFormat="1" ht="61.4" spans="1:13">
+      <c r="A5" s="21">
+        <v>1</v>
+      </c>
+      <c r="B5" s="21">
+        <v>1</v>
+      </c>
+      <c r="C5" s="21">
+        <v>1</v>
+      </c>
+      <c r="D5" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="24">
-        <v>1</v>
-      </c>
-      <c r="H5" s="24" t="s">
+      <c r="G5" s="23">
+        <v>1</v>
+      </c>
+      <c r="H5" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="I5" s="25">
+      <c r="I5" s="24">
         <v>20</v>
       </c>
-      <c r="J5" s="25">
+      <c r="J5" s="24">
         <v>3</v>
       </c>
-      <c r="K5" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="L5" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="M5" s="26" t="str">
+      <c r="K5" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="L5" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="M5" s="25" t="str">
         <f>_xlfn.DISPIMG("ID_FD737468540A4B0689A1B65091CC19B7",1)</f>
         <v>=DISPIMG("ID_FD737468540A4B0689A1B65091CC19B7",1)</v>
       </c>
@@ -2079,208 +2076,208 @@
     <col min="13" max="13" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" ht="57" spans="1:13">
-      <c r="A1" s="7" t="s">
+    <row r="1" s="3" customFormat="1" ht="57" spans="1:13">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" s="5" customFormat="1" ht="14.25" spans="1:13">
-      <c r="A2" s="12" t="s">
+    <row r="2" s="4" customFormat="1" ht="14.25" spans="1:13">
+      <c r="A2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="13">
-        <v>1</v>
-      </c>
-      <c r="C2" s="13">
-        <v>1</v>
-      </c>
-      <c r="D2" s="13">
+      <c r="B2" s="12">
+        <v>1</v>
+      </c>
+      <c r="C2" s="12">
+        <v>1</v>
+      </c>
+      <c r="D2" s="12">
         <v>0</v>
       </c>
-      <c r="E2" s="13">
-        <v>2</v>
-      </c>
-      <c r="F2" s="14">
-        <v>2</v>
-      </c>
-      <c r="G2" s="14">
-        <v>2</v>
-      </c>
-      <c r="H2" s="14">
-        <v>2</v>
-      </c>
-      <c r="I2" s="14">
-        <v>2</v>
-      </c>
-      <c r="J2" s="14">
-        <v>2</v>
-      </c>
-      <c r="K2" s="14">
-        <v>2</v>
-      </c>
-      <c r="L2" s="14">
-        <v>2</v>
-      </c>
-      <c r="M2" s="14">
+      <c r="E2" s="12">
+        <v>2</v>
+      </c>
+      <c r="F2" s="13">
+        <v>2</v>
+      </c>
+      <c r="G2" s="13">
+        <v>2</v>
+      </c>
+      <c r="H2" s="13">
+        <v>2</v>
+      </c>
+      <c r="I2" s="13">
+        <v>2</v>
+      </c>
+      <c r="J2" s="13">
+        <v>2</v>
+      </c>
+      <c r="K2" s="13">
+        <v>2</v>
+      </c>
+      <c r="L2" s="13">
+        <v>2</v>
+      </c>
+      <c r="M2" s="13">
         <v>3</v>
       </c>
     </row>
-    <row r="3" s="5" customFormat="1" ht="14.25" spans="1:13">
-      <c r="A3" s="12" t="s">
+    <row r="3" s="4" customFormat="1" ht="14.25" spans="1:13">
+      <c r="A3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="K3" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="14" t="s">
+      <c r="L3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="14" t="s">
+      <c r="M3" s="13" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" s="5" customFormat="1" ht="14.25" spans="1:13">
-      <c r="A4" s="12" t="s">
+    <row r="4" s="4" customFormat="1" ht="14.25" spans="1:13">
+      <c r="A4" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="L4" s="12" t="s">
+      <c r="L4" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="14" t="s">
+      <c r="M4" s="13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" s="6" customFormat="1" ht="37.55" spans="1:13">
-      <c r="A5" s="6">
-        <v>2</v>
-      </c>
-      <c r="B5" s="6">
-        <v>1</v>
-      </c>
-      <c r="C5" s="6">
-        <v>1</v>
-      </c>
-      <c r="D5" s="6" t="s">
+    <row r="5" s="5" customFormat="1" ht="37.55" spans="1:13">
+      <c r="A5" s="5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="14">
         <v>4</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="16">
+      <c r="I5" s="15">
         <v>20</v>
       </c>
-      <c r="J5" s="16">
+      <c r="J5" s="15">
         <v>3</v>
       </c>
-      <c r="K5" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="L5" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="M5" s="16" t="str">
+      <c r="K5" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="L5" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="M5" s="15" t="str">
         <f>_xlfn.DISPIMG("ID_DE7940C7BC2D4D46915E35BA3143081A",1)</f>
         <v>=DISPIMG("ID_DE7940C7BC2D4D46915E35BA3143081A",1)</v>
       </c>
@@ -2301,7 +2298,7 @@
   <sheetPr/>
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -2321,207 +2318,207 @@
   </cols>
   <sheetData>
     <row r="1" ht="57" spans="1:13">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:13">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="13">
-        <v>1</v>
-      </c>
-      <c r="C2" s="13">
-        <v>1</v>
-      </c>
-      <c r="D2" s="13">
+      <c r="B2" s="12">
+        <v>1</v>
+      </c>
+      <c r="C2" s="12">
+        <v>1</v>
+      </c>
+      <c r="D2" s="12">
         <v>0</v>
       </c>
-      <c r="E2" s="13">
-        <v>2</v>
-      </c>
-      <c r="F2" s="14">
-        <v>2</v>
-      </c>
-      <c r="G2" s="14">
-        <v>2</v>
-      </c>
-      <c r="H2" s="14">
-        <v>2</v>
-      </c>
-      <c r="I2" s="14">
-        <v>2</v>
-      </c>
-      <c r="J2" s="14">
-        <v>2</v>
-      </c>
-      <c r="K2" s="14">
-        <v>2</v>
-      </c>
-      <c r="L2" s="14">
-        <v>2</v>
-      </c>
-      <c r="M2" s="14">
+      <c r="E2" s="12">
+        <v>2</v>
+      </c>
+      <c r="F2" s="13">
+        <v>2</v>
+      </c>
+      <c r="G2" s="13">
+        <v>2</v>
+      </c>
+      <c r="H2" s="13">
+        <v>2</v>
+      </c>
+      <c r="I2" s="13">
+        <v>2</v>
+      </c>
+      <c r="J2" s="13">
+        <v>2</v>
+      </c>
+      <c r="K2" s="13">
+        <v>2</v>
+      </c>
+      <c r="L2" s="13">
+        <v>2</v>
+      </c>
+      <c r="M2" s="13">
         <v>3</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:13">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="K3" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="14" t="s">
+      <c r="L3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="14" t="s">
+      <c r="M3" s="13" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:13">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="L4" s="12" t="s">
+      <c r="L4" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="14" t="s">
+      <c r="M4" s="13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" s="17" customFormat="1" ht="83" customHeight="1" spans="1:13">
-      <c r="A5" s="18">
-        <v>2</v>
-      </c>
-      <c r="B5" s="18">
-        <v>1</v>
-      </c>
-      <c r="C5" s="18">
-        <v>1</v>
-      </c>
-      <c r="D5" s="18" t="s">
+    <row r="5" s="16" customFormat="1" ht="83" customHeight="1" spans="1:13">
+      <c r="A5" s="17">
+        <v>2</v>
+      </c>
+      <c r="B5" s="17">
+        <v>1</v>
+      </c>
+      <c r="C5" s="17">
+        <v>1</v>
+      </c>
+      <c r="D5" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="20">
-        <v>1</v>
-      </c>
-      <c r="H5" s="20" t="s">
+      <c r="G5" s="19">
+        <v>1</v>
+      </c>
+      <c r="H5" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="I5" s="21">
+      <c r="I5" s="20">
         <v>20</v>
       </c>
-      <c r="J5" s="21">
+      <c r="J5" s="20">
         <v>3</v>
       </c>
-      <c r="K5" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="L5" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="M5" s="21" t="str">
+      <c r="K5" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="L5" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="M5" s="20" t="str">
         <f>_xlfn.DISPIMG("ID_B1E5BBB75DF144E6BCE87AD7FFB08D41",1)</f>
         <v>=DISPIMG("ID_B1E5BBB75DF144E6BCE87AD7FFB08D41",1)</v>
       </c>
@@ -2561,208 +2558,208 @@
     <col min="13" max="13" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" ht="57" spans="1:13">
-      <c r="A1" s="7" t="s">
+    <row r="1" s="3" customFormat="1" ht="57" spans="1:13">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" s="5" customFormat="1" ht="14.25" spans="1:13">
-      <c r="A2" s="12" t="s">
+    <row r="2" s="4" customFormat="1" ht="14.25" spans="1:13">
+      <c r="A2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="13">
-        <v>1</v>
-      </c>
-      <c r="C2" s="13">
-        <v>1</v>
-      </c>
-      <c r="D2" s="13">
+      <c r="B2" s="12">
+        <v>1</v>
+      </c>
+      <c r="C2" s="12">
+        <v>1</v>
+      </c>
+      <c r="D2" s="12">
         <v>0</v>
       </c>
-      <c r="E2" s="13">
-        <v>2</v>
-      </c>
-      <c r="F2" s="14">
-        <v>2</v>
-      </c>
-      <c r="G2" s="14">
-        <v>2</v>
-      </c>
-      <c r="H2" s="14">
-        <v>2</v>
-      </c>
-      <c r="I2" s="14">
-        <v>2</v>
-      </c>
-      <c r="J2" s="14">
-        <v>2</v>
-      </c>
-      <c r="K2" s="14">
-        <v>2</v>
-      </c>
-      <c r="L2" s="14">
-        <v>2</v>
-      </c>
-      <c r="M2" s="14">
+      <c r="E2" s="12">
+        <v>2</v>
+      </c>
+      <c r="F2" s="13">
+        <v>2</v>
+      </c>
+      <c r="G2" s="13">
+        <v>2</v>
+      </c>
+      <c r="H2" s="13">
+        <v>2</v>
+      </c>
+      <c r="I2" s="13">
+        <v>2</v>
+      </c>
+      <c r="J2" s="13">
+        <v>2</v>
+      </c>
+      <c r="K2" s="13">
+        <v>2</v>
+      </c>
+      <c r="L2" s="13">
+        <v>2</v>
+      </c>
+      <c r="M2" s="13">
         <v>3</v>
       </c>
     </row>
-    <row r="3" s="5" customFormat="1" ht="14.25" spans="1:13">
-      <c r="A3" s="12" t="s">
+    <row r="3" s="4" customFormat="1" ht="14.25" spans="1:13">
+      <c r="A3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="K3" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="14" t="s">
+      <c r="L3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="14" t="s">
+      <c r="M3" s="13" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" s="5" customFormat="1" ht="14.25" spans="1:13">
-      <c r="A4" s="12" t="s">
+    <row r="4" s="4" customFormat="1" ht="14.25" spans="1:13">
+      <c r="A4" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="L4" s="12" t="s">
+      <c r="L4" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="14" t="s">
+      <c r="M4" s="13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" s="6" customFormat="1" ht="37.55" spans="1:13">
-      <c r="A5" s="6">
-        <v>2</v>
-      </c>
-      <c r="B5" s="6">
-        <v>1</v>
-      </c>
-      <c r="C5" s="6">
-        <v>1</v>
-      </c>
-      <c r="D5" s="6" t="s">
+    <row r="5" s="5" customFormat="1" ht="37.55" spans="1:13">
+      <c r="A5" s="5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="14">
         <v>4</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="16">
+      <c r="I5" s="15">
         <v>20</v>
       </c>
-      <c r="J5" s="16">
+      <c r="J5" s="15">
         <v>3</v>
       </c>
-      <c r="K5" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="L5" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="M5" s="16" t="str">
+      <c r="K5" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="L5" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="M5" s="15" t="str">
         <f>_xlfn.DISPIMG("ID_DE7940C7BC2D4D46915E35BA3143081A",1)</f>
         <v>=DISPIMG("ID_DE7940C7BC2D4D46915E35BA3143081A",1)</v>
       </c>
@@ -2790,7 +2787,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="2" width="13.75" customWidth="1"/>
-    <col min="3" max="3" width="129.375" customWidth="1"/>
+    <col min="3" max="3" width="79.9166666666667" customWidth="1"/>
     <col min="4" max="4" width="28.25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3221,13 +3218,13 @@
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="3">
+      <c r="A37" s="2">
         <v>36</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="2" t="s">
         <v>125</v>
       </c>
     </row>

--- a/配置文档/动画相关/帧动画.xlsx
+++ b/配置文档/动画相关/帧动画.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20145" windowHeight="7860"/>
+    <workbookView windowWidth="17805" windowHeight="7080"/>
   </bookViews>
   <sheets>
     <sheet name="cfg_AnimaUnit_单位帧动画配置" sheetId="4" r:id="rId1"/>
     <sheet name="cfg_AnimaTower_炮塔动画" sheetId="3" r:id="rId2"/>
     <sheet name="cfg_AnimaBuild_建筑动画" sheetId="5" r:id="rId3"/>
     <sheet name="cfg_AnimaWeapon_武器动画" sheetId="8" r:id="rId4"/>
-    <sheet name="cfg_AnimaBullet_子弹动画" sheetId="6" r:id="rId5"/>
-    <sheet name="数据类型" sheetId="2" r:id="rId6"/>
+    <sheet name="cfg_AnimaBullet_子弹动画" sheetId="9" r:id="rId5"/>
+    <sheet name="cfg_AnimaExplode_爆炸动画" sheetId="10" r:id="rId6"/>
+    <sheet name="数据类型" sheetId="2" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="5">数据类型!#REF!</definedName>
-    <definedName name="数据类型_Sheet1" localSheetId="5">数据类型!#REF!</definedName>
-    <definedName name="连接" localSheetId="5">数据类型!$A$1:$D$37</definedName>
+    <definedName name="ExternalData_1" localSheetId="6">数据类型!#REF!</definedName>
+    <definedName name="数据类型_Sheet1" localSheetId="6">数据类型!#REF!</definedName>
+    <definedName name="连接" localSheetId="6">数据类型!$A$1:$E$38</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -113,6 +114,31 @@
       </xdr:spPr>
     </xdr:pic>
   </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="ID_0F2E3DE674534288BE9A0F6B995263B2" descr="光子炮弹"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17316450" y="1809750"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
 </etc:cellImages>
 </file>
 
@@ -125,7 +151,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="151">
   <si>
     <t>该表用于配置实体的帧动画
 数据不想填就写 #BASEVALUE</t>
@@ -136,7 +162,10 @@
   </si>
   <si>
     <t>帧动画类型
-1 默认状态</t>
+1 默认动画
+2 静止时动画
+3 移动动画
+播放时发现没有该动画就播放默认动画</t>
   </si>
   <si>
     <t>帧动画描述</t>
@@ -164,7 +193,8 @@
     <t>帧数</t>
   </si>
   <si>
-    <t>是否自动播放</t>
+    <t>是否自动播放
+一个实体的动画只能有最多一个自动播放</t>
   </si>
   <si>
     <t>是否循环播放</t>
@@ -233,7 +263,7 @@
     <t>PNG</t>
   </si>
   <si>
-    <t>测试</t>
+    <t>单位默认动画</t>
   </si>
   <si>
     <t>#BASEVALUE</t>
@@ -243,12 +273,26 @@
   </si>
   <si>
     <t>（4,1）</t>
+  </si>
+  <si>
+    <t>单位移动动画</t>
   </si>
   <si>
     <t>实体id
 炮塔</t>
   </si>
   <si>
+    <t>帧动画类型
+1 默认动画
+2 静止时动画
+3 开火动画
+4 装填动画
+播放时发现没有该动画就播放默认动画</t>
+  </si>
+  <si>
+    <t>是否自动播放</t>
+  </si>
+  <si>
     <t>测试炮塔底座</t>
   </si>
   <si>
@@ -262,7 +306,14 @@
 建筑</t>
   </si>
   <si>
-    <t>帧动画类型</t>
+    <t>帧动画类型
+1 默认动画
+2 静止时动画
+3 工作动画
+播放时发现没有该动画就播放默认动画</t>
+  </si>
+  <si>
+    <t>测试</t>
   </si>
   <si>
     <t>实体id
@@ -275,8 +326,44 @@
     <t>(50,126)</t>
   </si>
   <si>
-    <t>实体id
-子弹</t>
+    <t>子弹标签</t>
+  </si>
+  <si>
+    <t xml:space="preserve">帧动画类型
+1 默认动画
+</t>
+  </si>
+  <si>
+    <t>单个帧
+横纵像素px</t>
+  </si>
+  <si>
+    <t>帧图大小
+横向多少张图
+纵向多少张图
+（横,纵）</t>
+  </si>
+  <si>
+    <t>BulletLabel</t>
+  </si>
+  <si>
+    <t>add2way</t>
+  </si>
+  <si>
+    <t>测试子弹</t>
+  </si>
+  <si>
+    <t>(100,100)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">爆炸id
+</t>
+  </si>
+  <si>
+    <t>帧动画类型</t>
+  </si>
+  <si>
+    <t>ExplodeId</t>
   </si>
   <si>
     <t>数据类型编号</t>
@@ -285,12 +372,18 @@
     <t>数据类型名称</t>
   </si>
   <si>
+    <t>默认值</t>
+  </si>
+  <si>
     <t>数据类型描述</t>
   </si>
   <si>
     <t>数据类型示例</t>
   </si>
   <si>
+    <t>True</t>
+  </si>
+  <si>
     <t>布尔值，用于表示 是或者否，True为是，False为否</t>
   </si>
   <si>
@@ -300,6 +393,9 @@
     <t>SHORT</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>短整数类型，用于表示一些比较小的整数 -32768 到 32767，少用</t>
   </si>
   <si>
@@ -339,6 +435,9 @@
     <t>&lt;BOOL&gt;</t>
   </si>
   <si>
+    <t>[]</t>
+  </si>
+  <si>
     <t>布尔值列表，用于保存一个由布尔值组成的列表</t>
   </si>
   <si>
@@ -390,6 +489,9 @@
     <t>(BOOL)</t>
   </si>
   <si>
+    <t>()</t>
+  </si>
+  <si>
     <t>(SHORT)</t>
   </si>
   <si>
@@ -426,6 +528,9 @@
     <t>LANG</t>
   </si>
   <si>
+    <t>KeyBase</t>
+  </si>
+  <si>
     <t>语言id 是语言配置的id</t>
   </si>
   <si>
@@ -435,6 +540,9 @@
     <t>POINT</t>
   </si>
   <si>
+    <t>(0,0)</t>
+  </si>
+  <si>
     <t>保存小数二维坐标的类型</t>
   </si>
   <si>
@@ -459,6 +567,9 @@
     <t>(1.2,3.5)|(1.4,3.2)</t>
   </si>
   <si>
+    <t>null</t>
+  </si>
+  <si>
     <t>Png图片，通常用于导出散图，导出单元格图片后，放在config\images\下</t>
   </si>
   <si>
@@ -480,21 +591,21 @@
     <t>RGB</t>
   </si>
   <si>
+    <t>(0,0,0)</t>
+  </si>
+  <si>
     <t>颜色类型rgb (x,x,x) x最大255</t>
   </si>
   <si>
-    <t>(0,0,0)</t>
-  </si>
-  <si>
     <t>RGBA</t>
   </si>
   <si>
+    <t>(0,0,0,0)</t>
+  </si>
+  <si>
     <t>颜色类型rgba (x,x,x,x) x最大255</t>
   </si>
   <si>
-    <t>(0,0,0,0)</t>
-  </si>
-  <si>
     <t>&lt;Vector2I&gt;</t>
   </si>
   <si>
@@ -514,6 +625,15 @@
   </si>
   <si>
     <t>BBCode是一种轻量标记语言，具体填写规则https://docs.godotengine.org/en/latest/tutorials/ui/bbcode_in_richtextlabel.html</t>
+  </si>
+  <si>
+    <t>HashSet&lt;INT&gt;</t>
+  </si>
+  <si>
+    <t>确保唯一的Int列表，c#中的HashSet&lt;int&gt;类型</t>
+  </si>
+  <si>
+    <t>1|2|3|4</t>
   </si>
 </sst>
 </file>
@@ -543,6 +663,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -550,13 +677,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -723,12 +843,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -736,6 +850,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1121,7 +1241,7 @@
     <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1170,7 +1290,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1178,6 +1298,66 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1186,68 +1366,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1312,12 +1438,13 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="连接" growShrinkType="overwriteClear" refreshOnLoad="1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh preserveSortFilterLayout="0" nextId="5">
-    <queryTableFields count="4">
+  <queryTableRefresh preserveSortFilterLayout="0" nextId="6">
+    <queryTableFields count="5">
       <queryTableField id="1" name="数据类型编号"/>
       <queryTableField id="2" name="数据类型名称"/>
-      <queryTableField id="3" name="数据类型描述"/>
-      <queryTableField id="4" name="数据类型示例"/>
+      <queryTableField id="3" name="默认值"/>
+      <queryTableField id="4" name="数据类型描述"/>
+      <queryTableField id="5" name="数据类型示例"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
@@ -1573,10 +1700,536 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:M6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
+  <cols>
+    <col min="1" max="1" width="43.375" customWidth="1"/>
+    <col min="2" max="4" width="20.5" customWidth="1"/>
+    <col min="5" max="5" width="16.75" customWidth="1"/>
+    <col min="6" max="6" width="11.75" customWidth="1"/>
+    <col min="7" max="7" width="22" customWidth="1"/>
+    <col min="8" max="8" width="13.75" customWidth="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
+    <col min="10" max="10" width="12.375" customWidth="1"/>
+    <col min="11" max="11" width="18.375" customWidth="1"/>
+    <col min="12" max="12" width="13.5" customWidth="1"/>
+    <col min="13" max="13" width="19.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="23" customFormat="1" ht="85.5" spans="1:13">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" s="24" customFormat="1" ht="14.25" spans="1:13">
+      <c r="A2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="10">
+        <v>1</v>
+      </c>
+      <c r="C2" s="10">
+        <v>1</v>
+      </c>
+      <c r="D2" s="10">
+        <v>0</v>
+      </c>
+      <c r="E2" s="10">
+        <v>2</v>
+      </c>
+      <c r="F2" s="11">
+        <v>2</v>
+      </c>
+      <c r="G2" s="11">
+        <v>2</v>
+      </c>
+      <c r="H2" s="11">
+        <v>2</v>
+      </c>
+      <c r="I2" s="11">
+        <v>2</v>
+      </c>
+      <c r="J2" s="11">
+        <v>2</v>
+      </c>
+      <c r="K2" s="11">
+        <v>2</v>
+      </c>
+      <c r="L2" s="11">
+        <v>2</v>
+      </c>
+      <c r="M2" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" s="24" customFormat="1" ht="14.25" spans="1:13">
+      <c r="A3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" s="24" customFormat="1" ht="14.25" spans="1:13">
+      <c r="A4" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" s="18" customFormat="1" ht="37.55" spans="1:13">
+      <c r="A5" s="18">
+        <v>1</v>
+      </c>
+      <c r="B5" s="18">
+        <v>1001</v>
+      </c>
+      <c r="C5" s="18">
+        <v>1</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="20">
+        <v>4</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="21">
+        <v>20</v>
+      </c>
+      <c r="J5" s="21">
+        <v>3</v>
+      </c>
+      <c r="K5" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="L5" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="M5" s="21" t="str">
+        <f>_xlfn.DISPIMG("ID_DE7940C7BC2D4D46915E35BA3143081A",1)</f>
+        <v>=DISPIMG("ID_DE7940C7BC2D4D46915E35BA3143081A",1)</v>
+      </c>
+    </row>
+    <row r="6" s="18" customFormat="1" ht="37.55" spans="1:13">
+      <c r="A6" s="18">
+        <v>1</v>
+      </c>
+      <c r="B6" s="18">
+        <v>1001</v>
+      </c>
+      <c r="C6" s="18">
+        <v>2</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="20">
+        <v>4</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="21">
+        <v>20</v>
+      </c>
+      <c r="J6" s="21">
+        <v>3</v>
+      </c>
+      <c r="K6" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="M6" s="21" t="str">
+        <f>_xlfn.DISPIMG("ID_DE7940C7BC2D4D46915E35BA3143081A",1)</f>
+        <v>=DISPIMG("ID_DE7940C7BC2D4D46915E35BA3143081A",1)</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:L4">
+      <formula1>数据类型!$B$2:$B$51</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <cols>
+    <col min="1" max="1" width="43.375" customWidth="1"/>
+    <col min="2" max="2" width="20.5" customWidth="1"/>
+    <col min="3" max="3" width="28.875" customWidth="1"/>
+    <col min="4" max="4" width="20.5" customWidth="1"/>
+    <col min="5" max="5" width="16.75" customWidth="1"/>
+    <col min="6" max="6" width="11.75" customWidth="1"/>
+    <col min="7" max="7" width="22" customWidth="1"/>
+    <col min="8" max="8" width="13.75" customWidth="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
+    <col min="10" max="10" width="12.375" customWidth="1"/>
+    <col min="11" max="11" width="14.125" customWidth="1"/>
+    <col min="12" max="12" width="13.5" customWidth="1"/>
+    <col min="13" max="13" width="19.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="23" customFormat="1" ht="105" customHeight="1" spans="1:13">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" s="24" customFormat="1" ht="14.25" spans="1:13">
+      <c r="A2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="10">
+        <v>1</v>
+      </c>
+      <c r="C2" s="10">
+        <v>1</v>
+      </c>
+      <c r="D2" s="10">
+        <v>0</v>
+      </c>
+      <c r="E2" s="10">
+        <v>2</v>
+      </c>
+      <c r="F2" s="11">
+        <v>2</v>
+      </c>
+      <c r="G2" s="11">
+        <v>2</v>
+      </c>
+      <c r="H2" s="11">
+        <v>2</v>
+      </c>
+      <c r="I2" s="11">
+        <v>2</v>
+      </c>
+      <c r="J2" s="11">
+        <v>2</v>
+      </c>
+      <c r="K2" s="11">
+        <v>2</v>
+      </c>
+      <c r="L2" s="11">
+        <v>2</v>
+      </c>
+      <c r="M2" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" s="24" customFormat="1" ht="14.25" spans="1:13">
+      <c r="A3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" s="24" customFormat="1" ht="14.25" spans="1:13">
+      <c r="A4" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" s="18" customFormat="1" ht="61.4" spans="1:13">
+      <c r="A5" s="18">
+        <v>1</v>
+      </c>
+      <c r="B5" s="18">
+        <v>2001</v>
+      </c>
+      <c r="C5" s="18">
+        <v>1</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="20">
+        <v>1</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" s="21">
+        <v>20</v>
+      </c>
+      <c r="J5" s="21">
+        <v>3</v>
+      </c>
+      <c r="K5" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="L5" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="M5" s="16" t="str">
+        <f>_xlfn.DISPIMG("ID_FD737468540A4B0689A1B65091CC19B7",1)</f>
+        <v>=DISPIMG("ID_FD737468540A4B0689A1B65091CC19B7",1)</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:L4">
+      <formula1>数据类型!$B$2:$B$51</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M5"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -1594,208 +2247,208 @@
     <col min="13" max="13" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" ht="57" spans="1:13">
-      <c r="A1" s="6" t="s">
+    <row r="1" s="23" customFormat="1" ht="85.5" spans="1:13">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="8" t="s">
+      <c r="B1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="10" t="s">
+      <c r="K1" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" s="4" customFormat="1" ht="14.25" spans="1:13">
-      <c r="A2" s="11" t="s">
+    <row r="2" s="24" customFormat="1" ht="14.25" spans="1:13">
+      <c r="A2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="12">
-        <v>1</v>
-      </c>
-      <c r="C2" s="12">
-        <v>1</v>
-      </c>
-      <c r="D2" s="12">
+      <c r="B2" s="10">
+        <v>1</v>
+      </c>
+      <c r="C2" s="10">
+        <v>1</v>
+      </c>
+      <c r="D2" s="10">
         <v>0</v>
       </c>
-      <c r="E2" s="12">
-        <v>2</v>
-      </c>
-      <c r="F2" s="13">
-        <v>2</v>
-      </c>
-      <c r="G2" s="13">
-        <v>2</v>
-      </c>
-      <c r="H2" s="13">
-        <v>2</v>
-      </c>
-      <c r="I2" s="13">
-        <v>2</v>
-      </c>
-      <c r="J2" s="13">
-        <v>2</v>
-      </c>
-      <c r="K2" s="13">
-        <v>2</v>
-      </c>
-      <c r="L2" s="13">
-        <v>2</v>
-      </c>
-      <c r="M2" s="13">
+      <c r="E2" s="10">
+        <v>2</v>
+      </c>
+      <c r="F2" s="11">
+        <v>2</v>
+      </c>
+      <c r="G2" s="11">
+        <v>2</v>
+      </c>
+      <c r="H2" s="11">
+        <v>2</v>
+      </c>
+      <c r="I2" s="11">
+        <v>2</v>
+      </c>
+      <c r="J2" s="11">
+        <v>2</v>
+      </c>
+      <c r="K2" s="11">
+        <v>2</v>
+      </c>
+      <c r="L2" s="11">
+        <v>2</v>
+      </c>
+      <c r="M2" s="11">
         <v>3</v>
       </c>
     </row>
-    <row r="3" s="4" customFormat="1" ht="14.25" spans="1:13">
-      <c r="A3" s="11" t="s">
+    <row r="3" s="24" customFormat="1" ht="14.25" spans="1:13">
+      <c r="A3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="J3" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="13" t="s">
+      <c r="L3" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="13" t="s">
+      <c r="M3" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" s="4" customFormat="1" ht="14.25" spans="1:13">
-      <c r="A4" s="11" t="s">
+    <row r="4" s="24" customFormat="1" ht="14.25" spans="1:13">
+      <c r="A4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="L4" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="13" t="s">
+      <c r="M4" s="11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" s="5" customFormat="1" ht="37.55" spans="1:13">
-      <c r="A5" s="5">
-        <v>2</v>
-      </c>
-      <c r="B5" s="5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="5">
-        <v>1</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="5" t="s">
+    <row r="5" s="25" customFormat="1" ht="37.55" spans="1:13">
+      <c r="A5" s="25">
+        <v>2</v>
+      </c>
+      <c r="B5" s="25">
+        <v>3001</v>
+      </c>
+      <c r="C5" s="25">
+        <v>1</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="26">
         <v>4</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="15">
+      <c r="I5" s="27">
         <v>20</v>
       </c>
-      <c r="J5" s="15">
+      <c r="J5" s="27">
         <v>3</v>
       </c>
-      <c r="K5" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="L5" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="M5" s="15" t="str">
+      <c r="K5" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="L5" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="M5" s="27" t="str">
         <f>_xlfn.DISPIMG("ID_DE7940C7BC2D4D46915E35BA3143081A",1)</f>
         <v>=DISPIMG("ID_DE7940C7BC2D4D46915E35BA3143081A",1)</v>
       </c>
@@ -1811,13 +2464,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -1835,210 +2488,210 @@
     <col min="13" max="13" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" ht="63" customHeight="1" spans="1:13">
-      <c r="A1" s="6" t="s">
+    <row r="1" ht="99.75" spans="1:13">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="8" t="s">
+      <c r="B1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="10" t="s">
+      <c r="K1" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" s="4" customFormat="1" ht="14.25" spans="1:13">
-      <c r="A2" s="11" t="s">
+    <row r="2" ht="14.25" spans="1:13">
+      <c r="A2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="12">
-        <v>1</v>
-      </c>
-      <c r="C2" s="12">
-        <v>1</v>
-      </c>
-      <c r="D2" s="12">
+      <c r="B2" s="10">
+        <v>1</v>
+      </c>
+      <c r="C2" s="10">
+        <v>1</v>
+      </c>
+      <c r="D2" s="10">
         <v>0</v>
       </c>
-      <c r="E2" s="12">
-        <v>2</v>
-      </c>
-      <c r="F2" s="13">
-        <v>2</v>
-      </c>
-      <c r="G2" s="13">
-        <v>2</v>
-      </c>
-      <c r="H2" s="13">
-        <v>2</v>
-      </c>
-      <c r="I2" s="13">
-        <v>2</v>
-      </c>
-      <c r="J2" s="13">
-        <v>2</v>
-      </c>
-      <c r="K2" s="13">
-        <v>2</v>
-      </c>
-      <c r="L2" s="13">
-        <v>2</v>
-      </c>
-      <c r="M2" s="13">
+      <c r="E2" s="10">
+        <v>2</v>
+      </c>
+      <c r="F2" s="11">
+        <v>2</v>
+      </c>
+      <c r="G2" s="11">
+        <v>2</v>
+      </c>
+      <c r="H2" s="11">
+        <v>2</v>
+      </c>
+      <c r="I2" s="11">
+        <v>2</v>
+      </c>
+      <c r="J2" s="11">
+        <v>2</v>
+      </c>
+      <c r="K2" s="11">
+        <v>2</v>
+      </c>
+      <c r="L2" s="11">
+        <v>2</v>
+      </c>
+      <c r="M2" s="11">
         <v>3</v>
       </c>
     </row>
-    <row r="3" s="4" customFormat="1" ht="14.25" spans="1:13">
-      <c r="A3" s="11" t="s">
+    <row r="3" ht="14.25" spans="1:13">
+      <c r="A3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="J3" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="13" t="s">
+      <c r="L3" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="13" t="s">
+      <c r="M3" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" s="4" customFormat="1" ht="14.25" spans="1:13">
-      <c r="A4" s="11" t="s">
+    <row r="4" ht="14.25" spans="1:13">
+      <c r="A4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="L4" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="13" t="s">
+      <c r="M4" s="11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" s="21" customFormat="1" ht="61.4" spans="1:13">
-      <c r="A5" s="21">
-        <v>1</v>
-      </c>
-      <c r="B5" s="21">
-        <v>1</v>
-      </c>
-      <c r="C5" s="21">
-        <v>1</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="21" t="s">
+    <row r="5" s="22" customFormat="1" ht="83" customHeight="1" spans="1:13">
+      <c r="A5" s="12">
+        <v>2</v>
+      </c>
+      <c r="B5" s="12">
+        <v>4001</v>
+      </c>
+      <c r="C5" s="12">
+        <v>1</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="23">
-        <v>1</v>
-      </c>
-      <c r="H5" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5" s="24">
+      <c r="F5" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="14">
+        <v>1</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" s="15">
         <v>20</v>
       </c>
-      <c r="J5" s="24">
+      <c r="J5" s="15">
         <v>3</v>
       </c>
-      <c r="K5" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="L5" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="M5" s="25" t="str">
-        <f>_xlfn.DISPIMG("ID_FD737468540A4B0689A1B65091CC19B7",1)</f>
-        <v>=DISPIMG("ID_FD737468540A4B0689A1B65091CC19B7",1)</v>
+      <c r="K5" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="L5" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="M5" s="15" t="str">
+        <f>_xlfn.DISPIMG("ID_B1E5BBB75DF144E6BCE87AD7FFB08D41",1)</f>
+        <v>=DISPIMG("ID_B1E5BBB75DF144E6BCE87AD7FFB08D41",1)</v>
       </c>
     </row>
   </sheetData>
@@ -2052,13 +2705,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -2066,9 +2719,9 @@
     <col min="1" max="1" width="43.375" customWidth="1"/>
     <col min="2" max="4" width="20.5" customWidth="1"/>
     <col min="5" max="5" width="16.75" customWidth="1"/>
-    <col min="6" max="6" width="11.75" customWidth="1"/>
+    <col min="6" max="6" width="18.375" customWidth="1"/>
     <col min="7" max="7" width="22" customWidth="1"/>
-    <col min="8" max="8" width="13.75" customWidth="1"/>
+    <col min="8" max="8" width="23.25" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
     <col min="10" max="10" width="12.375" customWidth="1"/>
     <col min="11" max="11" width="14.125" customWidth="1"/>
@@ -2076,215 +2729,215 @@
     <col min="13" max="13" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" ht="57" spans="1:13">
-      <c r="A1" s="6" t="s">
+    <row r="1" ht="57" spans="1:13">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="8" t="s">
+      <c r="B1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="10" t="s">
+      <c r="F1" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="10" t="s">
+      <c r="H1" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="10" t="s">
+      <c r="K1" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" s="4" customFormat="1" ht="14.25" spans="1:13">
-      <c r="A2" s="11" t="s">
+    <row r="2" ht="14.25" spans="1:13">
+      <c r="A2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="12">
-        <v>1</v>
-      </c>
-      <c r="C2" s="12">
-        <v>1</v>
-      </c>
-      <c r="D2" s="12">
+      <c r="B2" s="10">
+        <v>1</v>
+      </c>
+      <c r="C2" s="10">
+        <v>1</v>
+      </c>
+      <c r="D2" s="10">
         <v>0</v>
       </c>
-      <c r="E2" s="12">
-        <v>2</v>
-      </c>
-      <c r="F2" s="13">
-        <v>2</v>
-      </c>
-      <c r="G2" s="13">
-        <v>2</v>
-      </c>
-      <c r="H2" s="13">
-        <v>2</v>
-      </c>
-      <c r="I2" s="13">
-        <v>2</v>
-      </c>
-      <c r="J2" s="13">
-        <v>2</v>
-      </c>
-      <c r="K2" s="13">
-        <v>2</v>
-      </c>
-      <c r="L2" s="13">
-        <v>2</v>
-      </c>
-      <c r="M2" s="13">
+      <c r="E2" s="10">
+        <v>2</v>
+      </c>
+      <c r="F2" s="11">
+        <v>2</v>
+      </c>
+      <c r="G2" s="11">
+        <v>2</v>
+      </c>
+      <c r="H2" s="11">
+        <v>2</v>
+      </c>
+      <c r="I2" s="11">
+        <v>2</v>
+      </c>
+      <c r="J2" s="11">
+        <v>2</v>
+      </c>
+      <c r="K2" s="11">
+        <v>2</v>
+      </c>
+      <c r="L2" s="11">
+        <v>2</v>
+      </c>
+      <c r="M2" s="11">
         <v>3</v>
       </c>
     </row>
-    <row r="3" s="4" customFormat="1" ht="14.25" spans="1:13">
-      <c r="A3" s="11" t="s">
+    <row r="3" ht="14.25" spans="1:13">
+      <c r="A3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="12" t="s">
+      <c r="B3" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="J3" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="13" t="s">
+      <c r="L3" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="13" t="s">
+      <c r="M3" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" s="4" customFormat="1" ht="14.25" spans="1:13">
-      <c r="A4" s="11" t="s">
+    <row r="4" ht="14.25" spans="1:13">
+      <c r="A4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="D4" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="11" t="s">
+      <c r="H4" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="11" t="s">
+      <c r="I4" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" s="11" t="s">
+      <c r="J4" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="L4" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="13" t="s">
+      <c r="M4" s="11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" s="5" customFormat="1" ht="37.55" spans="1:13">
-      <c r="A5" s="5">
-        <v>2</v>
-      </c>
-      <c r="B5" s="5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="5">
-        <v>1</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="5" t="s">
+    <row r="5" s="16" customFormat="1" ht="80" customHeight="1" spans="1:13">
+      <c r="A5" s="18">
+        <v>1</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="18">
+        <v>1</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="14">
-        <v>4</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="I5" s="15">
+      <c r="F5" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" s="20">
+        <v>1</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" s="21">
         <v>20</v>
       </c>
-      <c r="J5" s="15">
+      <c r="J5" s="21">
         <v>3</v>
       </c>
-      <c r="K5" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="L5" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="M5" s="15" t="str">
-        <f>_xlfn.DISPIMG("ID_DE7940C7BC2D4D46915E35BA3143081A",1)</f>
-        <v>=DISPIMG("ID_DE7940C7BC2D4D46915E35BA3143081A",1)</v>
+      <c r="K5" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="L5" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="M5" s="21" t="str">
+        <f>_xlfn.DISPIMG("ID_0F2E3DE674534288BE9A0F6B995263B2",1)</f>
+        <v>=DISPIMG("ID_0F2E3DE674534288BE9A0F6B995263B2",1)</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:L4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:L4">
       <formula1>数据类型!$B$2:$B$51</formula1>
     </dataValidation>
   </dataValidations>
@@ -2293,13 +2946,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -2318,207 +2971,207 @@
   </cols>
   <sheetData>
     <row r="1" ht="57" spans="1:13">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:13">
+      <c r="A2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="10">
+        <v>1</v>
+      </c>
+      <c r="C2" s="10">
+        <v>1</v>
+      </c>
+      <c r="D2" s="10">
+        <v>0</v>
+      </c>
+      <c r="E2" s="10">
+        <v>2</v>
+      </c>
+      <c r="F2" s="11">
+        <v>2</v>
+      </c>
+      <c r="G2" s="11">
+        <v>2</v>
+      </c>
+      <c r="H2" s="11">
+        <v>2</v>
+      </c>
+      <c r="I2" s="11">
+        <v>2</v>
+      </c>
+      <c r="J2" s="11">
+        <v>2</v>
+      </c>
+      <c r="K2" s="11">
+        <v>2</v>
+      </c>
+      <c r="L2" s="11">
+        <v>2</v>
+      </c>
+      <c r="M2" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" spans="1:13">
+      <c r="A3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" spans="1:13">
+      <c r="A4" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" ht="98" customHeight="1" spans="1:13">
+      <c r="A5" s="12">
+        <v>2</v>
+      </c>
+      <c r="B5" s="12">
+        <v>1</v>
+      </c>
+      <c r="C5" s="12">
+        <v>1</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="14">
+        <v>1</v>
+      </c>
+      <c r="H5" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="8" t="s">
+      <c r="I5" s="15">
+        <v>20</v>
+      </c>
+      <c r="J5" s="15">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" ht="14.25" spans="1:13">
-      <c r="A2" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="12">
-        <v>1</v>
-      </c>
-      <c r="C2" s="12">
-        <v>1</v>
-      </c>
-      <c r="D2" s="12">
-        <v>0</v>
-      </c>
-      <c r="E2" s="12">
-        <v>2</v>
-      </c>
-      <c r="F2" s="13">
-        <v>2</v>
-      </c>
-      <c r="G2" s="13">
-        <v>2</v>
-      </c>
-      <c r="H2" s="13">
-        <v>2</v>
-      </c>
-      <c r="I2" s="13">
-        <v>2</v>
-      </c>
-      <c r="J2" s="13">
-        <v>2</v>
-      </c>
-      <c r="K2" s="13">
-        <v>2</v>
-      </c>
-      <c r="L2" s="13">
-        <v>2</v>
-      </c>
-      <c r="M2" s="13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" ht="14.25" spans="1:13">
-      <c r="A3" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="M3" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" ht="14.25" spans="1:13">
-      <c r="A4" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="L4" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="M4" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" s="16" customFormat="1" ht="83" customHeight="1" spans="1:13">
-      <c r="A5" s="17">
-        <v>2</v>
-      </c>
-      <c r="B5" s="17">
-        <v>1</v>
-      </c>
-      <c r="C5" s="17">
-        <v>1</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="G5" s="19">
-        <v>1</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5" s="20">
-        <v>20</v>
-      </c>
-      <c r="J5" s="20">
-        <v>3</v>
-      </c>
-      <c r="K5" s="20" t="b">
-        <v>1</v>
-      </c>
-      <c r="L5" s="20" t="b">
-        <v>1</v>
-      </c>
-      <c r="M5" s="20" t="str">
+      <c r="K5" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="L5" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="M5" s="15" t="str">
         <f>_xlfn.DISPIMG("ID_B1E5BBB75DF144E6BCE87AD7FFB08D41",1)</f>
         <v>=DISPIMG("ID_B1E5BBB75DF144E6BCE87AD7FFB08D41",1)</v>
       </c>
@@ -2534,278 +3187,41 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="43.375" customWidth="1"/>
-    <col min="2" max="4" width="20.5" customWidth="1"/>
-    <col min="5" max="5" width="16.75" customWidth="1"/>
-    <col min="6" max="6" width="11.75" customWidth="1"/>
-    <col min="7" max="7" width="22" customWidth="1"/>
-    <col min="8" max="8" width="13.75" customWidth="1"/>
-    <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="12.375" customWidth="1"/>
-    <col min="11" max="11" width="14.125" customWidth="1"/>
-    <col min="12" max="12" width="13.5" customWidth="1"/>
-    <col min="13" max="13" width="19.5" customWidth="1"/>
+    <col min="1" max="2" width="13.75" customWidth="1"/>
+    <col min="3" max="3" width="10.375" customWidth="1"/>
+    <col min="4" max="4" width="129.375" customWidth="1"/>
+    <col min="5" max="5" width="28.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" ht="57" spans="1:13">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" s="4" customFormat="1" ht="14.25" spans="1:13">
-      <c r="A2" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="12">
-        <v>1</v>
-      </c>
-      <c r="C2" s="12">
-        <v>1</v>
-      </c>
-      <c r="D2" s="12">
-        <v>0</v>
-      </c>
-      <c r="E2" s="12">
-        <v>2</v>
-      </c>
-      <c r="F2" s="13">
-        <v>2</v>
-      </c>
-      <c r="G2" s="13">
-        <v>2</v>
-      </c>
-      <c r="H2" s="13">
-        <v>2</v>
-      </c>
-      <c r="I2" s="13">
-        <v>2</v>
-      </c>
-      <c r="J2" s="13">
-        <v>2</v>
-      </c>
-      <c r="K2" s="13">
-        <v>2</v>
-      </c>
-      <c r="L2" s="13">
-        <v>2</v>
-      </c>
-      <c r="M2" s="13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" s="4" customFormat="1" ht="14.25" spans="1:13">
-      <c r="A3" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="M3" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" s="4" customFormat="1" ht="14.25" spans="1:13">
-      <c r="A4" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="L4" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="M4" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" s="5" customFormat="1" ht="37.55" spans="1:13">
-      <c r="A5" s="5">
-        <v>2</v>
-      </c>
-      <c r="B5" s="5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="5">
-        <v>1</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="14">
-        <v>4</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="I5" s="15">
-        <v>20</v>
-      </c>
-      <c r="J5" s="15">
-        <v>3</v>
-      </c>
-      <c r="K5" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="L5" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="M5" s="15" t="str">
-        <f>_xlfn.DISPIMG("ID_DE7940C7BC2D4D46915E35BA3143081A",1)</f>
-        <v>=DISPIMG("ID_DE7940C7BC2D4D46915E35BA3143081A",1)</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:L4">
-      <formula1>数据类型!$B$2:$B$51</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D37"/>
-  <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
-  <cols>
-    <col min="1" max="2" width="13.75" customWidth="1"/>
-    <col min="3" max="3" width="79.9166666666667" customWidth="1"/>
-    <col min="4" max="4" width="28.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>64</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -2813,27 +3229,33 @@
         <v>31</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>67</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>71</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -2841,288 +3263,364 @@
         <v>28</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>73</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>76</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>79</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>64</v>
-      </c>
+      <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>81</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>85</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>88</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>91</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>94</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>97</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>84</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>101</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>103</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>104</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>105</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>106</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>107</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>108</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>109</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>110</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>111</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" s="2">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>112</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="2">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>113</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="2">
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>116</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="2">
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>120</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="2">
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>123</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="2">
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>126</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -3130,10 +3628,13 @@
         <v>32</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>128</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -3141,91 +3642,125 @@
         <v>30</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>130</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="2">
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>133</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="2">
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>137</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="2">
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>140</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="2">
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>142</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="2">
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>122</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>144</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="2">
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>125</v>
+        <v>146</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="3">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/配置文档/动画相关/帧动画.xlsx
+++ b/配置文档/动画相关/帧动画.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17805" windowHeight="7080"/>
+    <workbookView windowHeight="17655" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="cfg_AnimaUnit_单位帧动画配置" sheetId="4" r:id="rId1"/>
@@ -67,38 +67,13 @@
   <etc:cellImage>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="ID_FD737468540A4B0689A1B65091CC19B7" descr="炮塔地基 (2)"/>
+        <xdr:cNvPr id="4" name="ID_B1E5BBB75DF144E6BCE87AD7FFB08D41" descr="射线炮塔 (2)"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14831060" y="2917825"/>
-          <a:ext cx="760730" cy="751205"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-  </etc:cellImage>
-  <etc:cellImage>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="ID_B1E5BBB75DF144E6BCE87AD7FFB08D41" descr="射线炮塔 (2)"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -123,7 +98,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId4"/>
+        <a:blip r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -132,6 +107,81 @@
         <a:xfrm>
           <a:off x="17316450" y="1809750"/>
           <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="ID_B967F5BF18684EFFA6C6E0F02372A10A" descr="小型作战单元标准一型"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17632045" y="4000500"/>
+          <a:ext cx="2358390" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="ID_0E8DF86F638645E79A50B03937E8FCF4" descr="射击塔-0~12闲置，13~24攻击"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17705705" y="2481580"/>
+          <a:ext cx="2059305" cy="4371340"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="ID_7A31AC34455C42919D1E16DA522A1360" descr="小型炮塔1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18526125" y="2333625"/>
+          <a:ext cx="685800" cy="694055"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -151,7 +201,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="154">
   <si>
     <t>该表用于配置实体的帧动画
 数据不想填就写 #BASEVALUE</t>
@@ -276,6 +326,9 @@
   </si>
   <si>
     <t>单位移动动画</t>
+  </si>
+  <si>
+    <t>(63,62)</t>
   </si>
   <si>
     <t>实体id
@@ -323,7 +376,10 @@
     <t>测试武器</t>
   </si>
   <si>
-    <t>(50,126)</t>
+    <t>(36,116)</t>
+  </si>
+  <si>
+    <t>（6,4）</t>
   </si>
   <si>
     <t>子弹标签</t>
@@ -364,6 +420,9 @@
   </si>
   <si>
     <t>ExplodeId</t>
+  </si>
+  <si>
+    <t>(50,126)</t>
   </si>
   <si>
     <t>数据类型编号</t>
@@ -1300,9 +1359,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1374,6 +1430,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1700,13 +1759,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="43.375" customWidth="1"/>
     <col min="2" max="4" width="20.5" customWidth="1"/>
@@ -1718,255 +1777,423 @@
     <col min="10" max="10" width="12.375" customWidth="1"/>
     <col min="11" max="11" width="18.375" customWidth="1"/>
     <col min="12" max="12" width="13.5" customWidth="1"/>
-    <col min="13" max="13" width="19.5" customWidth="1"/>
+    <col min="13" max="13" width="24.5583333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="23" customFormat="1" ht="85.5" spans="1:13">
-      <c r="A1" s="4" t="s">
+    <row r="1" s="22" customFormat="1" ht="85.5" spans="1:13">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="6" t="s">
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" s="24" customFormat="1" ht="14.25" spans="1:13">
-      <c r="A2" s="9" t="s">
+    <row r="2" s="23" customFormat="1" ht="14.25" spans="1:13">
+      <c r="A2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="10">
-        <v>1</v>
-      </c>
-      <c r="C2" s="10">
-        <v>1</v>
-      </c>
-      <c r="D2" s="10">
+      <c r="B2" s="9">
+        <v>1</v>
+      </c>
+      <c r="C2" s="9">
+        <v>1</v>
+      </c>
+      <c r="D2" s="9">
         <v>0</v>
       </c>
-      <c r="E2" s="10">
-        <v>2</v>
-      </c>
-      <c r="F2" s="11">
-        <v>2</v>
-      </c>
-      <c r="G2" s="11">
-        <v>2</v>
-      </c>
-      <c r="H2" s="11">
-        <v>2</v>
-      </c>
-      <c r="I2" s="11">
-        <v>2</v>
-      </c>
-      <c r="J2" s="11">
-        <v>2</v>
-      </c>
-      <c r="K2" s="11">
-        <v>2</v>
-      </c>
-      <c r="L2" s="11">
-        <v>2</v>
-      </c>
-      <c r="M2" s="11">
+      <c r="E2" s="9">
+        <v>2</v>
+      </c>
+      <c r="F2" s="10">
+        <v>2</v>
+      </c>
+      <c r="G2" s="10">
+        <v>2</v>
+      </c>
+      <c r="H2" s="10">
+        <v>2</v>
+      </c>
+      <c r="I2" s="10">
+        <v>2</v>
+      </c>
+      <c r="J2" s="10">
+        <v>2</v>
+      </c>
+      <c r="K2" s="10">
+        <v>2</v>
+      </c>
+      <c r="L2" s="10">
+        <v>2</v>
+      </c>
+      <c r="M2" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="3" s="24" customFormat="1" ht="14.25" spans="1:13">
-      <c r="A3" s="9" t="s">
+    <row r="3" s="23" customFormat="1" ht="14.25" spans="1:13">
+      <c r="A3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="M3" s="10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" s="24" customFormat="1" ht="14.25" spans="1:13">
-      <c r="A4" s="9" t="s">
+    <row r="4" s="23" customFormat="1" ht="14.25" spans="1:13">
+      <c r="A4" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="L4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="11" t="s">
+      <c r="M4" s="10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" s="18" customFormat="1" ht="37.55" spans="1:13">
-      <c r="A5" s="18">
-        <v>1</v>
-      </c>
-      <c r="B5" s="18">
+    <row r="5" s="17" customFormat="1" ht="42.75" spans="1:13">
+      <c r="A5" s="17">
+        <v>1</v>
+      </c>
+      <c r="B5" s="17">
         <v>1001</v>
       </c>
-      <c r="C5" s="18">
-        <v>1</v>
-      </c>
-      <c r="D5" s="18" t="s">
+      <c r="C5" s="17">
+        <v>1</v>
+      </c>
+      <c r="D5" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="20">
+      <c r="G5" s="19">
         <v>4</v>
       </c>
-      <c r="H5" s="20" t="s">
+      <c r="H5" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="21">
+      <c r="I5" s="20">
         <v>20</v>
       </c>
-      <c r="J5" s="21">
+      <c r="J5" s="20">
         <v>3</v>
       </c>
-      <c r="K5" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="L5" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="M5" s="21" t="str">
-        <f>_xlfn.DISPIMG("ID_DE7940C7BC2D4D46915E35BA3143081A",1)</f>
+      <c r="K5" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="L5" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="M5" s="20" t="str">
+        <f t="shared" ref="M5:M8" si="0">_xlfn.DISPIMG("ID_DE7940C7BC2D4D46915E35BA3143081A",1)</f>
         <v>=DISPIMG("ID_DE7940C7BC2D4D46915E35BA3143081A",1)</v>
       </c>
     </row>
-    <row r="6" s="18" customFormat="1" ht="37.55" spans="1:13">
-      <c r="A6" s="18">
-        <v>1</v>
-      </c>
-      <c r="B6" s="18">
+    <row r="6" s="17" customFormat="1" ht="42.75" spans="1:13">
+      <c r="A6" s="17">
+        <v>1</v>
+      </c>
+      <c r="B6" s="17">
         <v>1001</v>
       </c>
-      <c r="C6" s="18">
-        <v>2</v>
-      </c>
-      <c r="D6" s="18" t="s">
+      <c r="C6" s="17">
+        <v>2</v>
+      </c>
+      <c r="D6" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="20">
+      <c r="G6" s="19">
         <v>4</v>
       </c>
-      <c r="H6" s="20" t="s">
+      <c r="H6" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="I6" s="21">
+      <c r="I6" s="20">
         <v>20</v>
       </c>
-      <c r="J6" s="21">
+      <c r="J6" s="20">
         <v>3</v>
       </c>
-      <c r="K6" s="21" t="b">
+      <c r="K6" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="L6" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="M6" s="21" t="str">
-        <f>_xlfn.DISPIMG("ID_DE7940C7BC2D4D46915E35BA3143081A",1)</f>
+      <c r="L6" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="M6" s="20" t="str">
+        <f t="shared" si="0"/>
         <v>=DISPIMG("ID_DE7940C7BC2D4D46915E35BA3143081A",1)</v>
+      </c>
+    </row>
+    <row r="7" ht="42.75" spans="1:13">
+      <c r="A7" s="17">
+        <v>1</v>
+      </c>
+      <c r="B7" s="27">
+        <v>1003</v>
+      </c>
+      <c r="C7" s="27">
+        <v>1</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="27">
+        <v>4</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="27">
+        <v>16</v>
+      </c>
+      <c r="J7" s="27">
+        <v>3</v>
+      </c>
+      <c r="K7" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="L7" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="M7" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>=DISPIMG("ID_DE7940C7BC2D4D46915E35BA3143081A",1)</v>
+      </c>
+    </row>
+    <row r="8" ht="42.75" spans="1:13">
+      <c r="A8" s="17">
+        <v>1</v>
+      </c>
+      <c r="B8" s="27">
+        <v>1003</v>
+      </c>
+      <c r="C8" s="17">
+        <v>2</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="27">
+        <v>4</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" s="27">
+        <v>16</v>
+      </c>
+      <c r="J8" s="27">
+        <v>3</v>
+      </c>
+      <c r="K8" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="L8" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="M8" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>=DISPIMG("ID_DE7940C7BC2D4D46915E35BA3143081A",1)</v>
+      </c>
+    </row>
+    <row r="9" ht="38.55" spans="1:13">
+      <c r="A9" s="27">
+        <v>1</v>
+      </c>
+      <c r="B9" s="27">
+        <v>1009</v>
+      </c>
+      <c r="C9" s="27">
+        <v>1</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="27">
+        <v>4</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" s="27">
+        <v>20</v>
+      </c>
+      <c r="J9" s="27">
+        <v>3</v>
+      </c>
+      <c r="K9" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="L9" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="M9" s="27" t="str">
+        <f>_xlfn.DISPIMG("ID_B967F5BF18684EFFA6C6E0F02372A10A",1)</f>
+        <v>=DISPIMG("ID_B967F5BF18684EFFA6C6E0F02372A10A",1)</v>
+      </c>
+    </row>
+    <row r="10" ht="38.55" spans="1:13">
+      <c r="A10" s="27">
+        <v>1</v>
+      </c>
+      <c r="B10" s="27">
+        <v>1009</v>
+      </c>
+      <c r="C10" s="27">
+        <v>1</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="27">
+        <v>4</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" s="27">
+        <v>20</v>
+      </c>
+      <c r="J10" s="27">
+        <v>3</v>
+      </c>
+      <c r="K10" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="L10" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="M10" s="27" t="str">
+        <f>_xlfn.DISPIMG("ID_B967F5BF18684EFFA6C6E0F02372A10A",1)</f>
+        <v>=DISPIMG("ID_B967F5BF18684EFFA6C6E0F02372A10A",1)</v>
       </c>
     </row>
   </sheetData>
@@ -1986,7 +2213,7 @@
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -2006,210 +2233,210 @@
     <col min="13" max="13" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="23" customFormat="1" ht="105" customHeight="1" spans="1:13">
-      <c r="A1" s="4" t="s">
+    <row r="1" s="22" customFormat="1" ht="105" customHeight="1" spans="1:13">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="17" t="s">
+      <c r="B1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="C1" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="L1" s="8" t="s">
+      <c r="K1" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" s="24" customFormat="1" ht="14.25" spans="1:13">
-      <c r="A2" s="9" t="s">
+    <row r="2" s="23" customFormat="1" ht="14.25" spans="1:13">
+      <c r="A2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="10">
-        <v>1</v>
-      </c>
-      <c r="C2" s="10">
-        <v>1</v>
-      </c>
-      <c r="D2" s="10">
+      <c r="B2" s="9">
+        <v>1</v>
+      </c>
+      <c r="C2" s="9">
+        <v>1</v>
+      </c>
+      <c r="D2" s="9">
         <v>0</v>
       </c>
-      <c r="E2" s="10">
-        <v>2</v>
-      </c>
-      <c r="F2" s="11">
-        <v>2</v>
-      </c>
-      <c r="G2" s="11">
-        <v>2</v>
-      </c>
-      <c r="H2" s="11">
-        <v>2</v>
-      </c>
-      <c r="I2" s="11">
-        <v>2</v>
-      </c>
-      <c r="J2" s="11">
-        <v>2</v>
-      </c>
-      <c r="K2" s="11">
-        <v>2</v>
-      </c>
-      <c r="L2" s="11">
-        <v>2</v>
-      </c>
-      <c r="M2" s="11">
+      <c r="E2" s="9">
+        <v>2</v>
+      </c>
+      <c r="F2" s="10">
+        <v>2</v>
+      </c>
+      <c r="G2" s="10">
+        <v>2</v>
+      </c>
+      <c r="H2" s="10">
+        <v>2</v>
+      </c>
+      <c r="I2" s="10">
+        <v>2</v>
+      </c>
+      <c r="J2" s="10">
+        <v>2</v>
+      </c>
+      <c r="K2" s="10">
+        <v>2</v>
+      </c>
+      <c r="L2" s="10">
+        <v>2</v>
+      </c>
+      <c r="M2" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="3" s="24" customFormat="1" ht="14.25" spans="1:13">
-      <c r="A3" s="9" t="s">
+    <row r="3" s="23" customFormat="1" ht="14.25" spans="1:13">
+      <c r="A3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="M3" s="10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" s="24" customFormat="1" ht="14.25" spans="1:13">
-      <c r="A4" s="9" t="s">
+    <row r="4" s="23" customFormat="1" ht="14.25" spans="1:13">
+      <c r="A4" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="L4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="11" t="s">
+      <c r="M4" s="10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" s="18" customFormat="1" ht="61.4" spans="1:13">
-      <c r="A5" s="18">
-        <v>1</v>
-      </c>
-      <c r="B5" s="18">
+    <row r="5" s="17" customFormat="1" ht="56.9" spans="1:13">
+      <c r="A5" s="17">
+        <v>1</v>
+      </c>
+      <c r="B5" s="17">
         <v>2001</v>
       </c>
-      <c r="C5" s="18">
-        <v>1</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="18" t="s">
+      <c r="C5" s="17">
+        <v>1</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="G5" s="20">
-        <v>1</v>
-      </c>
-      <c r="H5" s="20" t="s">
+      <c r="F5" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="21">
+      <c r="G5" s="19">
+        <v>1</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" s="20">
         <v>20</v>
       </c>
-      <c r="J5" s="21">
+      <c r="J5" s="20">
         <v>3</v>
       </c>
-      <c r="K5" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="L5" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="M5" s="16" t="str">
-        <f>_xlfn.DISPIMG("ID_FD737468540A4B0689A1B65091CC19B7",1)</f>
-        <v>=DISPIMG("ID_FD737468540A4B0689A1B65091CC19B7",1)</v>
+      <c r="K5" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="L5" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="M5" s="15" t="str">
+        <f>_xlfn.DISPIMG("ID_7A31AC34455C42919D1E16DA522A1360",1)</f>
+        <v>=DISPIMG("ID_7A31AC34455C42919D1E16DA522A1360",1)</v>
       </c>
     </row>
   </sheetData>
@@ -2228,8 +2455,8 @@
   <sheetPr/>
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36:H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -2247,208 +2474,208 @@
     <col min="13" max="13" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="23" customFormat="1" ht="85.5" spans="1:13">
-      <c r="A1" s="4" t="s">
+    <row r="1" s="22" customFormat="1" ht="85.5" spans="1:13">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" s="17" t="s">
+      <c r="B1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="C1" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="L1" s="8" t="s">
+      <c r="K1" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" s="24" customFormat="1" ht="14.25" spans="1:13">
-      <c r="A2" s="9" t="s">
+    <row r="2" s="23" customFormat="1" ht="14.25" spans="1:13">
+      <c r="A2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="10">
-        <v>1</v>
-      </c>
-      <c r="C2" s="10">
-        <v>1</v>
-      </c>
-      <c r="D2" s="10">
+      <c r="B2" s="9">
+        <v>1</v>
+      </c>
+      <c r="C2" s="9">
+        <v>1</v>
+      </c>
+      <c r="D2" s="9">
         <v>0</v>
       </c>
-      <c r="E2" s="10">
-        <v>2</v>
-      </c>
-      <c r="F2" s="11">
-        <v>2</v>
-      </c>
-      <c r="G2" s="11">
-        <v>2</v>
-      </c>
-      <c r="H2" s="11">
-        <v>2</v>
-      </c>
-      <c r="I2" s="11">
-        <v>2</v>
-      </c>
-      <c r="J2" s="11">
-        <v>2</v>
-      </c>
-      <c r="K2" s="11">
-        <v>2</v>
-      </c>
-      <c r="L2" s="11">
-        <v>2</v>
-      </c>
-      <c r="M2" s="11">
+      <c r="E2" s="9">
+        <v>2</v>
+      </c>
+      <c r="F2" s="10">
+        <v>2</v>
+      </c>
+      <c r="G2" s="10">
+        <v>2</v>
+      </c>
+      <c r="H2" s="10">
+        <v>2</v>
+      </c>
+      <c r="I2" s="10">
+        <v>2</v>
+      </c>
+      <c r="J2" s="10">
+        <v>2</v>
+      </c>
+      <c r="K2" s="10">
+        <v>2</v>
+      </c>
+      <c r="L2" s="10">
+        <v>2</v>
+      </c>
+      <c r="M2" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="3" s="24" customFormat="1" ht="14.25" spans="1:13">
-      <c r="A3" s="9" t="s">
+    <row r="3" s="23" customFormat="1" ht="14.25" spans="1:13">
+      <c r="A3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="M3" s="10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" s="24" customFormat="1" ht="14.25" spans="1:13">
-      <c r="A4" s="9" t="s">
+    <row r="4" s="23" customFormat="1" ht="14.25" spans="1:13">
+      <c r="A4" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="L4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="11" t="s">
+      <c r="M4" s="10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" s="25" customFormat="1" ht="37.55" spans="1:13">
-      <c r="A5" s="25">
-        <v>2</v>
-      </c>
-      <c r="B5" s="25">
+    <row r="5" s="24" customFormat="1" ht="37.55" spans="1:13">
+      <c r="A5" s="24">
+        <v>2</v>
+      </c>
+      <c r="B5" s="24">
         <v>3001</v>
       </c>
-      <c r="C5" s="25">
-        <v>1</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" s="25" t="s">
+      <c r="C5" s="24">
+        <v>1</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="26">
+      <c r="G5" s="25">
         <v>4</v>
       </c>
-      <c r="H5" s="26" t="s">
+      <c r="H5" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="27">
+      <c r="I5" s="26">
         <v>20</v>
       </c>
-      <c r="J5" s="27">
+      <c r="J5" s="26">
         <v>3</v>
       </c>
-      <c r="K5" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="L5" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="M5" s="27" t="str">
+      <c r="K5" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="L5" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="M5" s="26" t="str">
         <f>_xlfn.DISPIMG("ID_DE7940C7BC2D4D46915E35BA3143081A",1)</f>
         <v>=DISPIMG("ID_DE7940C7BC2D4D46915E35BA3143081A",1)</v>
       </c>
@@ -2469,8 +2696,8 @@
   <sheetPr/>
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -2489,209 +2716,209 @@
   </cols>
   <sheetData>
     <row r="1" ht="99.75" spans="1:13">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="6" t="s">
+      <c r="B1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="L1" s="8" t="s">
+      <c r="K1" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:13">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="10">
-        <v>1</v>
-      </c>
-      <c r="C2" s="10">
-        <v>1</v>
-      </c>
-      <c r="D2" s="10">
+      <c r="B2" s="9">
+        <v>1</v>
+      </c>
+      <c r="C2" s="9">
+        <v>1</v>
+      </c>
+      <c r="D2" s="9">
         <v>0</v>
       </c>
-      <c r="E2" s="10">
-        <v>2</v>
-      </c>
-      <c r="F2" s="11">
-        <v>2</v>
-      </c>
-      <c r="G2" s="11">
-        <v>2</v>
-      </c>
-      <c r="H2" s="11">
-        <v>2</v>
-      </c>
-      <c r="I2" s="11">
-        <v>2</v>
-      </c>
-      <c r="J2" s="11">
-        <v>2</v>
-      </c>
-      <c r="K2" s="11">
-        <v>2</v>
-      </c>
-      <c r="L2" s="11">
-        <v>2</v>
-      </c>
-      <c r="M2" s="11">
+      <c r="E2" s="9">
+        <v>2</v>
+      </c>
+      <c r="F2" s="10">
+        <v>2</v>
+      </c>
+      <c r="G2" s="10">
+        <v>2</v>
+      </c>
+      <c r="H2" s="10">
+        <v>2</v>
+      </c>
+      <c r="I2" s="10">
+        <v>2</v>
+      </c>
+      <c r="J2" s="10">
+        <v>2</v>
+      </c>
+      <c r="K2" s="10">
+        <v>2</v>
+      </c>
+      <c r="L2" s="10">
+        <v>2</v>
+      </c>
+      <c r="M2" s="10">
         <v>3</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:13">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="M3" s="10" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:13">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="L4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="11" t="s">
+      <c r="M4" s="10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" s="22" customFormat="1" ht="83" customHeight="1" spans="1:13">
-      <c r="A5" s="12">
-        <v>2</v>
-      </c>
-      <c r="B5" s="12">
+    <row r="5" s="21" customFormat="1" ht="83" customHeight="1" spans="1:13">
+      <c r="A5" s="11">
+        <v>2</v>
+      </c>
+      <c r="B5" s="11">
         <v>4001</v>
       </c>
-      <c r="C5" s="12">
-        <v>1</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="12" t="s">
+      <c r="C5" s="11">
+        <v>1</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="G5" s="14">
-        <v>1</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="I5" s="15">
+      <c r="F5" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" s="13">
+        <v>24</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="I5" s="14">
         <v>20</v>
       </c>
-      <c r="J5" s="15">
-        <v>3</v>
-      </c>
-      <c r="K5" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="L5" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="M5" s="15" t="str">
-        <f>_xlfn.DISPIMG("ID_B1E5BBB75DF144E6BCE87AD7FFB08D41",1)</f>
-        <v>=DISPIMG("ID_B1E5BBB75DF144E6BCE87AD7FFB08D41",1)</v>
+      <c r="J5" s="14">
+        <v>20</v>
+      </c>
+      <c r="K5" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="L5" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="M5" s="14" t="str">
+        <f>_xlfn.DISPIMG("ID_0E8DF86F638645E79A50B03937E8FCF4",1)</f>
+        <v>=DISPIMG("ID_0E8DF86F638645E79A50B03937E8FCF4",1)</v>
       </c>
     </row>
   </sheetData>
@@ -2730,207 +2957,207 @@
   </cols>
   <sheetData>
     <row r="1" ht="57" spans="1:13">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="D1" s="6" t="s">
+      <c r="B1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="G1" s="8" t="s">
+      <c r="F1" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="I1" s="8" t="s">
+      <c r="H1" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="L1" s="8" t="s">
+      <c r="K1" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:13">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="10">
-        <v>1</v>
-      </c>
-      <c r="C2" s="10">
-        <v>1</v>
-      </c>
-      <c r="D2" s="10">
+      <c r="B2" s="9">
+        <v>1</v>
+      </c>
+      <c r="C2" s="9">
+        <v>1</v>
+      </c>
+      <c r="D2" s="9">
         <v>0</v>
       </c>
-      <c r="E2" s="10">
-        <v>2</v>
-      </c>
-      <c r="F2" s="11">
-        <v>2</v>
-      </c>
-      <c r="G2" s="11">
-        <v>2</v>
-      </c>
-      <c r="H2" s="11">
-        <v>2</v>
-      </c>
-      <c r="I2" s="11">
-        <v>2</v>
-      </c>
-      <c r="J2" s="11">
-        <v>2</v>
-      </c>
-      <c r="K2" s="11">
-        <v>2</v>
-      </c>
-      <c r="L2" s="11">
-        <v>2</v>
-      </c>
-      <c r="M2" s="11">
+      <c r="E2" s="9">
+        <v>2</v>
+      </c>
+      <c r="F2" s="10">
+        <v>2</v>
+      </c>
+      <c r="G2" s="10">
+        <v>2</v>
+      </c>
+      <c r="H2" s="10">
+        <v>2</v>
+      </c>
+      <c r="I2" s="10">
+        <v>2</v>
+      </c>
+      <c r="J2" s="10">
+        <v>2</v>
+      </c>
+      <c r="K2" s="10">
+        <v>2</v>
+      </c>
+      <c r="L2" s="10">
+        <v>2</v>
+      </c>
+      <c r="M2" s="10">
         <v>3</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:13">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="10" t="s">
+      <c r="B3" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="M3" s="10" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:13">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="L4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="11" t="s">
+      <c r="M4" s="10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" s="16" customFormat="1" ht="80" customHeight="1" spans="1:13">
-      <c r="A5" s="18">
-        <v>1</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" s="18">
-        <v>1</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="E5" s="18" t="s">
+    <row r="5" s="15" customFormat="1" ht="80" customHeight="1" spans="1:13">
+      <c r="A5" s="17">
+        <v>1</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="17">
+        <v>1</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="G5" s="20">
-        <v>1</v>
-      </c>
-      <c r="H5" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="I5" s="21">
+      <c r="F5" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" s="19">
+        <v>1</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" s="20">
         <v>20</v>
       </c>
-      <c r="J5" s="21">
+      <c r="J5" s="20">
         <v>3</v>
       </c>
-      <c r="K5" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="L5" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="M5" s="21" t="str">
+      <c r="K5" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="L5" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="M5" s="20" t="str">
         <f>_xlfn.DISPIMG("ID_0F2E3DE674534288BE9A0F6B995263B2",1)</f>
         <v>=DISPIMG("ID_0F2E3DE674534288BE9A0F6B995263B2",1)</v>
       </c>
@@ -2971,207 +3198,207 @@
   </cols>
   <sheetData>
     <row r="1" ht="57" spans="1:13">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1" s="6" t="s">
+      <c r="B1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="L1" s="8" t="s">
+      <c r="K1" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:13">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="10">
-        <v>1</v>
-      </c>
-      <c r="C2" s="10">
-        <v>1</v>
-      </c>
-      <c r="D2" s="10">
+      <c r="B2" s="9">
+        <v>1</v>
+      </c>
+      <c r="C2" s="9">
+        <v>1</v>
+      </c>
+      <c r="D2" s="9">
         <v>0</v>
       </c>
-      <c r="E2" s="10">
-        <v>2</v>
-      </c>
-      <c r="F2" s="11">
-        <v>2</v>
-      </c>
-      <c r="G2" s="11">
-        <v>2</v>
-      </c>
-      <c r="H2" s="11">
-        <v>2</v>
-      </c>
-      <c r="I2" s="11">
-        <v>2</v>
-      </c>
-      <c r="J2" s="11">
-        <v>2</v>
-      </c>
-      <c r="K2" s="11">
-        <v>2</v>
-      </c>
-      <c r="L2" s="11">
-        <v>2</v>
-      </c>
-      <c r="M2" s="11">
+      <c r="E2" s="9">
+        <v>2</v>
+      </c>
+      <c r="F2" s="10">
+        <v>2</v>
+      </c>
+      <c r="G2" s="10">
+        <v>2</v>
+      </c>
+      <c r="H2" s="10">
+        <v>2</v>
+      </c>
+      <c r="I2" s="10">
+        <v>2</v>
+      </c>
+      <c r="J2" s="10">
+        <v>2</v>
+      </c>
+      <c r="K2" s="10">
+        <v>2</v>
+      </c>
+      <c r="L2" s="10">
+        <v>2</v>
+      </c>
+      <c r="M2" s="10">
         <v>3</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:13">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="10" t="s">
+      <c r="B3" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="M3" s="10" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:13">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="L4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="11" t="s">
+      <c r="M4" s="10" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="5" ht="98" customHeight="1" spans="1:13">
-      <c r="A5" s="12">
-        <v>2</v>
-      </c>
-      <c r="B5" s="12">
-        <v>1</v>
-      </c>
-      <c r="C5" s="12">
-        <v>1</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="12" t="s">
+      <c r="A5" s="11">
+        <v>2</v>
+      </c>
+      <c r="B5" s="11">
+        <v>1</v>
+      </c>
+      <c r="C5" s="11">
+        <v>1</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="G5" s="14">
-        <v>1</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="I5" s="15">
+      <c r="F5" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" s="13">
+        <v>1</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" s="14">
         <v>20</v>
       </c>
-      <c r="J5" s="15">
+      <c r="J5" s="14">
         <v>3</v>
       </c>
-      <c r="K5" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="L5" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="M5" s="15" t="str">
+      <c r="K5" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="L5" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="M5" s="14" t="str">
         <f>_xlfn.DISPIMG("ID_B1E5BBB75DF144E6BCE87AD7FFB08D41",1)</f>
         <v>=DISPIMG("ID_B1E5BBB75DF144E6BCE87AD7FFB08D41",1)</v>
       </c>
@@ -3206,19 +3433,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3229,13 +3456,13 @@
         <v>31</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3243,16 +3470,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3263,13 +3490,13 @@
         <v>28</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3277,16 +3504,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3294,16 +3521,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3315,10 +3542,10 @@
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3326,16 +3553,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3343,16 +3570,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="D9" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3360,16 +3587,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3377,16 +3604,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3394,16 +3621,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3411,13 +3638,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -3425,10 +3652,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -3436,10 +3663,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -3447,10 +3674,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -3458,10 +3685,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -3469,10 +3696,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -3480,10 +3707,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -3491,10 +3718,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -3502,10 +3729,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -3513,10 +3740,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -3524,10 +3751,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -3535,10 +3762,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -3546,10 +3773,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -3557,16 +3784,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -3574,16 +3801,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -3591,16 +3818,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -3608,16 +3835,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -3628,10 +3855,10 @@
         <v>32</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -3642,13 +3869,13 @@
         <v>30</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -3656,16 +3883,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -3673,16 +3900,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -3690,16 +3917,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -3707,16 +3934,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -3724,14 +3951,14 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -3739,28 +3966,28 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="3">
+      <c r="A38" s="2">
         <v>37</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>150</v>
+      <c r="B38" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/配置文档/动画相关/帧动画.xlsx
+++ b/配置文档/动画相关/帧动画.xlsx
@@ -4,21 +4,22 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655" activeTab="3"/>
+    <workbookView windowWidth="21780" windowHeight="9195" firstSheet="4"/>
   </bookViews>
   <sheets>
     <sheet name="cfg_AnimaUnit_单位帧动画配置" sheetId="4" r:id="rId1"/>
     <sheet name="cfg_AnimaTower_炮塔动画" sheetId="3" r:id="rId2"/>
     <sheet name="cfg_AnimaBuild_建筑动画" sheetId="5" r:id="rId3"/>
     <sheet name="cfg_AnimaWeapon_武器动画" sheetId="8" r:id="rId4"/>
-    <sheet name="cfg_AnimaBullet_子弹动画" sheetId="9" r:id="rId5"/>
-    <sheet name="cfg_AnimaExplode_爆炸动画" sheetId="10" r:id="rId6"/>
-    <sheet name="数据类型" sheetId="2" r:id="rId7"/>
+    <sheet name="cfg_AnimaWorker_无人机动画" sheetId="11" r:id="rId5"/>
+    <sheet name="cfg_AnimaBullet_子弹动画" sheetId="9" r:id="rId6"/>
+    <sheet name="cfg_AnimaExplode_爆炸动画" sheetId="10" r:id="rId7"/>
+    <sheet name="数据类型" sheetId="2" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="6">数据类型!#REF!</definedName>
-    <definedName name="数据类型_Sheet1" localSheetId="6">数据类型!#REF!</definedName>
-    <definedName name="连接" localSheetId="6">数据类型!$A$1:$E$38</definedName>
+    <definedName name="ExternalData_1" localSheetId="7">数据类型!#REF!</definedName>
+    <definedName name="数据类型_Sheet1" localSheetId="7">数据类型!#REF!</definedName>
+    <definedName name="连接" localSheetId="7">数据类型!$A$1:$E$38</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -142,7 +143,7 @@
   <etc:cellImage>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="ID_0E8DF86F638645E79A50B03937E8FCF4" descr="射击塔-0~12闲置，13~24攻击"/>
+        <xdr:cNvPr id="8" name="ID_7A31AC34455C42919D1E16DA522A1360" descr="小型炮塔1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -155,8 +156,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17705705" y="2481580"/>
-          <a:ext cx="2059305" cy="4371340"/>
+          <a:off x="18526125" y="2333625"/>
+          <a:ext cx="685800" cy="694055"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -167,7 +168,7 @@
   <etc:cellImage>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="ID_7A31AC34455C42919D1E16DA522A1360" descr="小型炮塔1"/>
+        <xdr:cNvPr id="3" name="ID_34DE48E543EE4C9AA1105D48FE110B1C" descr="射击塔-闲置12帧116x36"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -180,8 +181,58 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18526125" y="2333625"/>
-          <a:ext cx="685800" cy="694055"/>
+          <a:off x="17629505" y="2334260"/>
+          <a:ext cx="4119245" cy="1115695"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="ID_EAA8DB7BB74F428C8066EAFDD8962BEC" descr="射击塔-攻击12帧116x36"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17786350" y="2940685"/>
+          <a:ext cx="4119880" cy="1124585"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="ID_180A1A64A691431C977DEE2E74F5A8A7" descr="射击塔-换弹12帧116x69"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17595850" y="3388995"/>
+          <a:ext cx="7902575" cy="1129030"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -201,7 +252,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="173">
   <si>
     <t>该表用于配置实体的帧动画
 数据不想填就写 #BASEVALUE</t>
@@ -213,8 +264,9 @@
   <si>
     <t>帧动画类型
 1 默认动画
-2 静止时动画
-3 移动动画
+2 移动动画
+3 攻击动画
+10 死亡动画
 播放时发现没有该动画就播放默认动画</t>
   </si>
   <si>
@@ -236,11 +288,20 @@
 （横,纵）</t>
   </si>
   <si>
-    <t>持续时间,
-单位毫秒</t>
-  </si>
-  <si>
-    <t>帧数</t>
+    <t>播放时，偏移中心的值
+（横,竖）</t>
+  </si>
+  <si>
+    <t>各帧相对持续时间
+各帧默认为1
+持续时间为1的帧的显示长度是持续时间为2的帧的两倍
+例子:(1,2)|(3,1)
+表示第一帧相对持续时间为2
+表示第三帧相对持续时间为1</t>
+  </si>
+  <si>
+    <t>设置动画播放倍数
+2表示两倍播放，0.5表示半速播放</t>
   </si>
   <si>
     <t>是否自动播放
@@ -253,6 +314,14 @@
     <t>帧图</t>
   </si>
   <si>
+    <t>不水平翻转
+不填默认为True</t>
+  </si>
+  <si>
+    <t>不垂直翻转
+不填默认为True</t>
+  </si>
+  <si>
     <t>字段导出设置</t>
   </si>
   <si>
@@ -280,10 +349,13 @@
     <t>Size</t>
   </si>
   <si>
-    <t>DurationMs</t>
-  </si>
-  <si>
-    <t>FrameCount</t>
+    <t>#Offset</t>
+  </si>
+  <si>
+    <t>#RelativeList</t>
+  </si>
+  <si>
+    <t>#SpeedScale</t>
   </si>
   <si>
     <t>IsAutoplay</t>
@@ -295,6 +367,12 @@
     <t>Picture</t>
   </si>
   <si>
+    <t>#FlipH</t>
+  </si>
+  <si>
+    <t>#FlipV</t>
+  </si>
+  <si>
     <t>数据类型</t>
   </si>
   <si>
@@ -305,6 +383,12 @@
   </si>
   <si>
     <t>Vector2I</t>
+  </si>
+  <si>
+    <t>POINT</t>
+  </si>
+  <si>
+    <t>&lt;(INT)&gt;</t>
   </si>
   <si>
     <t>BOOL</t>
@@ -337,9 +421,9 @@
   <si>
     <t>帧动画类型
 1 默认动画
-2 静止时动画
-3 开火动画
+3 攻击动画
 4 装填动画
+10 死亡动画
 播放时发现没有该动画就播放默认动画</t>
   </si>
   <si>
@@ -361,8 +445,8 @@
   <si>
     <t>帧动画类型
 1 默认动画
-2 静止时动画
-3 工作动画
+5 工作动画
+10 死亡动画
 播放时发现没有该动画就播放默认动画</t>
   </si>
   <si>
@@ -373,21 +457,62 @@
 远程武器</t>
   </si>
   <si>
-    <t>测试武器</t>
-  </si>
-  <si>
-    <t>(36,116)</t>
-  </si>
-  <si>
-    <t>（6,4）</t>
+    <t>帧动画类型
+1 默认动画
+2 移动动画
+3 攻击动画
+4 装填动画
+10 死亡动画(跟随死亡)
+播放时发现没有该动画就播放默认动画</t>
+  </si>
+  <si>
+    <t>帧图大小
+（横,竖）</t>
+  </si>
+  <si>
+    <t>射击炮闲置</t>
+  </si>
+  <si>
+    <t>（36,116）</t>
+  </si>
+  <si>
+    <t>（12,1）</t>
+  </si>
+  <si>
+    <t>射击炮禁用</t>
+  </si>
+  <si>
+    <t>射击炮开火</t>
+  </si>
+  <si>
+    <t>射击炮装填</t>
+  </si>
+  <si>
+    <t>（69,116）</t>
+  </si>
+  <si>
+    <t>该表用于配置无人机的帧动画
+数据不想填就写 #BASEVALUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">无人机-实体id
+</t>
+  </si>
+  <si>
+    <t>#FrameSpeed</t>
+  </si>
+  <si>
+    <t>该表用于配置子弹的帧动画
+数据不想填就写 #BASEVALUE</t>
   </si>
   <si>
     <t>子弹标签</t>
   </si>
   <si>
-    <t xml:space="preserve">帧动画类型
+    <t>帧动画类型
 1 默认动画
-</t>
+6 子弹命中
+7 子弹消失</t>
   </si>
   <si>
     <t>单个帧
@@ -419,9 +544,19 @@
     <t>帧动画类型</t>
   </si>
   <si>
+    <t>设置动画的播放速度
+单位:</t>
+  </si>
+  <si>
     <t>ExplodeId</t>
   </si>
   <si>
+    <t>PlaySpeed</t>
+  </si>
+  <si>
+    <t>测试武器</t>
+  </si>
+  <si>
     <t>(50,126)</t>
   </si>
   <si>
@@ -572,9 +707,6 @@
     <t>&lt;(SHORT)&gt;</t>
   </si>
   <si>
-    <t>&lt;(INT)&gt;</t>
-  </si>
-  <si>
     <t>&lt;(LONG)&gt;</t>
   </si>
   <si>
@@ -594,9 +726,6 @@
   </si>
   <si>
     <t>1</t>
-  </si>
-  <si>
-    <t>POINT</t>
   </si>
   <si>
     <t>(0,0)</t>
@@ -1349,7 +1478,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1392,6 +1521,9 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1410,11 +1542,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1430,9 +1568,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1759,10 +1894,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1774,13 +1909,16 @@
     <col min="7" max="7" width="22" customWidth="1"/>
     <col min="8" max="8" width="13.75" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="12.375" customWidth="1"/>
-    <col min="11" max="11" width="18.375" customWidth="1"/>
-    <col min="12" max="12" width="13.5" customWidth="1"/>
-    <col min="13" max="13" width="24.5583333333333" customWidth="1"/>
+    <col min="10" max="10" width="28.2583333333333" customWidth="1"/>
+    <col min="11" max="11" width="12.375" customWidth="1"/>
+    <col min="12" max="12" width="18.375" customWidth="1"/>
+    <col min="13" max="13" width="13.5" customWidth="1"/>
+    <col min="14" max="14" width="24.5583333333333" customWidth="1"/>
+    <col min="15" max="15" width="17" customWidth="1"/>
+    <col min="16" max="16" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="22" customFormat="1" ht="85.5" spans="1:13">
+    <row r="1" s="25" customFormat="1" ht="103" customHeight="1" spans="1:16">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1820,10 +1958,19 @@
       <c r="M1" s="7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" s="23" customFormat="1" ht="14.25" spans="1:13">
+      <c r="N1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" s="26" customFormat="1" ht="14.25" spans="1:16">
       <c r="A2" s="8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B2" s="9">
         <v>1</v>
@@ -1859,346 +2006,367 @@
         <v>2</v>
       </c>
       <c r="M2" s="10">
+        <v>2</v>
+      </c>
+      <c r="N2" s="10">
+        <v>2</v>
+      </c>
+      <c r="O2" s="10">
+        <v>2</v>
+      </c>
+      <c r="P2" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="3" s="23" customFormat="1" ht="14.25" spans="1:13">
+    <row r="3" s="26" customFormat="1" ht="28.5" spans="1:16">
       <c r="A3" s="8" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" s="23" customFormat="1" ht="14.25" spans="1:13">
+        <v>29</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="P3" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" s="26" customFormat="1" ht="14.25" spans="1:16">
       <c r="A4" s="8" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="M4" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" s="17" customFormat="1" ht="42.75" spans="1:13">
-      <c r="A5" s="17">
-        <v>1</v>
-      </c>
-      <c r="B5" s="17">
+        <v>39</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" s="18" customFormat="1" ht="37.55" spans="1:14">
+      <c r="A5" s="18">
+        <v>1</v>
+      </c>
+      <c r="B5" s="18">
         <v>1001</v>
       </c>
-      <c r="C5" s="17">
-        <v>1</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="19">
+      <c r="C5" s="18">
+        <v>1</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="20">
         <v>4</v>
       </c>
-      <c r="H5" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="I5" s="20">
-        <v>20</v>
-      </c>
-      <c r="J5" s="20">
-        <v>3</v>
-      </c>
-      <c r="K5" s="20" t="b">
-        <v>1</v>
-      </c>
-      <c r="L5" s="20" t="b">
-        <v>1</v>
-      </c>
-      <c r="M5" s="20" t="str">
-        <f t="shared" ref="M5:M8" si="0">_xlfn.DISPIMG("ID_DE7940C7BC2D4D46915E35BA3143081A",1)</f>
+      <c r="H5" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14">
+        <v>1</v>
+      </c>
+      <c r="L5" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="M5" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="N5" s="14" t="str">
+        <f t="shared" ref="N5:N8" si="0">_xlfn.DISPIMG("ID_DE7940C7BC2D4D46915E35BA3143081A",1)</f>
         <v>=DISPIMG("ID_DE7940C7BC2D4D46915E35BA3143081A",1)</v>
       </c>
     </row>
-    <row r="6" s="17" customFormat="1" ht="42.75" spans="1:13">
-      <c r="A6" s="17">
-        <v>1</v>
-      </c>
-      <c r="B6" s="17">
+    <row r="6" s="18" customFormat="1" ht="42.75" spans="1:14">
+      <c r="A6" s="18">
+        <v>1</v>
+      </c>
+      <c r="B6" s="18">
         <v>1001</v>
       </c>
-      <c r="C6" s="17">
-        <v>2</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="19">
+      <c r="C6" s="18">
+        <v>2</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="20">
         <v>4</v>
       </c>
-      <c r="H6" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="I6" s="20">
-        <v>20</v>
-      </c>
-      <c r="J6" s="20">
-        <v>3</v>
-      </c>
-      <c r="K6" s="20" t="b">
+      <c r="H6" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14">
+        <v>1</v>
+      </c>
+      <c r="L6" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="L6" s="20" t="b">
-        <v>1</v>
-      </c>
-      <c r="M6" s="20" t="str">
+      <c r="M6" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="N6" s="14" t="str">
         <f t="shared" si="0"/>
         <v>=DISPIMG("ID_DE7940C7BC2D4D46915E35BA3143081A",1)</v>
       </c>
     </row>
-    <row r="7" ht="42.75" spans="1:13">
-      <c r="A7" s="17">
-        <v>1</v>
-      </c>
-      <c r="B7" s="27">
+    <row r="7" ht="42.75" spans="1:14">
+      <c r="A7" s="18">
+        <v>1</v>
+      </c>
+      <c r="B7" s="21">
         <v>1003</v>
       </c>
-      <c r="C7" s="27">
-        <v>1</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" s="27">
+      <c r="C7" s="21">
+        <v>1</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="21">
         <v>4</v>
       </c>
-      <c r="H7" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7" s="27">
-        <v>16</v>
-      </c>
-      <c r="J7" s="27">
-        <v>3</v>
-      </c>
-      <c r="K7" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="L7" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="M7" s="20" t="str">
+      <c r="H7" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21">
+        <v>1</v>
+      </c>
+      <c r="L7" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="M7" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="N7" s="14" t="str">
         <f t="shared" si="0"/>
         <v>=DISPIMG("ID_DE7940C7BC2D4D46915E35BA3143081A",1)</v>
       </c>
     </row>
-    <row r="8" ht="42.75" spans="1:13">
-      <c r="A8" s="17">
-        <v>1</v>
-      </c>
-      <c r="B8" s="27">
+    <row r="8" ht="42.75" spans="1:14">
+      <c r="A8" s="18">
+        <v>1</v>
+      </c>
+      <c r="B8" s="21">
         <v>1003</v>
       </c>
-      <c r="C8" s="17">
-        <v>2</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" s="27">
+      <c r="C8" s="18">
+        <v>2</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="21">
         <v>4</v>
       </c>
-      <c r="H8" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="I8" s="27">
-        <v>16</v>
-      </c>
-      <c r="J8" s="27">
-        <v>3</v>
-      </c>
-      <c r="K8" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="L8" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="M8" s="20" t="str">
+      <c r="H8" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21">
+        <v>1</v>
+      </c>
+      <c r="L8" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="M8" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="N8" s="14" t="str">
         <f t="shared" si="0"/>
         <v>=DISPIMG("ID_DE7940C7BC2D4D46915E35BA3143081A",1)</v>
       </c>
     </row>
-    <row r="9" ht="38.55" spans="1:13">
-      <c r="A9" s="27">
-        <v>1</v>
-      </c>
-      <c r="B9" s="27">
+    <row r="9" ht="38.55" spans="1:14">
+      <c r="A9" s="21">
+        <v>1</v>
+      </c>
+      <c r="B9" s="21">
         <v>1009</v>
       </c>
-      <c r="C9" s="27">
-        <v>1</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="27">
+      <c r="C9" s="21">
+        <v>1</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="21">
         <v>4</v>
       </c>
-      <c r="H9" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="I9" s="27">
-        <v>20</v>
-      </c>
-      <c r="J9" s="27">
-        <v>3</v>
-      </c>
-      <c r="K9" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="L9" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="M9" s="27" t="str">
+      <c r="H9" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21">
+        <v>1</v>
+      </c>
+      <c r="L9" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="M9" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="N9" s="21" t="str">
         <f>_xlfn.DISPIMG("ID_B967F5BF18684EFFA6C6E0F02372A10A",1)</f>
         <v>=DISPIMG("ID_B967F5BF18684EFFA6C6E0F02372A10A",1)</v>
       </c>
     </row>
-    <row r="10" ht="38.55" spans="1:13">
-      <c r="A10" s="27">
-        <v>1</v>
-      </c>
-      <c r="B10" s="27">
+    <row r="10" ht="38.55" spans="1:14">
+      <c r="A10" s="21">
+        <v>1</v>
+      </c>
+      <c r="B10" s="21">
         <v>1009</v>
       </c>
-      <c r="C10" s="27">
-        <v>1</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="27">
+      <c r="C10" s="21">
+        <v>1</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="21">
         <v>4</v>
       </c>
-      <c r="H10" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="I10" s="27">
-        <v>20</v>
-      </c>
-      <c r="J10" s="27">
-        <v>3</v>
-      </c>
-      <c r="K10" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="L10" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="M10" s="27" t="str">
+      <c r="H10" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21">
+        <v>1</v>
+      </c>
+      <c r="L10" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="M10" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="N10" s="21" t="str">
         <f>_xlfn.DISPIMG("ID_B967F5BF18684EFFA6C6E0F02372A10A",1)</f>
         <v>=DISPIMG("ID_B967F5BF18684EFFA6C6E0F02372A10A",1)</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:L4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:H4 I4 J4 K4 L4:M4 O4 P4">
       <formula1>数据类型!$B$2:$B$51</formula1>
     </dataValidation>
   </dataValidations>
@@ -2210,10 +2378,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -2226,22 +2394,22 @@
     <col min="6" max="6" width="11.75" customWidth="1"/>
     <col min="7" max="7" width="22" customWidth="1"/>
     <col min="8" max="8" width="13.75" customWidth="1"/>
-    <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="12.375" customWidth="1"/>
-    <col min="11" max="11" width="14.125" customWidth="1"/>
-    <col min="12" max="12" width="13.5" customWidth="1"/>
-    <col min="13" max="13" width="19.5" customWidth="1"/>
+    <col min="9" max="10" width="13" customWidth="1"/>
+    <col min="11" max="11" width="12.375" customWidth="1"/>
+    <col min="12" max="12" width="14.125" customWidth="1"/>
+    <col min="13" max="13" width="13.5" customWidth="1"/>
+    <col min="14" max="14" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="22" customFormat="1" ht="105" customHeight="1" spans="1:13">
+    <row r="1" s="25" customFormat="1" ht="120" customHeight="1" spans="1:16">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>40</v>
+        <v>47</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>48</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>3</v>
@@ -2265,18 +2433,27 @@
         <v>9</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="M1" s="7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" s="23" customFormat="1" ht="14.25" spans="1:13">
+      <c r="N1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" s="26" customFormat="1" ht="14.25" spans="1:16">
       <c r="A2" s="8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B2" s="9">
         <v>1</v>
@@ -2312,136 +2489,162 @@
         <v>2</v>
       </c>
       <c r="M2" s="10">
+        <v>2</v>
+      </c>
+      <c r="N2" s="10">
+        <v>2</v>
+      </c>
+      <c r="O2" s="10">
+        <v>2</v>
+      </c>
+      <c r="P2" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="3" s="23" customFormat="1" ht="14.25" spans="1:13">
+    <row r="3" s="26" customFormat="1" ht="28.5" spans="1:16">
       <c r="A3" s="8" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" s="23" customFormat="1" ht="14.25" spans="1:13">
+        <v>29</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="P3" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" s="26" customFormat="1" ht="14.25" spans="1:16">
       <c r="A4" s="8" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="M4" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" s="17" customFormat="1" ht="56.9" spans="1:13">
-      <c r="A5" s="17">
-        <v>1</v>
-      </c>
-      <c r="B5" s="17">
+        <v>39</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" s="18" customFormat="1" ht="56.9" spans="1:14">
+      <c r="A5" s="18">
+        <v>1</v>
+      </c>
+      <c r="B5" s="18">
         <v>2001</v>
       </c>
-      <c r="C5" s="17">
-        <v>1</v>
-      </c>
-      <c r="D5" s="17" t="s">
+      <c r="C5" s="18">
+        <v>1</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="G5" s="19">
-        <v>1</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="I5" s="20">
-        <v>20</v>
-      </c>
-      <c r="J5" s="20">
-        <v>3</v>
-      </c>
-      <c r="K5" s="20" t="b">
-        <v>1</v>
-      </c>
-      <c r="L5" s="20" t="b">
-        <v>1</v>
-      </c>
-      <c r="M5" s="15" t="str">
+      <c r="F5" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="20">
+        <v>1</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14">
+        <v>1</v>
+      </c>
+      <c r="L5" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="M5" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="N5" s="16" t="str">
         <f>_xlfn.DISPIMG("ID_7A31AC34455C42919D1E16DA522A1360",1)</f>
         <v>=DISPIMG("ID_7A31AC34455C42919D1E16DA522A1360",1)</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:L4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:H4 I4 J4 K4 L4:M4 O4 P4">
       <formula1>数据类型!$B$2:$B$51</formula1>
     </dataValidation>
   </dataValidations>
@@ -2453,10 +2656,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36:H36"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -2468,21 +2671,22 @@
     <col min="7" max="7" width="22" customWidth="1"/>
     <col min="8" max="8" width="13.75" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="12.375" customWidth="1"/>
-    <col min="11" max="11" width="14.125" customWidth="1"/>
-    <col min="12" max="12" width="13.5" customWidth="1"/>
-    <col min="13" max="13" width="19.5" customWidth="1"/>
+    <col min="10" max="10" width="28.5833333333333" customWidth="1"/>
+    <col min="11" max="11" width="12.375" customWidth="1"/>
+    <col min="12" max="12" width="14.125" customWidth="1"/>
+    <col min="13" max="13" width="13.5" customWidth="1"/>
+    <col min="14" max="14" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="22" customFormat="1" ht="85.5" spans="1:13">
+    <row r="1" s="25" customFormat="1" ht="100" customHeight="1" spans="1:16">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>46</v>
+        <v>53</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>54</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>3</v>
@@ -2506,18 +2710,27 @@
         <v>9</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="M1" s="7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" s="23" customFormat="1" ht="14.25" spans="1:13">
+      <c r="N1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" s="26" customFormat="1" ht="14.25" spans="1:16">
       <c r="A2" s="8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B2" s="9">
         <v>1</v>
@@ -2553,136 +2766,162 @@
         <v>2</v>
       </c>
       <c r="M2" s="10">
+        <v>2</v>
+      </c>
+      <c r="N2" s="10">
+        <v>2</v>
+      </c>
+      <c r="O2" s="10">
+        <v>2</v>
+      </c>
+      <c r="P2" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="3" s="23" customFormat="1" ht="14.25" spans="1:13">
+    <row r="3" s="26" customFormat="1" ht="28.5" spans="1:16">
       <c r="A3" s="8" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" s="23" customFormat="1" ht="14.25" spans="1:13">
+        <v>29</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="P3" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" s="26" customFormat="1" ht="14.25" spans="1:16">
       <c r="A4" s="8" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="M4" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" s="24" customFormat="1" ht="37.55" spans="1:13">
-      <c r="A5" s="24">
-        <v>2</v>
-      </c>
-      <c r="B5" s="24">
+        <v>39</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" s="27" customFormat="1" ht="37.55" spans="1:14">
+      <c r="A5" s="27">
+        <v>2</v>
+      </c>
+      <c r="B5" s="27">
         <v>3001</v>
       </c>
-      <c r="C5" s="24">
-        <v>1</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="25">
+      <c r="C5" s="27">
+        <v>1</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="28">
         <v>4</v>
       </c>
-      <c r="H5" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="I5" s="26">
-        <v>20</v>
-      </c>
-      <c r="J5" s="26">
-        <v>3</v>
-      </c>
-      <c r="K5" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="L5" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="M5" s="26" t="str">
+      <c r="H5" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29">
+        <v>1</v>
+      </c>
+      <c r="L5" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="M5" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="N5" s="29" t="str">
         <f>_xlfn.DISPIMG("ID_DE7940C7BC2D4D46915E35BA3143081A",1)</f>
         <v>=DISPIMG("ID_DE7940C7BC2D4D46915E35BA3143081A",1)</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:L4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:H4 I4 J4 K4 L4:M4 O4 P4">
       <formula1>数据类型!$B$2:$B$51</formula1>
     </dataValidation>
   </dataValidations>
@@ -2694,36 +2933,38 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="1" width="43.375" customWidth="1"/>
-    <col min="2" max="4" width="20.5" customWidth="1"/>
-    <col min="5" max="5" width="16.75" customWidth="1"/>
-    <col min="6" max="6" width="11.75" customWidth="1"/>
-    <col min="7" max="7" width="22" customWidth="1"/>
-    <col min="8" max="8" width="13.75" customWidth="1"/>
-    <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="12.375" customWidth="1"/>
-    <col min="11" max="11" width="14.125" customWidth="1"/>
-    <col min="12" max="12" width="13.5" customWidth="1"/>
-    <col min="13" max="13" width="19.5" customWidth="1"/>
+    <col min="1" max="1" width="43.375" style="21" customWidth="1"/>
+    <col min="2" max="4" width="20.5" style="21" customWidth="1"/>
+    <col min="5" max="5" width="16.75" style="21" customWidth="1"/>
+    <col min="6" max="6" width="11.75" style="22" customWidth="1"/>
+    <col min="7" max="7" width="22" style="21" customWidth="1"/>
+    <col min="8" max="8" width="13.75" style="21" customWidth="1"/>
+    <col min="9" max="9" width="13" style="21" customWidth="1"/>
+    <col min="10" max="10" width="34.8916666666667" style="21" customWidth="1"/>
+    <col min="11" max="11" width="22.3916666666667" style="21" customWidth="1"/>
+    <col min="12" max="12" width="14.125" style="21" customWidth="1"/>
+    <col min="13" max="13" width="13.5" style="21" customWidth="1"/>
+    <col min="14" max="14" width="19.4833333333333" style="21" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" ht="99.75" spans="1:13">
+    <row r="1" ht="114" customHeight="1" spans="1:16">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>40</v>
+        <v>56</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>57</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>3</v>
@@ -2731,14 +2972,14 @@
       <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="23" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="I1" s="7" t="s">
         <v>8</v>
@@ -2747,18 +2988,27 @@
         <v>9</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="M1" s="7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" ht="14.25" spans="1:13">
+      <c r="N1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:16">
       <c r="A2" s="8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B2" s="9">
         <v>1</v>
@@ -2772,7 +3022,7 @@
       <c r="E2" s="9">
         <v>2</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="24">
         <v>2</v>
       </c>
       <c r="G2" s="10">
@@ -2794,136 +3044,277 @@
         <v>2</v>
       </c>
       <c r="M2" s="10">
+        <v>2</v>
+      </c>
+      <c r="N2" s="10">
+        <v>2</v>
+      </c>
+      <c r="O2" s="10">
+        <v>2</v>
+      </c>
+      <c r="P2" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="1:13">
+    <row r="3" ht="14.25" spans="1:16">
       <c r="A3" s="8" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>22</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" ht="14.25" spans="1:13">
+        <v>29</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="P3" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" spans="1:16">
       <c r="A4" s="8" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="M4" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" s="21" customFormat="1" ht="83" customHeight="1" spans="1:13">
-      <c r="A5" s="11">
-        <v>2</v>
-      </c>
-      <c r="B5" s="11">
+        <v>39</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" s="21" customFormat="1" ht="33.3" spans="1:14">
+      <c r="A5" s="21">
+        <v>1</v>
+      </c>
+      <c r="B5" s="21">
         <v>4001</v>
       </c>
-      <c r="C5" s="11">
-        <v>1</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G5" s="13">
-        <v>24</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="I5" s="14">
-        <v>20</v>
-      </c>
-      <c r="J5" s="14">
-        <v>20</v>
-      </c>
-      <c r="K5" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="L5" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="M5" s="14" t="str">
-        <f>_xlfn.DISPIMG("ID_0E8DF86F638645E79A50B03937E8FCF4",1)</f>
-        <v>=DISPIMG("ID_0E8DF86F638645E79A50B03937E8FCF4",1)</v>
+      <c r="C5" s="21">
+        <v>1</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" s="21">
+        <v>12</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="K5" s="21">
+        <v>1</v>
+      </c>
+      <c r="L5" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="M5" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="N5" s="21" t="str">
+        <f>_xlfn.DISPIMG("ID_34DE48E543EE4C9AA1105D48FE110B1C",1)</f>
+        <v>=DISPIMG("ID_34DE48E543EE4C9AA1105D48FE110B1C",1)</v>
+      </c>
+    </row>
+    <row r="6" s="21" customFormat="1" ht="33.3" spans="1:14">
+      <c r="A6" s="21">
+        <v>1</v>
+      </c>
+      <c r="B6" s="21">
+        <v>4002</v>
+      </c>
+      <c r="C6" s="21">
+        <v>2</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6" s="21">
+        <v>12</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="K6" s="21">
+        <v>1</v>
+      </c>
+      <c r="L6" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="N6" s="21" t="str">
+        <f>_xlfn.DISPIMG("ID_34DE48E543EE4C9AA1105D48FE110B1C",1)</f>
+        <v>=DISPIMG("ID_34DE48E543EE4C9AA1105D48FE110B1C",1)</v>
+      </c>
+    </row>
+    <row r="7" s="21" customFormat="1" ht="33.5" spans="1:14">
+      <c r="A7" s="21">
+        <v>1</v>
+      </c>
+      <c r="B7" s="21">
+        <v>4003</v>
+      </c>
+      <c r="C7" s="21">
+        <v>3</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7" s="21">
+        <v>12</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="K7" s="21">
+        <v>1</v>
+      </c>
+      <c r="L7" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="M7" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="N7" s="21" t="str">
+        <f>_xlfn.DISPIMG("ID_EAA8DB7BB74F428C8066EAFDD8962BEC",1)</f>
+        <v>=DISPIMG("ID_EAA8DB7BB74F428C8066EAFDD8962BEC",1)</v>
+      </c>
+    </row>
+    <row r="8" s="21" customFormat="1" ht="18.6" spans="1:14">
+      <c r="A8" s="21">
+        <v>1</v>
+      </c>
+      <c r="B8" s="21">
+        <v>4004</v>
+      </c>
+      <c r="C8" s="21">
+        <v>4</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" s="21">
+        <v>12</v>
+      </c>
+      <c r="H8" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="K8" s="21">
+        <v>1</v>
+      </c>
+      <c r="L8" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="M8" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="N8" s="21" t="str">
+        <f>_xlfn.DISPIMG("ID_180A1A64A691431C977DEE2E74F5A8A7",1)</f>
+        <v>=DISPIMG("ID_180A1A64A691431C977DEE2E74F5A8A7",1)</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:L4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:H4 I4 J4 K4 L4:M4 O4 P4">
       <formula1>数据类型!$B$2:$B$51</formula1>
     </dataValidation>
   </dataValidations>
@@ -2935,10 +3326,249 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <cols>
+    <col min="1" max="1" width="34.5666666666667" style="21" customWidth="1"/>
+    <col min="2" max="2" width="16.6333333333333" style="21" customWidth="1"/>
+    <col min="3" max="4" width="20.5" style="21" customWidth="1"/>
+    <col min="5" max="5" width="16.75" style="21" customWidth="1"/>
+    <col min="6" max="6" width="11.75" style="22" customWidth="1"/>
+    <col min="7" max="7" width="22" style="21" customWidth="1"/>
+    <col min="8" max="8" width="13.75" style="21" customWidth="1"/>
+    <col min="9" max="9" width="19.5666666666667" style="21" customWidth="1"/>
+    <col min="10" max="10" width="35.5416666666667" style="21" customWidth="1"/>
+    <col min="11" max="11" width="22.3916666666667" style="21" customWidth="1"/>
+    <col min="12" max="12" width="14.125" style="21" customWidth="1"/>
+    <col min="13" max="13" width="13.5" style="21" customWidth="1"/>
+    <col min="14" max="14" width="19.4833333333333" style="21" customWidth="1"/>
+    <col min="15" max="16" width="13" style="21" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="21"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="99.75" spans="1:16">
+      <c r="A1" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:16">
+      <c r="A2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="9">
+        <v>1</v>
+      </c>
+      <c r="C2" s="9">
+        <v>1</v>
+      </c>
+      <c r="D2" s="9">
+        <v>0</v>
+      </c>
+      <c r="E2" s="9">
+        <v>2</v>
+      </c>
+      <c r="F2" s="24">
+        <v>2</v>
+      </c>
+      <c r="G2" s="10">
+        <v>2</v>
+      </c>
+      <c r="H2" s="10">
+        <v>2</v>
+      </c>
+      <c r="I2" s="10">
+        <v>2</v>
+      </c>
+      <c r="J2" s="10">
+        <v>2</v>
+      </c>
+      <c r="K2" s="10">
+        <v>2</v>
+      </c>
+      <c r="L2" s="10">
+        <v>2</v>
+      </c>
+      <c r="M2" s="10">
+        <v>2</v>
+      </c>
+      <c r="N2" s="10">
+        <v>2</v>
+      </c>
+      <c r="O2" s="10">
+        <v>2</v>
+      </c>
+      <c r="P2" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" spans="1:16">
+      <c r="A3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="P3" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" spans="1:16">
+      <c r="A4" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:H4 I4 J4 K4:M4 O4 P4">
+      <formula1>数据类型!$B$2:$B$51</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:P5"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -2950,21 +3580,22 @@
     <col min="7" max="7" width="22" customWidth="1"/>
     <col min="8" max="8" width="23.25" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="12.375" customWidth="1"/>
-    <col min="11" max="11" width="14.125" customWidth="1"/>
-    <col min="12" max="12" width="13.5" customWidth="1"/>
-    <col min="13" max="13" width="19.5" customWidth="1"/>
+    <col min="10" max="10" width="31.4583333333333" customWidth="1"/>
+    <col min="11" max="11" width="12.375" customWidth="1"/>
+    <col min="12" max="12" width="14.125" customWidth="1"/>
+    <col min="13" max="13" width="13.5" customWidth="1"/>
+    <col min="14" max="14" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="57" spans="1:13">
+    <row r="1" ht="131" customHeight="1" spans="1:16">
       <c r="A1" s="3" t="s">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>53</v>
+        <v>70</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>71</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>3</v>
@@ -2973,13 +3604,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="I1" s="7" t="s">
         <v>8</v>
@@ -2988,18 +3619,27 @@
         <v>9</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="M1" s="7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" ht="14.25" spans="1:13">
+      <c r="N1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:16">
       <c r="A2" s="8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B2" s="9">
         <v>1</v>
@@ -3035,377 +3675,162 @@
         <v>2</v>
       </c>
       <c r="M2" s="10">
+        <v>2</v>
+      </c>
+      <c r="N2" s="10">
+        <v>2</v>
+      </c>
+      <c r="O2" s="10">
+        <v>2</v>
+      </c>
+      <c r="P2" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="1:13">
+    <row r="3" ht="28.5" spans="1:16">
       <c r="A3" s="8" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" ht="14.25" spans="1:13">
+        <v>29</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="P3" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" spans="1:16">
       <c r="A4" s="8" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="M4" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" s="15" customFormat="1" ht="80" customHeight="1" spans="1:13">
-      <c r="A5" s="17">
-        <v>1</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="17">
-        <v>1</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="G5" s="19">
-        <v>1</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="I5" s="20">
-        <v>20</v>
-      </c>
-      <c r="J5" s="20">
-        <v>3</v>
-      </c>
-      <c r="K5" s="20" t="b">
-        <v>1</v>
-      </c>
-      <c r="L5" s="20" t="b">
-        <v>1</v>
-      </c>
-      <c r="M5" s="20" t="str">
+        <v>39</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" s="16" customFormat="1" ht="80" customHeight="1" spans="1:14">
+      <c r="A5" s="18">
+        <v>1</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="18">
+        <v>1</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="G5" s="20">
+        <v>1</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14">
+        <v>1</v>
+      </c>
+      <c r="L5" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="M5" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="N5" s="14" t="str">
         <f>_xlfn.DISPIMG("ID_0F2E3DE674534288BE9A0F6B995263B2",1)</f>
         <v>=DISPIMG("ID_0F2E3DE674534288BE9A0F6B995263B2",1)</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:L4">
-      <formula1>数据类型!$B$2:$B$51</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:M5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
-  <cols>
-    <col min="1" max="1" width="43.375" customWidth="1"/>
-    <col min="2" max="4" width="20.5" customWidth="1"/>
-    <col min="5" max="5" width="16.75" customWidth="1"/>
-    <col min="6" max="6" width="11.75" customWidth="1"/>
-    <col min="7" max="7" width="22" customWidth="1"/>
-    <col min="8" max="8" width="13.75" customWidth="1"/>
-    <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="12.375" customWidth="1"/>
-    <col min="11" max="11" width="14.125" customWidth="1"/>
-    <col min="12" max="12" width="13.5" customWidth="1"/>
-    <col min="13" max="13" width="19.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="57" spans="1:13">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" ht="14.25" spans="1:13">
-      <c r="A2" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="9">
-        <v>1</v>
-      </c>
-      <c r="C2" s="9">
-        <v>1</v>
-      </c>
-      <c r="D2" s="9">
-        <v>0</v>
-      </c>
-      <c r="E2" s="9">
-        <v>2</v>
-      </c>
-      <c r="F2" s="10">
-        <v>2</v>
-      </c>
-      <c r="G2" s="10">
-        <v>2</v>
-      </c>
-      <c r="H2" s="10">
-        <v>2</v>
-      </c>
-      <c r="I2" s="10">
-        <v>2</v>
-      </c>
-      <c r="J2" s="10">
-        <v>2</v>
-      </c>
-      <c r="K2" s="10">
-        <v>2</v>
-      </c>
-      <c r="L2" s="10">
-        <v>2</v>
-      </c>
-      <c r="M2" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" ht="14.25" spans="1:13">
-      <c r="A3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="M3" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" ht="14.25" spans="1:13">
-      <c r="A4" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="M4" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" ht="98" customHeight="1" spans="1:13">
-      <c r="A5" s="11">
-        <v>2</v>
-      </c>
-      <c r="B5" s="11">
-        <v>1</v>
-      </c>
-      <c r="C5" s="11">
-        <v>1</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="G5" s="13">
-        <v>1</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="I5" s="14">
-        <v>20</v>
-      </c>
-      <c r="J5" s="14">
-        <v>3</v>
-      </c>
-      <c r="K5" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="L5" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="M5" s="14" t="str">
-        <f>_xlfn.DISPIMG("ID_B1E5BBB75DF144E6BCE87AD7FFB08D41",1)</f>
-        <v>=DISPIMG("ID_B1E5BBB75DF144E6BCE87AD7FFB08D41",1)</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:L4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:H4 I4 J4 K4 L4:M4 O4 P4">
       <formula1>数据类型!$B$2:$B$51</formula1>
     </dataValidation>
   </dataValidations>
@@ -3417,35 +3842,312 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:P5"/>
+  <sheetViews>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <cols>
+    <col min="1" max="1" width="43.375" customWidth="1"/>
+    <col min="2" max="4" width="20.5" customWidth="1"/>
+    <col min="5" max="5" width="16.75" customWidth="1"/>
+    <col min="6" max="6" width="11.75" customWidth="1"/>
+    <col min="7" max="7" width="22" customWidth="1"/>
+    <col min="8" max="8" width="13.75" customWidth="1"/>
+    <col min="9" max="9" width="28.25" customWidth="1"/>
+    <col min="10" max="10" width="30.25" customWidth="1"/>
+    <col min="11" max="11" width="24.625" customWidth="1"/>
+    <col min="12" max="12" width="14.125" customWidth="1"/>
+    <col min="13" max="13" width="13.5" customWidth="1"/>
+    <col min="14" max="14" width="19.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="106" customHeight="1" spans="1:16">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:16">
+      <c r="A2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="9">
+        <v>1</v>
+      </c>
+      <c r="C2" s="9">
+        <v>1</v>
+      </c>
+      <c r="D2" s="9">
+        <v>0</v>
+      </c>
+      <c r="E2" s="9">
+        <v>2</v>
+      </c>
+      <c r="F2" s="10">
+        <v>2</v>
+      </c>
+      <c r="G2" s="10">
+        <v>2</v>
+      </c>
+      <c r="H2" s="10">
+        <v>2</v>
+      </c>
+      <c r="I2" s="10">
+        <v>2</v>
+      </c>
+      <c r="J2" s="10">
+        <v>2</v>
+      </c>
+      <c r="K2" s="10">
+        <v>2</v>
+      </c>
+      <c r="L2" s="10">
+        <v>2</v>
+      </c>
+      <c r="M2" s="10">
+        <v>2</v>
+      </c>
+      <c r="N2" s="10">
+        <v>2</v>
+      </c>
+      <c r="O2" s="10">
+        <v>2</v>
+      </c>
+      <c r="P2" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" spans="1:16">
+      <c r="A3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="P3" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" spans="1:16">
+      <c r="A4" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" ht="98" customHeight="1" spans="1:14">
+      <c r="A5" s="11">
+        <v>2</v>
+      </c>
+      <c r="B5" s="11">
+        <v>1</v>
+      </c>
+      <c r="C5" s="11">
+        <v>1</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="G5" s="13">
+        <v>1</v>
+      </c>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14">
+        <v>1</v>
+      </c>
+      <c r="K5" s="15">
+        <v>3</v>
+      </c>
+      <c r="L5" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="M5" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="N5" s="15" t="str">
+        <f>_xlfn.DISPIMG("ID_B1E5BBB75DF144E6BCE87AD7FFB08D41",1)</f>
+        <v>=DISPIMG("ID_B1E5BBB75DF144E6BCE87AD7FFB08D41",1)</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:G4 H4 I4 J4 K4:M4 O4 P4">
+      <formula1>数据类型!$B$2:$B$51</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="2" width="13.75" customWidth="1"/>
     <col min="3" max="3" width="10.375" customWidth="1"/>
-    <col min="4" max="4" width="129.375" customWidth="1"/>
+    <col min="4" max="4" width="79.9166666666667" customWidth="1"/>
     <col min="5" max="5" width="28.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3453,16 +4155,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3470,16 +4172,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3487,16 +4189,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3504,16 +4206,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3521,16 +4223,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3538,14 +4240,14 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3553,16 +4255,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3570,16 +4272,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3587,16 +4289,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3604,16 +4306,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3621,16 +4323,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3638,13 +4340,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -3652,10 +4354,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -3663,10 +4365,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -3674,10 +4376,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -3685,10 +4387,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -3696,10 +4398,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -3707,10 +4409,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -3718,10 +4420,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -3729,10 +4431,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -3740,10 +4442,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>113</v>
+        <v>38</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -3751,10 +4453,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -3762,10 +4464,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -3773,10 +4475,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -3784,16 +4486,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -3801,16 +4503,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>121</v>
+        <v>37</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -3818,16 +4520,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -3835,16 +4537,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -3852,13 +4554,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -3866,16 +4568,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -3883,16 +4585,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -3900,16 +4602,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -3917,16 +4619,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -3934,16 +4636,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -3951,14 +4653,14 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -3966,11 +4668,11 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -3978,16 +4680,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/配置文档/动画相关/帧动画.xlsx
+++ b/配置文档/动画相关/帧动画.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21780" windowHeight="9195" firstSheet="4"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="cfg_AnimaUnit_单位帧动画配置" sheetId="4" r:id="rId1"/>
-    <sheet name="cfg_AnimaTower_炮塔动画" sheetId="3" r:id="rId2"/>
-    <sheet name="cfg_AnimaBuild_建筑动画" sheetId="5" r:id="rId3"/>
+    <sheet name="cfg_AnimaBuild_建筑动画" sheetId="5" r:id="rId2"/>
+    <sheet name="cfg_AnimaTower_炮塔动画" sheetId="3" r:id="rId3"/>
     <sheet name="cfg_AnimaWeapon_武器动画" sheetId="8" r:id="rId4"/>
     <sheet name="cfg_AnimaWorker_无人机动画" sheetId="11" r:id="rId5"/>
     <sheet name="cfg_AnimaBullet_子弹动画" sheetId="9" r:id="rId6"/>
@@ -143,38 +143,13 @@
   <etc:cellImage>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="ID_7A31AC34455C42919D1E16DA522A1360" descr="小型炮塔1"/>
+        <xdr:cNvPr id="3" name="ID_34DE48E543EE4C9AA1105D48FE110B1C" descr="射击塔-闲置12帧116x36"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="18526125" y="2333625"/>
-          <a:ext cx="685800" cy="694055"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-  </etc:cellImage>
-  <etc:cellImage>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="ID_34DE48E543EE4C9AA1105D48FE110B1C" descr="射击塔-闲置12帧116x36"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -199,7 +174,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId7"/>
+        <a:blip r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -224,7 +199,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId8"/>
+        <a:blip r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -233,6 +208,1081 @@
         <a:xfrm>
           <a:off x="17595850" y="3388995"/>
           <a:ext cx="7902575" cy="1129030"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="ID_DD4362E8D64A4DA7A3DEFAC97AAEDF1A" descr="挖掘钻机站60帧-140x140"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19942175" y="2556510"/>
+          <a:ext cx="10058400" cy="6035040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="ID_D876E00311FB4AB89E35CCDEDDE7B4E6" descr="挖掘钻机站1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19761200" y="2803525"/>
+          <a:ext cx="1333500" cy="1341120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="ID_DE6E0C34ED9441279630B1657D8B552D" descr="中型炮塔地基"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19364325" y="3075305"/>
+          <a:ext cx="1143000" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="ID_9124E4D0DF134B80B13362422C801492" descr="冶火炮"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21400770" y="3167380"/>
+          <a:ext cx="878205" cy="1406525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="ID_40EFAF88A7A0411C84CA9DE5A75272EA" descr="挖掘钻机"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19942175" y="4848225"/>
+          <a:ext cx="758825" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="ID_953093CE5DC64DF682773D1A7A51B5F2" descr="防御墙"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19934555" y="5554345"/>
+          <a:ext cx="383540" cy="387985"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="ID_C2923B1264F94CAFB84089AA2A4ED65B" descr="斗争者机炮"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20645120" y="7429500"/>
+          <a:ext cx="174625" cy="585470"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="ID_BEBA6E998600412490ED72130D4B65C3" descr="小型炮塔"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19297650" y="2514600"/>
+          <a:ext cx="762000" cy="770255"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="ID_B21D2B2A481B469FBBECF51109241B0A" descr="小型炮塔99"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18931890" y="6413500"/>
+          <a:ext cx="762000" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="ID_0F4174FFEF3E4C7BAFE8AB4778111C89" descr="小型炮塔地基3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19171920" y="6852285"/>
+          <a:ext cx="633095" cy="623570"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="ID_427E7661D0EA4E048599710A386D6E9D" descr="小型炮塔地基2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19159855" y="6381750"/>
+          <a:ext cx="633095" cy="623570"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="ID_02B46886133B4720AC873E7ED4924F3B" descr="小型炮塔地基"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19152870" y="5954395"/>
+          <a:ext cx="633095" cy="623570"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="ID_5EEEB453049940DEBE73420F1EF0A8EC" descr="小型炮塔101"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19010630" y="9054465"/>
+          <a:ext cx="762000" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="ID_FA2D31673C634BB78E48C3E3B4AC0738" descr="小型炮塔100"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19006185" y="7387590"/>
+          <a:ext cx="762000" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="ID_3E72E9DFEEA14803B8AED009C53CB2A5" descr="中型炮塔地基"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19328130" y="10162540"/>
+          <a:ext cx="1143000" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="ID_1650E3A3D5A54E14A24702D844F4E9B6" descr="中型炮塔地基3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18909665" y="15037435"/>
+          <a:ext cx="1143000" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="ID_A7F743AFE2FD46EAA09FF7404F510486" descr="中型炮塔地基2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19076670" y="13349605"/>
+          <a:ext cx="1143000" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="ID_C8F1E574379A4424AEAA3E3B19B99209" descr="大型炮塔地基3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18722340" y="16757650"/>
+          <a:ext cx="1524000" cy="1524000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="ID_C22345BBE7494B58836CA07CC6F588D1" descr="大型炮塔地基2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19223355" y="16000095"/>
+          <a:ext cx="1524000" cy="1524000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="ID_5EBA871BBDB145CCB718AFBCD11E29DD" descr="大型炮塔地基1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19631025" y="15769590"/>
+          <a:ext cx="1524000" cy="1524000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="ID_117E4FFD1E004BD08DBB6DF4DC2B8780" descr="大型炮塔地基"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19533235" y="15182215"/>
+          <a:ext cx="1524000" cy="1524000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="ID_313259228B634A45A49E32D36E6E3980" descr="中型炮塔地基1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18694400" y="11631930"/>
+          <a:ext cx="1143000" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="ID_A4461C8310624320BF13983C26F8BCE0" descr="工程塔基座"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId29"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19124930" y="26963370"/>
+          <a:ext cx="758825" cy="751205"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="ID_2553E170C9E346DF8AE9B4CE86029BF4" descr="新核心"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId30"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18926810" y="27103070"/>
+          <a:ext cx="984250" cy="972820"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="ID_0ADD07DFF37D4438BA2984CC6B50DED7" descr="收解台支架"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId31"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19292570" y="26807160"/>
+          <a:ext cx="762000" cy="752475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="ID_6C2097A45521413CB51F95EC7E7B3CD9" descr="布局节点L2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId32"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19570700" y="11305540"/>
+          <a:ext cx="762000" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="ID_677BB320586148EAA2DA35F198112AF0" descr="布局节点L1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId33"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19742150" y="11105515"/>
+          <a:ext cx="762000" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="ID_5DF70216C8614965A4BCFC81B781581B" descr="布局节点L3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId34"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19504025" y="11562715"/>
+          <a:ext cx="762000" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="ID_A6CDDEADAA6348298428BCFD3255F3A6" descr="挖掘钻机3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId35"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19932650" y="9619615"/>
+          <a:ext cx="762000" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="ID_A831598AEE024989AFC91622758D1395" descr="挖掘钻机2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId36"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20189825" y="9410065"/>
+          <a:ext cx="762000" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="ID_7E6EB6B24E8D4D7D8A7BAE19C8A3F778" descr="挖掘钻机4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId37"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19608800" y="9819640"/>
+          <a:ext cx="762000" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="ID_07D6A84D82D140C0A6C346D57FD5F841" descr="战术地刺"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId38"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20170775" y="21325840"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="ID_31DFA73456E24538B012C1A413189B55" descr="射击塔"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId39"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20972780" y="8047990"/>
+          <a:ext cx="341630" cy="1125220"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="ID_05FBD9B3867B4F6699B1995FF1D36E0C" descr="射空塔"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId40"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18554700" y="9408795"/>
+          <a:ext cx="551180" cy="812800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="ID_05AA549F3ECF4BA5BE1FF4FC2FC7E87F" descr="迫击炮塔~1帧闲置1~6帧攻击"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId41"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20202525" y="10255250"/>
+          <a:ext cx="2404110" cy="987425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="ID_D701C71A38904E61BF087F5CAB0711C4" descr="机枪塔-0~5攻击"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId42"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18114645" y="10869930"/>
+          <a:ext cx="2476500" cy="1477645"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="ID_40811A8000854DB7B7BFFB9B27EFF2FC" descr="光子塔"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId43"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16139160" y="10780395"/>
+          <a:ext cx="2976880" cy="1360170"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="ID_9FC21DEA9DAD4D6CA596FC8D7B7D37B0" descr="收解台"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId44"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20937855" y="12284075"/>
+          <a:ext cx="762000" cy="765810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="ID_73396B96EFFE49AA9EFD8BCB69C2B9D8" descr="投掷人形"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId45"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19980910" y="5370830"/>
+          <a:ext cx="192405" cy="197485"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="ID_5700143AD5AB49B58DFC7EE8DDA80D8A" descr="射手人形"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId46"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20255865" y="5537200"/>
+          <a:ext cx="230505" cy="311785"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="ID_68032C65704D406A8DD6E0D7D04AEEA5" descr="作战人形"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId47"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19697700" y="5186045"/>
+          <a:ext cx="230505" cy="311785"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="50" name="ID_F74820F460FF443097C161127F585EF3" descr="自爆人形"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId48"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20788630" y="5723255"/>
+          <a:ext cx="192405" cy="254635"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="ID_0E110603796D46C38494B28A4D571C62" descr="装甲人形"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId49"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20315555" y="5905500"/>
+          <a:ext cx="211455" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -252,7 +1302,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="251">
   <si>
     <t>该表用于配置实体的帧动画
 数据不想填就写 #BASEVALUE</t>
@@ -265,7 +1315,8 @@
     <t>帧动画类型
 1 默认动画
 2 移动动画
-3 攻击动画
+3 静止攻击动画
+6 移动攻击动画
 10 死亡动画
 播放时发现没有该动画就播放默认动画</t>
   </si>
@@ -388,7 +1439,7 @@
     <t>POINT</t>
   </si>
   <si>
-    <t>&lt;(INT)&gt;</t>
+    <t>&lt;(FLOAT)&gt;</t>
   </si>
   <si>
     <t>BOOL</t>
@@ -412,7 +1463,125 @@
     <t>单位移动动画</t>
   </si>
   <si>
-    <t>(63,62)</t>
+    <t>(62,63)</t>
+  </si>
+  <si>
+    <t>(24,32)</t>
+  </si>
+  <si>
+    <t>（1,1）</t>
+  </si>
+  <si>
+    <t>(20,20)</t>
+  </si>
+  <si>
+    <t>(22,28)</t>
+  </si>
+  <si>
+    <t>(20,26)</t>
+  </si>
+  <si>
+    <t>实体id
+建筑</t>
+  </si>
+  <si>
+    <t>帧动画类型
+1 默认动画
+5 工作动画
+10 死亡动画
+播放时发现没有该动画就播放默认动画</t>
+  </si>
+  <si>
+    <t>播放时,偏移中心的值
+（横,竖）</t>
+  </si>
+  <si>
+    <t>设置动画播放倍数
+2表示两倍播放,0.5表示半速播放</t>
+  </si>
+  <si>
+    <t>是否自动播放</t>
+  </si>
+  <si>
+    <t>测试</t>
+  </si>
+  <si>
+    <t>大型挖掘钻机-闲置</t>
+  </si>
+  <si>
+    <t>（140,140）</t>
+  </si>
+  <si>
+    <t>大型挖掘钻机-工作</t>
+  </si>
+  <si>
+    <t>（10,6）</t>
+  </si>
+  <si>
+    <t>挖掘钻机-闲置</t>
+  </si>
+  <si>
+    <t>(80,80)</t>
+  </si>
+  <si>
+    <t>防御墙</t>
+  </si>
+  <si>
+    <t>(40,40)</t>
+  </si>
+  <si>
+    <t>防御墙LV1</t>
+  </si>
+  <si>
+    <t>防御墙LV2</t>
+  </si>
+  <si>
+    <t>防御墙LV3</t>
+  </si>
+  <si>
+    <t>挖掘钻机LV1</t>
+  </si>
+  <si>
+    <t>挖掘钻机LV2</t>
+  </si>
+  <si>
+    <t>挖掘钻机LV3</t>
+  </si>
+  <si>
+    <t>水晶提取器LV1</t>
+  </si>
+  <si>
+    <t>水晶提取器LV2</t>
+  </si>
+  <si>
+    <t>水晶提取器LV3</t>
+  </si>
+  <si>
+    <t>次元凝练器LV1</t>
+  </si>
+  <si>
+    <t>次元凝练器LV2</t>
+  </si>
+  <si>
+    <t>次元凝练器LV3</t>
+  </si>
+  <si>
+    <t>布局节点LV1</t>
+  </si>
+  <si>
+    <t>布局节点LV2</t>
+  </si>
+  <si>
+    <t>布局节点LV3</t>
+  </si>
+  <si>
+    <t>战术地刺LV1</t>
+  </si>
+  <si>
+    <t>战术地刺LV2</t>
+  </si>
+  <si>
+    <t>战术地刺LV3</t>
   </si>
   <si>
     <t>实体id
@@ -420,6 +1589,7 @@
   </si>
   <si>
     <t>帧动画类型
+0 建造时动画
 1 默认动画
 3 攻击动画
 4 装填动画
@@ -427,30 +1597,94 @@
 播放时发现没有该动画就播放默认动画</t>
   </si>
   <si>
-    <t>是否自动播放</t>
-  </si>
-  <si>
     <t>测试炮塔底座</t>
   </si>
   <si>
-    <t>(80,80)</t>
-  </si>
-  <si>
-    <t>（1,1）</t>
-  </si>
-  <si>
-    <t>实体id
-建筑</t>
-  </si>
-  <si>
-    <t>帧动画类型
-1 默认动画
-5 工作动画
-10 死亡动画
-播放时发现没有该动画就播放默认动画</t>
-  </si>
-  <si>
-    <t>测试</t>
+    <t>(120,120)</t>
+  </si>
+  <si>
+    <t>(160,160)</t>
+  </si>
+  <si>
+    <t>小型基础炮塔基座1级</t>
+  </si>
+  <si>
+    <t>埋地小型基础炮塔基座1级</t>
+  </si>
+  <si>
+    <t>小型基础炮塔基座2级</t>
+  </si>
+  <si>
+    <t>埋地小型基础炮塔基座2级</t>
+  </si>
+  <si>
+    <t>小型基础炮塔基座3级</t>
+  </si>
+  <si>
+    <t>埋地小型基础炮塔基座3级</t>
+  </si>
+  <si>
+    <t>中型基础炮塔基座1级</t>
+  </si>
+  <si>
+    <t>埋地中型基础炮塔基座1级</t>
+  </si>
+  <si>
+    <t>中型基础炮塔基座2级</t>
+  </si>
+  <si>
+    <t>埋地中型基础炮塔基座2级</t>
+  </si>
+  <si>
+    <t>中型基础炮塔基座3级</t>
+  </si>
+  <si>
+    <t>埋地中型基础炮塔基座3级</t>
+  </si>
+  <si>
+    <t>大型基础炮塔基座1级</t>
+  </si>
+  <si>
+    <t>埋地大型基础炮塔基座1级</t>
+  </si>
+  <si>
+    <t>大型基础炮塔基座2级</t>
+  </si>
+  <si>
+    <t>埋地大型基础炮塔基座2级</t>
+  </si>
+  <si>
+    <t>大型基础炮塔基座3级</t>
+  </si>
+  <si>
+    <t>埋地大型基础炮塔基座3级</t>
+  </si>
+  <si>
+    <t>收解台支架</t>
+  </si>
+  <si>
+    <t>治疗工程塔基座</t>
+  </si>
+  <si>
+    <t>核心基座</t>
+  </si>
+  <si>
+    <t>射击塔LV1</t>
+  </si>
+  <si>
+    <t>机枪塔LV1</t>
+  </si>
+  <si>
+    <t>光子塔LV1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>射空塔LV3</t>
+  </si>
+  <si>
+    <t>迫击炮塔LV1</t>
   </si>
   <si>
     <t>实体id
@@ -470,6 +1704,9 @@
 （横,竖）</t>
   </si>
   <si>
+    <t>WeaponId</t>
+  </si>
+  <si>
     <t>射击炮闲置</t>
   </si>
   <si>
@@ -479,9 +1716,6 @@
     <t>（12,1）</t>
   </si>
   <si>
-    <t>射击炮禁用</t>
-  </si>
-  <si>
     <t>射击炮开火</t>
   </si>
   <si>
@@ -489,6 +1723,63 @@
   </si>
   <si>
     <t>（69,116）</t>
+  </si>
+  <si>
+    <t>冶火炮闲置</t>
+  </si>
+  <si>
+    <t>(92,150)</t>
+  </si>
+  <si>
+    <t>冶火炮开火</t>
+  </si>
+  <si>
+    <t>冶火炮装填</t>
+  </si>
+  <si>
+    <t>测试炮开火</t>
+  </si>
+  <si>
+    <t>(18,62)</t>
+  </si>
+  <si>
+    <t>射击塔</t>
+  </si>
+  <si>
+    <t>(36,116)</t>
+  </si>
+  <si>
+    <t>射空塔</t>
+  </si>
+  <si>
+    <t>(58,84)</t>
+  </si>
+  <si>
+    <t>迫击炮塔</t>
+  </si>
+  <si>
+    <t>(42,102)</t>
+  </si>
+  <si>
+    <t>（6,1）</t>
+  </si>
+  <si>
+    <t>光子塔</t>
+  </si>
+  <si>
+    <t>(52,140)</t>
+  </si>
+  <si>
+    <t>（5,1）</t>
+  </si>
+  <si>
+    <t>机枪塔</t>
+  </si>
+  <si>
+    <t>(52,152)</t>
+  </si>
+  <si>
+    <t>收解台</t>
   </si>
   <si>
     <t>该表用于配置无人机的帧动画
@@ -511,8 +1802,8 @@
   <si>
     <t>帧动画类型
 1 默认动画
-6 子弹命中
-7 子弹消失</t>
+20 子弹命中
+21 子弹消失</t>
   </si>
   <si>
     <t>单个帧
@@ -707,12 +1998,12 @@
     <t>&lt;(SHORT)&gt;</t>
   </si>
   <si>
+    <t>&lt;(INT)&gt;</t>
+  </si>
+  <si>
     <t>&lt;(LONG)&gt;</t>
   </si>
   <si>
-    <t>&lt;(FLOAT)&gt;</t>
-  </si>
-  <si>
     <t>&lt;(STR)&gt;</t>
   </si>
   <si>
@@ -723,9 +2014,6 @@
   </si>
   <si>
     <t>语言id 是语言配置的id</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
   <si>
     <t>(0,0)</t>
@@ -834,7 +2122,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -867,6 +2155,20 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1043,7 +2345,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor theme="9" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1222,12 +2524,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFDEE0E3"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFDEE0E3"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFDEE0E3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFDEE0E3"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1348,137 +2665,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1554,20 +2871,71 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1894,10 +3262,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1918,7 +3286,7 @@
     <col min="16" max="16" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="25" customFormat="1" ht="103" customHeight="1" spans="1:16">
+    <row r="1" s="42" customFormat="1" ht="103" customHeight="1" spans="1:16">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1968,7 +3336,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" s="26" customFormat="1" ht="14.25" spans="1:16">
+    <row r="2" s="43" customFormat="1" ht="14.25" spans="1:16">
       <c r="A2" s="8" t="s">
         <v>16</v>
       </c>
@@ -2018,7 +3386,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" s="26" customFormat="1" ht="28.5" spans="1:16">
+    <row r="3" s="43" customFormat="1" ht="28.5" spans="1:16">
       <c r="A3" s="8" t="s">
         <v>17</v>
       </c>
@@ -2068,7 +3436,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" s="26" customFormat="1" ht="14.25" spans="1:16">
+    <row r="4" s="43" customFormat="1" ht="14.25" spans="1:16">
       <c r="A4" s="8" t="s">
         <v>33</v>
       </c>
@@ -2287,7 +3655,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="21">
-        <v>1009</v>
+        <v>1002</v>
       </c>
       <c r="C9" s="21">
         <v>1</v>
@@ -2328,10 +3696,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="21">
-        <v>1009</v>
+        <v>1002</v>
       </c>
       <c r="C10" s="21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" s="21" t="s">
         <v>41</v>
@@ -2364,9 +3732,207 @@
         <v>=DISPIMG("ID_B967F5BF18684EFFA6C6E0F02372A10A",1)</v>
       </c>
     </row>
+    <row r="11" ht="26.8" spans="1:14">
+      <c r="A11" s="21">
+        <v>1</v>
+      </c>
+      <c r="B11" s="45">
+        <v>700001</v>
+      </c>
+      <c r="C11" s="21">
+        <v>1</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="21">
+        <v>1</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="K11" s="21">
+        <v>1</v>
+      </c>
+      <c r="L11" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="M11" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="N11" t="str">
+        <f>_xlfn.DISPIMG("ID_68032C65704D406A8DD6E0D7D04AEEA5",1)</f>
+        <v>=DISPIMG("ID_68032C65704D406A8DD6E0D7D04AEEA5",1)</v>
+      </c>
+    </row>
+    <row r="12" ht="17.8" spans="1:14">
+      <c r="A12" s="21">
+        <v>1</v>
+      </c>
+      <c r="B12" s="45">
+        <v>700002</v>
+      </c>
+      <c r="C12" s="21">
+        <v>1</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" s="21">
+        <v>1</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="K12" s="21">
+        <v>1</v>
+      </c>
+      <c r="L12" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="M12" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="N12" t="str">
+        <f>_xlfn.DISPIMG("ID_73396B96EFFE49AA9EFD8BCB69C2B9D8",1)</f>
+        <v>=DISPIMG("ID_73396B96EFFE49AA9EFD8BCB69C2B9D8",1)</v>
+      </c>
+    </row>
+    <row r="13" ht="23.8" spans="1:14">
+      <c r="A13" s="21">
+        <v>1</v>
+      </c>
+      <c r="B13" s="45">
+        <v>700003</v>
+      </c>
+      <c r="C13" s="21">
+        <v>1</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="21">
+        <v>1</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="K13" s="21">
+        <v>1</v>
+      </c>
+      <c r="L13" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="M13" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="N13" t="str">
+        <f>_xlfn.DISPIMG("ID_0E110603796D46C38494B28A4D571C62",1)</f>
+        <v>=DISPIMG("ID_0E110603796D46C38494B28A4D571C62",1)</v>
+      </c>
+    </row>
+    <row r="14" ht="22.3" spans="1:14">
+      <c r="A14" s="21">
+        <v>1</v>
+      </c>
+      <c r="B14" s="45">
+        <v>700004</v>
+      </c>
+      <c r="C14" s="21">
+        <v>1</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" s="21">
+        <v>1</v>
+      </c>
+      <c r="H14" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="K14" s="21">
+        <v>1</v>
+      </c>
+      <c r="L14" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="M14" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="N14" t="str">
+        <f>_xlfn.DISPIMG("ID_F74820F460FF443097C161127F585EF3",1)</f>
+        <v>=DISPIMG("ID_F74820F460FF443097C161127F585EF3",1)</v>
+      </c>
+    </row>
+    <row r="15" ht="26.8" spans="1:14">
+      <c r="A15" s="21">
+        <v>1</v>
+      </c>
+      <c r="B15" s="45">
+        <v>700005</v>
+      </c>
+      <c r="C15" s="21">
+        <v>1</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" s="21">
+        <v>1</v>
+      </c>
+      <c r="H15" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="K15" s="21">
+        <v>1</v>
+      </c>
+      <c r="L15" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="M15" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="N15" t="str">
+        <f>_xlfn.DISPIMG("ID_5700143AD5AB49B58DFC7EE8DDA80D8A",1)</f>
+        <v>=DISPIMG("ID_5700143AD5AB49B58DFC7EE8DDA80D8A",1)</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" s="46"/>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:H4 I4 J4 K4 L4:M4 O4 P4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:M4 O4:P4">
       <formula1>数据类型!$B$2:$B$51</formula1>
     </dataValidation>
   </dataValidations>
@@ -2378,38 +3944,37 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:N13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="43.375" customWidth="1"/>
-    <col min="2" max="2" width="20.5" customWidth="1"/>
-    <col min="3" max="3" width="28.875" customWidth="1"/>
-    <col min="4" max="4" width="20.5" customWidth="1"/>
+    <col min="2" max="4" width="20.5" customWidth="1"/>
     <col min="5" max="5" width="16.75" customWidth="1"/>
-    <col min="6" max="6" width="11.75" customWidth="1"/>
+    <col min="6" max="6" width="15.625" style="30" customWidth="1"/>
     <col min="7" max="7" width="22" customWidth="1"/>
     <col min="8" max="8" width="13.75" customWidth="1"/>
-    <col min="9" max="10" width="13" customWidth="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
+    <col min="10" max="10" width="28.5833333333333" customWidth="1"/>
     <col min="11" max="11" width="12.375" customWidth="1"/>
     <col min="12" max="12" width="14.125" customWidth="1"/>
     <col min="13" max="13" width="13.5" customWidth="1"/>
     <col min="14" max="14" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="25" customFormat="1" ht="120" customHeight="1" spans="1:16">
+    <row r="1" s="42" customFormat="1" ht="100" customHeight="1" spans="1:16">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>3</v>
@@ -2417,7 +3982,7 @@
       <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="23" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="7" t="s">
@@ -2427,16 +3992,16 @@
         <v>7</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="J1" s="7" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="M1" s="7" t="s">
         <v>12</v>
@@ -2451,7 +4016,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" s="26" customFormat="1" ht="14.25" spans="1:16">
+    <row r="2" s="43" customFormat="1" ht="14.25" spans="1:16">
       <c r="A2" s="8" t="s">
         <v>16</v>
       </c>
@@ -2467,7 +4032,7 @@
       <c r="E2" s="9">
         <v>2</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="24">
         <v>2</v>
       </c>
       <c r="G2" s="10">
@@ -2501,7 +4066,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" s="26" customFormat="1" ht="28.5" spans="1:16">
+    <row r="3" s="43" customFormat="1" ht="28.5" spans="1:16">
       <c r="A3" s="8" t="s">
         <v>17</v>
       </c>
@@ -2517,7 +4082,7 @@
       <c r="E3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="24" t="s">
         <v>22</v>
       </c>
       <c r="G3" s="10" t="s">
@@ -2551,7 +4116,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" s="26" customFormat="1" ht="14.25" spans="1:16">
+    <row r="4" s="43" customFormat="1" ht="14.25" spans="1:16">
       <c r="A4" s="8" t="s">
         <v>33</v>
       </c>
@@ -2601,30 +4166,30 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" s="18" customFormat="1" ht="56.9" spans="1:14">
+    <row r="5" s="18" customFormat="1" ht="37.55" spans="1:14">
       <c r="A5" s="18">
         <v>1</v>
       </c>
       <c r="B5" s="18">
-        <v>2001</v>
+        <v>3001</v>
       </c>
       <c r="C5" s="18">
         <v>1</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="20" t="s">
-        <v>51</v>
+      <c r="F5" s="19" t="s">
+        <v>43</v>
       </c>
       <c r="G5" s="20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H5" s="20" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I5" s="14"/>
       <c r="J5" s="14"/>
@@ -2637,14 +4202,916 @@
       <c r="M5" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="N5" s="16" t="str">
-        <f>_xlfn.DISPIMG("ID_7A31AC34455C42919D1E16DA522A1360",1)</f>
-        <v>=DISPIMG("ID_7A31AC34455C42919D1E16DA522A1360",1)</v>
+      <c r="N5" s="14" t="str">
+        <f>_xlfn.DISPIMG("ID_DE7940C7BC2D4D46915E35BA3143081A",1)</f>
+        <v>=DISPIMG("ID_DE7940C7BC2D4D46915E35BA3143081A",1)</v>
+      </c>
+    </row>
+    <row r="6" ht="107.85" spans="1:14">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>995802210</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" s="16">
+        <v>1</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16">
+        <v>1</v>
+      </c>
+      <c r="L6" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="M6" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="N6" t="str">
+        <f>_xlfn.DISPIMG("ID_D876E00311FB4AB89E35CCDEDDE7B4E6",1)</f>
+        <v>=DISPIMG("ID_D876E00311FB4AB89E35CCDEDDE7B4E6",1)</v>
+      </c>
+    </row>
+    <row r="7" ht="71.1" spans="1:14">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>995802211</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" s="16">
+        <v>60</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16">
+        <v>1</v>
+      </c>
+      <c r="L7" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="M7" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="N7" t="str">
+        <f>_xlfn.DISPIMG("ID_DD4362E8D64A4DA7A3DEFAC97AAEDF1A",1)</f>
+        <v>=DISPIMG("ID_DD4362E8D64A4DA7A3DEFAC97AAEDF1A",1)</v>
+      </c>
+    </row>
+    <row r="8" ht="62.25" spans="1:14">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>123123</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" s="16">
+        <v>1</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16">
+        <v>1</v>
+      </c>
+      <c r="L8" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="M8" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="N8" t="str">
+        <f>_xlfn.DISPIMG("ID_40EFAF88A7A0411C84CA9DE5A75272EA",1)</f>
+        <v>=DISPIMG("ID_40EFAF88A7A0411C84CA9DE5A75272EA",1)</v>
+      </c>
+    </row>
+    <row r="9" ht="32.8" spans="1:14">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>400101</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" s="16">
+        <v>1</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16">
+        <v>1</v>
+      </c>
+      <c r="L9" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="M9" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="N9" t="str">
+        <f t="shared" ref="N9:N12" si="0">_xlfn.DISPIMG("ID_953093CE5DC64DF682773D1A7A51B5F2",1)</f>
+        <v>=DISPIMG("ID_953093CE5DC64DF682773D1A7A51B5F2",1)</v>
+      </c>
+    </row>
+    <row r="10" ht="118.3" spans="1:14">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" s="26">
+        <v>200001</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" s="16">
+        <v>1</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16">
+        <v>1</v>
+      </c>
+      <c r="L10" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="M10" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="N10" t="str">
+        <f t="shared" si="0"/>
+        <v>=DISPIMG("ID_953093CE5DC64DF682773D1A7A51B5F2",1)</v>
+      </c>
+    </row>
+    <row r="11" ht="32.8" spans="1:14">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" s="26">
+        <v>200002</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" s="16">
+        <v>1</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16">
+        <v>1</v>
+      </c>
+      <c r="L11" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="M11" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="N11" t="str">
+        <f t="shared" si="0"/>
+        <v>=DISPIMG("ID_953093CE5DC64DF682773D1A7A51B5F2",1)</v>
+      </c>
+    </row>
+    <row r="12" ht="32.8" spans="1:14">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" s="26">
+        <v>200003</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" s="16">
+        <v>1</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16">
+        <v>1</v>
+      </c>
+      <c r="L12" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="M12" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="N12" t="str">
+        <f t="shared" si="0"/>
+        <v>=DISPIMG("ID_953093CE5DC64DF682773D1A7A51B5F2",1)</v>
+      </c>
+    </row>
+    <row r="13" ht="62.25" spans="1:14">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" s="26">
+        <v>101</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" s="16">
+        <v>1</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16">
+        <v>1</v>
+      </c>
+      <c r="L13" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="M13" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="N13" t="str">
+        <f>_xlfn.DISPIMG("ID_A831598AEE024989AFC91622758D1395",1)</f>
+        <v>=DISPIMG("ID_A831598AEE024989AFC91622758D1395",1)</v>
+      </c>
+    </row>
+    <row r="14" ht="62.25" spans="1:14">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" s="26">
+        <v>102</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="G14" s="16">
+        <v>1</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16">
+        <v>1</v>
+      </c>
+      <c r="L14" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="M14" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="N14" t="str">
+        <f>_xlfn.DISPIMG("ID_A6CDDEADAA6348298428BCFD3255F3A6",1)</f>
+        <v>=DISPIMG("ID_A6CDDEADAA6348298428BCFD3255F3A6",1)</v>
+      </c>
+    </row>
+    <row r="15" ht="62.25" spans="1:14">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" s="26">
+        <v>103</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15" s="16">
+        <v>1</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16">
+        <v>1</v>
+      </c>
+      <c r="L15" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="M15" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="N15" t="str">
+        <f>_xlfn.DISPIMG("ID_7E6EB6B24E8D4D7D8A7BAE19C8A3F778",1)</f>
+        <v>=DISPIMG("ID_7E6EB6B24E8D4D7D8A7BAE19C8A3F778",1)</v>
+      </c>
+    </row>
+    <row r="16" ht="62.25" spans="1:14">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" s="26">
+        <v>401</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="G16" s="16">
+        <v>1</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16">
+        <v>1</v>
+      </c>
+      <c r="L16" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="M16" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="N16" t="str">
+        <f>_xlfn.DISPIMG("ID_A831598AEE024989AFC91622758D1395",1)</f>
+        <v>=DISPIMG("ID_A831598AEE024989AFC91622758D1395",1)</v>
+      </c>
+    </row>
+    <row r="17" ht="62.25" spans="1:14">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" s="26">
+        <v>402</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="G17" s="16">
+        <v>1</v>
+      </c>
+      <c r="H17" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16">
+        <v>1</v>
+      </c>
+      <c r="L17" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="M17" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="N17" t="str">
+        <f>_xlfn.DISPIMG("ID_A6CDDEADAA6348298428BCFD3255F3A6",1)</f>
+        <v>=DISPIMG("ID_A6CDDEADAA6348298428BCFD3255F3A6",1)</v>
+      </c>
+    </row>
+    <row r="18" ht="62.25" spans="1:14">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" s="26">
+        <v>403</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="G18" s="16">
+        <v>1</v>
+      </c>
+      <c r="H18" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16">
+        <v>1</v>
+      </c>
+      <c r="L18" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="M18" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="N18" t="str">
+        <f>_xlfn.DISPIMG("ID_7E6EB6B24E8D4D7D8A7BAE19C8A3F778",1)</f>
+        <v>=DISPIMG("ID_7E6EB6B24E8D4D7D8A7BAE19C8A3F778",1)</v>
+      </c>
+    </row>
+    <row r="19" ht="62.25" spans="1:14">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" s="26">
+        <v>501</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="G19" s="16">
+        <v>1</v>
+      </c>
+      <c r="H19" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16">
+        <v>1</v>
+      </c>
+      <c r="L19" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="M19" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="N19" t="str">
+        <f>_xlfn.DISPIMG("ID_A831598AEE024989AFC91622758D1395",1)</f>
+        <v>=DISPIMG("ID_A831598AEE024989AFC91622758D1395",1)</v>
+      </c>
+    </row>
+    <row r="20" ht="62.25" spans="1:14">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20" s="26">
+        <v>502</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="G20" s="16">
+        <v>1</v>
+      </c>
+      <c r="H20" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16">
+        <v>1</v>
+      </c>
+      <c r="L20" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="M20" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="N20" t="str">
+        <f>_xlfn.DISPIMG("ID_A6CDDEADAA6348298428BCFD3255F3A6",1)</f>
+        <v>=DISPIMG("ID_A6CDDEADAA6348298428BCFD3255F3A6",1)</v>
+      </c>
+    </row>
+    <row r="21" ht="62.25" spans="1:14">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" s="26">
+        <v>503</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="F21" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" s="16">
+        <v>1</v>
+      </c>
+      <c r="H21" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16">
+        <v>1</v>
+      </c>
+      <c r="L21" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="M21" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="N21" t="str">
+        <f>_xlfn.DISPIMG("ID_7E6EB6B24E8D4D7D8A7BAE19C8A3F778",1)</f>
+        <v>=DISPIMG("ID_7E6EB6B24E8D4D7D8A7BAE19C8A3F778",1)</v>
+      </c>
+    </row>
+    <row r="22" ht="62.25" spans="1:14">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22" s="26">
+        <v>300001</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="G22" s="16">
+        <v>1</v>
+      </c>
+      <c r="H22" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16">
+        <v>1</v>
+      </c>
+      <c r="L22" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="M22" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="N22" t="str">
+        <f>_xlfn.DISPIMG("ID_677BB320586148EAA2DA35F198112AF0",1)</f>
+        <v>=DISPIMG("ID_677BB320586148EAA2DA35F198112AF0",1)</v>
+      </c>
+    </row>
+    <row r="23" ht="62.25" spans="1:14">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23" s="26">
+        <v>300002</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="G23" s="16">
+        <v>1</v>
+      </c>
+      <c r="H23" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16">
+        <v>1</v>
+      </c>
+      <c r="L23" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="M23" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="N23" t="str">
+        <f>_xlfn.DISPIMG("ID_6C2097A45521413CB51F95EC7E7B3CD9",1)</f>
+        <v>=DISPIMG("ID_6C2097A45521413CB51F95EC7E7B3CD9",1)</v>
+      </c>
+    </row>
+    <row r="24" ht="62.25" spans="1:14">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24" s="26">
+        <v>300003</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="F24" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="G24" s="16">
+        <v>1</v>
+      </c>
+      <c r="H24" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16">
+        <v>1</v>
+      </c>
+      <c r="L24" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="M24" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="N24" t="str">
+        <f>_xlfn.DISPIMG("ID_5DF70216C8614965A4BCFC81B781581B",1)</f>
+        <v>=DISPIMG("ID_5DF70216C8614965A4BCFC81B781581B",1)</v>
+      </c>
+    </row>
+    <row r="25" ht="32.25" spans="1:14">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25" s="26">
+        <v>300901</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="F25" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="G25" s="16">
+        <v>1</v>
+      </c>
+      <c r="H25" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16">
+        <v>1</v>
+      </c>
+      <c r="L25" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="M25" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="N25" t="str">
+        <f t="shared" ref="N25:N27" si="1">_xlfn.DISPIMG("ID_07D6A84D82D140C0A6C346D57FD5F841",1)</f>
+        <v>=DISPIMG("ID_07D6A84D82D140C0A6C346D57FD5F841",1)</v>
+      </c>
+    </row>
+    <row r="26" ht="32.25" spans="1:14">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26" s="26">
+        <v>300902</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="F26" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="G26" s="16">
+        <v>1</v>
+      </c>
+      <c r="H26" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16">
+        <v>1</v>
+      </c>
+      <c r="L26" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="M26" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="N26" t="str">
+        <f t="shared" si="1"/>
+        <v>=DISPIMG("ID_07D6A84D82D140C0A6C346D57FD5F841",1)</v>
+      </c>
+    </row>
+    <row r="27" ht="32.25" spans="1:14">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27" s="26">
+        <v>300903</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="F27" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="G27" s="16">
+        <v>1</v>
+      </c>
+      <c r="H27" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16">
+        <v>1</v>
+      </c>
+      <c r="L27" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="M27" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="N27" t="str">
+        <f t="shared" si="1"/>
+        <v>=DISPIMG("ID_07D6A84D82D140C0A6C346D57FD5F841",1)</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:H4 I4 J4 K4 L4:M4 O4 P4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:M4 O4:P4">
       <formula1>数据类型!$B$2:$B$51</formula1>
     </dataValidation>
   </dataValidations>
@@ -2656,179 +5123,181 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="43.375" customWidth="1"/>
-    <col min="2" max="4" width="20.5" customWidth="1"/>
-    <col min="5" max="5" width="16.75" customWidth="1"/>
-    <col min="6" max="6" width="11.75" customWidth="1"/>
-    <col min="7" max="7" width="22" customWidth="1"/>
-    <col min="8" max="8" width="13.75" customWidth="1"/>
-    <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="28.5833333333333" customWidth="1"/>
-    <col min="11" max="11" width="12.375" customWidth="1"/>
-    <col min="12" max="12" width="14.125" customWidth="1"/>
-    <col min="13" max="13" width="13.5" customWidth="1"/>
-    <col min="14" max="14" width="19.5" customWidth="1"/>
+    <col min="1" max="1" width="43.375" style="30" customWidth="1"/>
+    <col min="2" max="2" width="20.5" style="30" customWidth="1"/>
+    <col min="3" max="3" width="28.875" style="30" customWidth="1"/>
+    <col min="4" max="4" width="20.5" style="30" customWidth="1"/>
+    <col min="5" max="5" width="16.75" style="30" customWidth="1"/>
+    <col min="6" max="6" width="11.75" style="30" customWidth="1"/>
+    <col min="7" max="7" width="22" style="30" customWidth="1"/>
+    <col min="8" max="8" width="13.75" style="30" customWidth="1"/>
+    <col min="9" max="10" width="13" style="30" customWidth="1"/>
+    <col min="11" max="11" width="12.375" style="30" customWidth="1"/>
+    <col min="12" max="12" width="14.125" style="30" customWidth="1"/>
+    <col min="13" max="13" width="13.5" style="30" customWidth="1"/>
+    <col min="14" max="14" width="19.5" style="30" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" s="25" customFormat="1" ht="100" customHeight="1" spans="1:16">
+    <row r="1" s="27" customFormat="1" ht="120" customHeight="1" spans="1:16">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="B1" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="M1" s="7" t="s">
+      <c r="L1" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="M1" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="23" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" s="26" customFormat="1" ht="14.25" spans="1:16">
+    <row r="2" s="28" customFormat="1" ht="14.25" spans="1:16">
       <c r="A2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="9">
-        <v>1</v>
-      </c>
-      <c r="C2" s="9">
-        <v>1</v>
-      </c>
-      <c r="D2" s="9">
+      <c r="B2" s="8">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8">
+        <v>1</v>
+      </c>
+      <c r="D2" s="8">
         <v>0</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="8">
         <v>2</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="24">
         <v>2</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="24">
         <v>2</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="24">
         <v>2</v>
       </c>
-      <c r="I2" s="10">
+      <c r="I2" s="24">
         <v>2</v>
       </c>
-      <c r="J2" s="10">
+      <c r="J2" s="24">
         <v>2</v>
       </c>
-      <c r="K2" s="10">
+      <c r="K2" s="24">
         <v>2</v>
       </c>
-      <c r="L2" s="10">
+      <c r="L2" s="24">
         <v>2</v>
       </c>
-      <c r="M2" s="10">
+      <c r="M2" s="24">
         <v>2</v>
       </c>
-      <c r="N2" s="10">
+      <c r="N2" s="24">
         <v>2</v>
       </c>
-      <c r="O2" s="10">
+      <c r="O2" s="24">
         <v>2</v>
       </c>
-      <c r="P2" s="10">
+      <c r="P2" s="24">
         <v>3</v>
       </c>
     </row>
-    <row r="3" s="26" customFormat="1" ht="28.5" spans="1:16">
+    <row r="3" s="28" customFormat="1" ht="28.5" spans="1:16">
       <c r="A3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="K3" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="L3" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="M3" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="N3" s="10" t="s">
+      <c r="N3" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="O3" s="10" t="s">
+      <c r="O3" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="P3" s="10" t="s">
+      <c r="P3" s="24" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" s="26" customFormat="1" ht="14.25" spans="1:16">
+    <row r="4" s="28" customFormat="1" ht="14.25" spans="1:16">
       <c r="A4" s="8" t="s">
         <v>33</v>
       </c>
@@ -2868,7 +5337,7 @@
       <c r="M4" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="N4" s="10" t="s">
+      <c r="N4" s="24" t="s">
         <v>40</v>
       </c>
       <c r="O4" s="8" t="s">
@@ -2878,50 +5347,1188 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" s="27" customFormat="1" ht="37.55" spans="1:14">
-      <c r="A5" s="27">
-        <v>2</v>
-      </c>
-      <c r="B5" s="27">
-        <v>3001</v>
-      </c>
-      <c r="C5" s="27">
-        <v>1</v>
-      </c>
-      <c r="D5" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="E5" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="G5" s="28">
-        <v>4</v>
-      </c>
-      <c r="H5" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29">
-        <v>1</v>
-      </c>
-      <c r="L5" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="M5" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="N5" s="29" t="str">
-        <f>_xlfn.DISPIMG("ID_DE7940C7BC2D4D46915E35BA3143081A",1)</f>
-        <v>=DISPIMG("ID_DE7940C7BC2D4D46915E35BA3143081A",1)</v>
+    <row r="5" s="29" customFormat="1" ht="118.2" spans="1:15">
+      <c r="A5" s="29">
+        <v>1</v>
+      </c>
+      <c r="B5" s="25">
+        <v>100001</v>
+      </c>
+      <c r="C5" s="29">
+        <v>1</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" s="19">
+        <v>1</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39">
+        <v>1</v>
+      </c>
+      <c r="L5" s="39" t="b">
+        <v>1</v>
+      </c>
+      <c r="M5" s="39" t="b">
+        <v>1</v>
+      </c>
+      <c r="N5" s="40" t="str">
+        <f>_xlfn.DISPIMG("ID_BEBA6E998600412490ED72130D4B65C3",1)</f>
+        <v>=DISPIMG("ID_BEBA6E998600412490ED72130D4B65C3",1)</v>
+      </c>
+      <c r="O5" s="30"/>
+    </row>
+    <row r="6" ht="92.25" spans="1:14">
+      <c r="A6" s="29">
+        <v>1</v>
+      </c>
+      <c r="B6" s="25">
+        <v>100002</v>
+      </c>
+      <c r="C6" s="29">
+        <v>1</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="G6" s="19">
+        <v>1</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39">
+        <v>1</v>
+      </c>
+      <c r="L6" s="39" t="b">
+        <v>1</v>
+      </c>
+      <c r="M6" s="39" t="b">
+        <v>1</v>
+      </c>
+      <c r="N6" s="30" t="str">
+        <f>_xlfn.DISPIMG("ID_DE6E0C34ED9441279630B1657D8B552D",1)</f>
+        <v>=DISPIMG("ID_DE6E0C34ED9441279630B1657D8B552D",1)</v>
+      </c>
+    </row>
+    <row r="7" ht="62.25" spans="1:14">
+      <c r="A7" s="29">
+        <v>1</v>
+      </c>
+      <c r="B7" s="25">
+        <v>100003</v>
+      </c>
+      <c r="C7" s="29">
+        <v>1</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="G7" s="19">
+        <v>1</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39">
+        <v>1</v>
+      </c>
+      <c r="L7" s="39" t="b">
+        <v>1</v>
+      </c>
+      <c r="M7" s="39" t="b">
+        <v>1</v>
+      </c>
+      <c r="N7" s="40" t="str">
+        <f>_xlfn.DISPIMG("ID_B21D2B2A481B469FBBECF51109241B0A",1)</f>
+        <v>=DISPIMG("ID_B21D2B2A481B469FBBECF51109241B0A",1)</v>
+      </c>
+    </row>
+    <row r="8" ht="117" spans="1:14">
+      <c r="A8" s="29">
+        <v>1</v>
+      </c>
+      <c r="B8" s="26">
+        <v>450101</v>
+      </c>
+      <c r="C8" s="29">
+        <v>1</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" s="19">
+        <v>1</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="K8" s="39">
+        <v>1</v>
+      </c>
+      <c r="L8" s="39" t="b">
+        <v>1</v>
+      </c>
+      <c r="M8" s="39" t="b">
+        <v>1</v>
+      </c>
+      <c r="N8" s="40" t="str">
+        <f>_xlfn.DISPIMG("ID_B21D2B2A481B469FBBECF51109241B0A",1)</f>
+        <v>=DISPIMG("ID_B21D2B2A481B469FBBECF51109241B0A",1)</v>
+      </c>
+    </row>
+    <row r="9" ht="51.35" spans="1:14">
+      <c r="A9" s="29">
+        <v>1</v>
+      </c>
+      <c r="B9" s="26">
+        <v>450102</v>
+      </c>
+      <c r="C9" s="29">
+        <v>1</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9" s="19">
+        <v>1</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="K9" s="39">
+        <v>1</v>
+      </c>
+      <c r="L9" s="39" t="b">
+        <v>1</v>
+      </c>
+      <c r="M9" s="39" t="b">
+        <v>1</v>
+      </c>
+      <c r="N9" s="40" t="str">
+        <f>_xlfn.DISPIMG("ID_02B46886133B4720AC873E7ED4924F3B",1)</f>
+        <v>=DISPIMG("ID_02B46886133B4720AC873E7ED4924F3B",1)</v>
+      </c>
+    </row>
+    <row r="10" ht="117" spans="1:14">
+      <c r="A10" s="29">
+        <v>1</v>
+      </c>
+      <c r="B10" s="26">
+        <v>450103</v>
+      </c>
+      <c r="C10" s="29">
+        <v>1</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" s="19">
+        <v>1</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="K10" s="39">
+        <v>1</v>
+      </c>
+      <c r="L10" s="39" t="b">
+        <v>1</v>
+      </c>
+      <c r="M10" s="39" t="b">
+        <v>1</v>
+      </c>
+      <c r="N10" s="40" t="str">
+        <f>_xlfn.DISPIMG("ID_FA2D31673C634BB78E48C3E3B4AC0738",1)</f>
+        <v>=DISPIMG("ID_FA2D31673C634BB78E48C3E3B4AC0738",1)</v>
+      </c>
+    </row>
+    <row r="11" ht="51.35" spans="1:14">
+      <c r="A11" s="29">
+        <v>1</v>
+      </c>
+      <c r="B11" s="26">
+        <v>450104</v>
+      </c>
+      <c r="C11" s="29">
+        <v>1</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" s="19">
+        <v>1</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="K11" s="39">
+        <v>1</v>
+      </c>
+      <c r="L11" s="39" t="b">
+        <v>1</v>
+      </c>
+      <c r="M11" s="39" t="b">
+        <v>1</v>
+      </c>
+      <c r="N11" s="40" t="str">
+        <f>_xlfn.DISPIMG("ID_427E7661D0EA4E048599710A386D6E9D",1)</f>
+        <v>=DISPIMG("ID_427E7661D0EA4E048599710A386D6E9D",1)</v>
+      </c>
+    </row>
+    <row r="12" ht="62.25" spans="1:14">
+      <c r="A12" s="29">
+        <v>1</v>
+      </c>
+      <c r="B12" s="26">
+        <v>450105</v>
+      </c>
+      <c r="C12" s="29">
+        <v>1</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="19">
+        <v>1</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="K12" s="39">
+        <v>1</v>
+      </c>
+      <c r="L12" s="39" t="b">
+        <v>1</v>
+      </c>
+      <c r="M12" s="39" t="b">
+        <v>1</v>
+      </c>
+      <c r="N12" s="40" t="str">
+        <f>_xlfn.DISPIMG("ID_5EEEB453049940DEBE73420F1EF0A8EC",1)</f>
+        <v>=DISPIMG("ID_5EEEB453049940DEBE73420F1EF0A8EC",1)</v>
+      </c>
+    </row>
+    <row r="13" ht="51.35" spans="1:14">
+      <c r="A13" s="29">
+        <v>1</v>
+      </c>
+      <c r="B13" s="26">
+        <v>450106</v>
+      </c>
+      <c r="C13" s="29">
+        <v>1</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" s="19">
+        <v>1</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="K13" s="39">
+        <v>1</v>
+      </c>
+      <c r="L13" s="39" t="b">
+        <v>1</v>
+      </c>
+      <c r="M13" s="39" t="b">
+        <v>1</v>
+      </c>
+      <c r="N13" s="40" t="str">
+        <f>_xlfn.DISPIMG("ID_0F4174FFEF3E4C7BAFE8AB4778111C89",1)</f>
+        <v>=DISPIMG("ID_0F4174FFEF3E4C7BAFE8AB4778111C89",1)</v>
+      </c>
+    </row>
+    <row r="14" ht="92.25" spans="1:14">
+      <c r="A14" s="29">
+        <v>1</v>
+      </c>
+      <c r="B14" s="26">
+        <v>450201</v>
+      </c>
+      <c r="C14" s="29">
+        <v>1</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="G14" s="19">
+        <v>1</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="K14" s="39">
+        <v>1</v>
+      </c>
+      <c r="L14" s="39" t="b">
+        <v>1</v>
+      </c>
+      <c r="M14" s="39" t="b">
+        <v>1</v>
+      </c>
+      <c r="N14" s="40" t="str">
+        <f t="shared" ref="N14:N18" si="0">_xlfn.DISPIMG("ID_3E72E9DFEEA14803B8AED009C53CB2A5",1)</f>
+        <v>=DISPIMG("ID_3E72E9DFEEA14803B8AED009C53CB2A5",1)</v>
+      </c>
+    </row>
+    <row r="15" ht="117" spans="1:14">
+      <c r="A15" s="29">
+        <v>1</v>
+      </c>
+      <c r="B15" s="26">
+        <v>450202</v>
+      </c>
+      <c r="C15" s="29">
+        <v>1</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="G15" s="19">
+        <v>1</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="K15" s="39">
+        <v>1</v>
+      </c>
+      <c r="L15" s="39" t="b">
+        <v>1</v>
+      </c>
+      <c r="M15" s="39" t="b">
+        <v>1</v>
+      </c>
+      <c r="N15" s="40" t="str">
+        <f>_xlfn.DISPIMG("ID_313259228B634A45A49E32D36E6E3980",1)</f>
+        <v>=DISPIMG("ID_313259228B634A45A49E32D36E6E3980",1)</v>
+      </c>
+    </row>
+    <row r="16" ht="92.25" spans="1:14">
+      <c r="A16" s="29">
+        <v>1</v>
+      </c>
+      <c r="B16" s="26">
+        <v>450203</v>
+      </c>
+      <c r="C16" s="29">
+        <v>1</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" s="19">
+        <v>1</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="K16" s="39">
+        <v>1</v>
+      </c>
+      <c r="L16" s="39" t="b">
+        <v>1</v>
+      </c>
+      <c r="M16" s="39" t="b">
+        <v>1</v>
+      </c>
+      <c r="N16" s="40" t="str">
+        <f t="shared" si="0"/>
+        <v>=DISPIMG("ID_3E72E9DFEEA14803B8AED009C53CB2A5",1)</v>
+      </c>
+    </row>
+    <row r="17" ht="117" spans="1:14">
+      <c r="A17" s="29">
+        <v>1</v>
+      </c>
+      <c r="B17" s="26">
+        <v>450204</v>
+      </c>
+      <c r="C17" s="29">
+        <v>1</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="G17" s="19">
+        <v>1</v>
+      </c>
+      <c r="H17" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="K17" s="39">
+        <v>1</v>
+      </c>
+      <c r="L17" s="39" t="b">
+        <v>1</v>
+      </c>
+      <c r="M17" s="39" t="b">
+        <v>1</v>
+      </c>
+      <c r="N17" s="40" t="str">
+        <f>_xlfn.DISPIMG("ID_A7F743AFE2FD46EAA09FF7404F510486",1)</f>
+        <v>=DISPIMG("ID_A7F743AFE2FD46EAA09FF7404F510486",1)</v>
+      </c>
+    </row>
+    <row r="18" ht="92.25" spans="1:14">
+      <c r="A18" s="29">
+        <v>1</v>
+      </c>
+      <c r="B18" s="26">
+        <v>450205</v>
+      </c>
+      <c r="C18" s="29">
+        <v>1</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="E18" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="G18" s="19">
+        <v>1</v>
+      </c>
+      <c r="H18" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="K18" s="39">
+        <v>1</v>
+      </c>
+      <c r="L18" s="39" t="b">
+        <v>1</v>
+      </c>
+      <c r="M18" s="39" t="b">
+        <v>1</v>
+      </c>
+      <c r="N18" s="40" t="str">
+        <f t="shared" si="0"/>
+        <v>=DISPIMG("ID_3E72E9DFEEA14803B8AED009C53CB2A5",1)</v>
+      </c>
+    </row>
+    <row r="19" ht="92.25" spans="1:14">
+      <c r="A19" s="29">
+        <v>1</v>
+      </c>
+      <c r="B19" s="26">
+        <v>450206</v>
+      </c>
+      <c r="C19" s="29">
+        <v>1</v>
+      </c>
+      <c r="D19" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="E19" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="G19" s="19">
+        <v>1</v>
+      </c>
+      <c r="H19" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="K19" s="39">
+        <v>1</v>
+      </c>
+      <c r="L19" s="39" t="b">
+        <v>1</v>
+      </c>
+      <c r="M19" s="39" t="b">
+        <v>1</v>
+      </c>
+      <c r="N19" s="40" t="str">
+        <f>_xlfn.DISPIMG("ID_1650E3A3D5A54E14A24702D844F4E9B6",1)</f>
+        <v>=DISPIMG("ID_1650E3A3D5A54E14A24702D844F4E9B6",1)</v>
+      </c>
+    </row>
+    <row r="20" ht="117" spans="1:14">
+      <c r="A20" s="29">
+        <v>1</v>
+      </c>
+      <c r="B20" s="26">
+        <v>450301</v>
+      </c>
+      <c r="C20" s="29">
+        <v>1</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="E20" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="G20" s="19">
+        <v>1</v>
+      </c>
+      <c r="H20" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="K20" s="39">
+        <v>1</v>
+      </c>
+      <c r="L20" s="39" t="b">
+        <v>1</v>
+      </c>
+      <c r="M20" s="39" t="b">
+        <v>1</v>
+      </c>
+      <c r="N20" s="40" t="str">
+        <f t="shared" ref="N20:N24" si="1">_xlfn.DISPIMG("ID_117E4FFD1E004BD08DBB6DF4DC2B8780",1)</f>
+        <v>=DISPIMG("ID_117E4FFD1E004BD08DBB6DF4DC2B8780",1)</v>
+      </c>
+    </row>
+    <row r="21" ht="117" spans="1:14">
+      <c r="A21" s="29">
+        <v>1</v>
+      </c>
+      <c r="B21" s="26">
+        <v>450302</v>
+      </c>
+      <c r="C21" s="29">
+        <v>1</v>
+      </c>
+      <c r="D21" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="E21" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="G21" s="19">
+        <v>1</v>
+      </c>
+      <c r="H21" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="K21" s="39">
+        <v>1</v>
+      </c>
+      <c r="L21" s="39" t="b">
+        <v>1</v>
+      </c>
+      <c r="M21" s="39" t="b">
+        <v>1</v>
+      </c>
+      <c r="N21" s="40" t="str">
+        <f>_xlfn.DISPIMG("ID_5EBA871BBDB145CCB718AFBCD11E29DD",1)</f>
+        <v>=DISPIMG("ID_5EBA871BBDB145CCB718AFBCD11E29DD",1)</v>
+      </c>
+    </row>
+    <row r="22" ht="117" spans="1:14">
+      <c r="A22" s="29">
+        <v>1</v>
+      </c>
+      <c r="B22" s="26">
+        <v>450303</v>
+      </c>
+      <c r="C22" s="29">
+        <v>1</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="E22" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="G22" s="19">
+        <v>1</v>
+      </c>
+      <c r="H22" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="K22" s="39">
+        <v>1</v>
+      </c>
+      <c r="L22" s="39" t="b">
+        <v>1</v>
+      </c>
+      <c r="M22" s="39" t="b">
+        <v>1</v>
+      </c>
+      <c r="N22" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v>=DISPIMG("ID_117E4FFD1E004BD08DBB6DF4DC2B8780",1)</v>
+      </c>
+    </row>
+    <row r="23" ht="117" spans="1:14">
+      <c r="A23" s="29">
+        <v>1</v>
+      </c>
+      <c r="B23" s="26">
+        <v>450304</v>
+      </c>
+      <c r="C23" s="29">
+        <v>1</v>
+      </c>
+      <c r="D23" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="E23" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="G23" s="19">
+        <v>1</v>
+      </c>
+      <c r="H23" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="K23" s="39">
+        <v>1</v>
+      </c>
+      <c r="L23" s="39" t="b">
+        <v>1</v>
+      </c>
+      <c r="M23" s="39" t="b">
+        <v>1</v>
+      </c>
+      <c r="N23" s="40" t="str">
+        <f>_xlfn.DISPIMG("ID_C22345BBE7494B58836CA07CC6F588D1",1)</f>
+        <v>=DISPIMG("ID_C22345BBE7494B58836CA07CC6F588D1",1)</v>
+      </c>
+    </row>
+    <row r="24" ht="117" spans="1:14">
+      <c r="A24" s="29">
+        <v>1</v>
+      </c>
+      <c r="B24" s="26">
+        <v>450305</v>
+      </c>
+      <c r="C24" s="29">
+        <v>1</v>
+      </c>
+      <c r="D24" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="E24" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="G24" s="19">
+        <v>1</v>
+      </c>
+      <c r="H24" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="K24" s="39">
+        <v>1</v>
+      </c>
+      <c r="L24" s="39" t="b">
+        <v>1</v>
+      </c>
+      <c r="M24" s="39" t="b">
+        <v>1</v>
+      </c>
+      <c r="N24" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v>=DISPIMG("ID_117E4FFD1E004BD08DBB6DF4DC2B8780",1)</v>
+      </c>
+    </row>
+    <row r="25" ht="117" spans="1:14">
+      <c r="A25" s="29">
+        <v>1</v>
+      </c>
+      <c r="B25" s="26">
+        <v>450306</v>
+      </c>
+      <c r="C25" s="29">
+        <v>1</v>
+      </c>
+      <c r="D25" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="E25" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="G25" s="19">
+        <v>1</v>
+      </c>
+      <c r="H25" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="K25" s="39">
+        <v>1</v>
+      </c>
+      <c r="L25" s="39" t="b">
+        <v>1</v>
+      </c>
+      <c r="M25" s="39" t="b">
+        <v>1</v>
+      </c>
+      <c r="N25" s="40" t="str">
+        <f>_xlfn.DISPIMG("ID_C8F1E574379A4424AEAA3E3B19B99209",1)</f>
+        <v>=DISPIMG("ID_C8F1E574379A4424AEAA3E3B19B99209",1)</v>
+      </c>
+    </row>
+    <row r="26" ht="61.5" spans="1:14">
+      <c r="A26" s="29">
+        <v>1</v>
+      </c>
+      <c r="B26" s="26">
+        <v>450401</v>
+      </c>
+      <c r="C26" s="29">
+        <v>1</v>
+      </c>
+      <c r="D26" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="E26" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="F26" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="G26" s="19">
+        <v>1</v>
+      </c>
+      <c r="H26" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="K26" s="39">
+        <v>1</v>
+      </c>
+      <c r="L26" s="39" t="b">
+        <v>1</v>
+      </c>
+      <c r="M26" s="39" t="b">
+        <v>1</v>
+      </c>
+      <c r="N26" s="40" t="str">
+        <f>_xlfn.DISPIMG("ID_0ADD07DFF37D4438BA2984CC6B50DED7",1)</f>
+        <v>=DISPIMG("ID_0ADD07DFF37D4438BA2984CC6B50DED7",1)</v>
+      </c>
+    </row>
+    <row r="27" ht="61.4" spans="1:14">
+      <c r="A27" s="29">
+        <v>1</v>
+      </c>
+      <c r="B27" s="26">
+        <v>450501</v>
+      </c>
+      <c r="C27" s="29">
+        <v>1</v>
+      </c>
+      <c r="D27" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="E27" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" s="19">
+        <v>1</v>
+      </c>
+      <c r="H27" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="K27" s="39">
+        <v>1</v>
+      </c>
+      <c r="L27" s="39" t="b">
+        <v>1</v>
+      </c>
+      <c r="M27" s="39" t="b">
+        <v>1</v>
+      </c>
+      <c r="N27" s="40" t="str">
+        <f>_xlfn.DISPIMG("ID_A4461C8310624320BF13983C26F8BCE0",1)</f>
+        <v>=DISPIMG("ID_A4461C8310624320BF13983C26F8BCE0",1)</v>
+      </c>
+    </row>
+    <row r="28" ht="78.85" spans="1:14">
+      <c r="A28" s="29">
+        <v>1</v>
+      </c>
+      <c r="B28" s="26">
+        <v>450601</v>
+      </c>
+      <c r="C28" s="29">
+        <v>1</v>
+      </c>
+      <c r="D28" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="E28" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="G28" s="19">
+        <v>1</v>
+      </c>
+      <c r="H28" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="K28" s="39">
+        <v>1</v>
+      </c>
+      <c r="L28" s="39" t="b">
+        <v>1</v>
+      </c>
+      <c r="M28" s="39" t="b">
+        <v>1</v>
+      </c>
+      <c r="N28" s="40" t="str">
+        <f>_xlfn.DISPIMG("ID_2553E170C9E346DF8AE9B4CE86029BF4",1)</f>
+        <v>=DISPIMG("ID_2553E170C9E346DF8AE9B4CE86029BF4",1)</v>
+      </c>
+    </row>
+    <row r="29" ht="62.25" spans="1:14">
+      <c r="A29" s="29">
+        <v>1</v>
+      </c>
+      <c r="B29" s="26">
+        <v>100001</v>
+      </c>
+      <c r="C29" s="29">
+        <v>1</v>
+      </c>
+      <c r="D29" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="E29" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="F29" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="G29" s="19">
+        <v>1</v>
+      </c>
+      <c r="H29" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="K29" s="39">
+        <v>1</v>
+      </c>
+      <c r="L29" s="39" t="b">
+        <v>1</v>
+      </c>
+      <c r="M29" s="39" t="b">
+        <v>1</v>
+      </c>
+      <c r="N29" s="40" t="str">
+        <f t="shared" ref="N29:N33" si="2">_xlfn.DISPIMG("ID_B21D2B2A481B469FBBECF51109241B0A",1)</f>
+        <v>=DISPIMG("ID_B21D2B2A481B469FBBECF51109241B0A",1)</v>
+      </c>
+    </row>
+    <row r="30" ht="62.25" spans="1:14">
+      <c r="A30" s="29">
+        <v>1</v>
+      </c>
+      <c r="B30" s="26">
+        <v>100301</v>
+      </c>
+      <c r="C30" s="29">
+        <v>1</v>
+      </c>
+      <c r="D30" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="E30" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="G30" s="19">
+        <v>1</v>
+      </c>
+      <c r="H30" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="K30" s="39">
+        <v>1</v>
+      </c>
+      <c r="L30" s="39" t="b">
+        <v>1</v>
+      </c>
+      <c r="M30" s="39" t="b">
+        <v>1</v>
+      </c>
+      <c r="N30" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>=DISPIMG("ID_B21D2B2A481B469FBBECF51109241B0A",1)</v>
+      </c>
+    </row>
+    <row r="31" ht="62.25" spans="1:14">
+      <c r="A31" s="29">
+        <v>1</v>
+      </c>
+      <c r="B31" s="26">
+        <v>100501</v>
+      </c>
+      <c r="C31" s="29">
+        <v>1</v>
+      </c>
+      <c r="D31" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="E31" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="F31" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="G31" s="19">
+        <v>1</v>
+      </c>
+      <c r="H31" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="K31" s="39">
+        <v>1</v>
+      </c>
+      <c r="L31" s="39" t="b">
+        <v>1</v>
+      </c>
+      <c r="M31" s="39" t="b">
+        <v>1</v>
+      </c>
+      <c r="N31" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>=DISPIMG("ID_B21D2B2A481B469FBBECF51109241B0A",1)</v>
+      </c>
+    </row>
+    <row r="32" ht="62.25" spans="1:14">
+      <c r="A32" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="B32" s="26">
+        <v>101001</v>
+      </c>
+      <c r="C32" s="29">
+        <v>1</v>
+      </c>
+      <c r="D32" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="E32" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="F32" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="G32" s="19">
+        <v>1</v>
+      </c>
+      <c r="H32" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="K32" s="39">
+        <v>1</v>
+      </c>
+      <c r="L32" s="39" t="b">
+        <v>1</v>
+      </c>
+      <c r="M32" s="39" t="b">
+        <v>1</v>
+      </c>
+      <c r="N32" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>=DISPIMG("ID_B21D2B2A481B469FBBECF51109241B0A",1)</v>
+      </c>
+    </row>
+    <row r="33" ht="62.25" spans="1:14">
+      <c r="A33" s="29">
+        <v>1</v>
+      </c>
+      <c r="B33" s="26">
+        <v>100901</v>
+      </c>
+      <c r="C33" s="29">
+        <v>1</v>
+      </c>
+      <c r="D33" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="E33" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="F33" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="G33" s="19">
+        <v>1</v>
+      </c>
+      <c r="H33" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="K33" s="39">
+        <v>1</v>
+      </c>
+      <c r="L33" s="39" t="b">
+        <v>1</v>
+      </c>
+      <c r="M33" s="39" t="b">
+        <v>1</v>
+      </c>
+      <c r="N33" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>=DISPIMG("ID_B21D2B2A481B469FBBECF51109241B0A",1)</v>
+      </c>
+    </row>
+    <row r="34" ht="117" spans="1:14">
+      <c r="A34" s="35">
+        <v>0</v>
+      </c>
+      <c r="B34" s="36">
+        <v>101</v>
+      </c>
+      <c r="C34" s="35">
+        <v>1</v>
+      </c>
+      <c r="D34" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="E34" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="F34" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="G34" s="35">
+        <v>1</v>
+      </c>
+      <c r="H34" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="I34" s="35"/>
+      <c r="J34" s="35"/>
+      <c r="K34" s="35">
+        <v>1</v>
+      </c>
+      <c r="L34" s="41" t="b">
+        <v>1</v>
+      </c>
+      <c r="M34" s="41" t="b">
+        <v>1</v>
+      </c>
+      <c r="N34" s="35" t="str">
+        <f>_xlfn.DISPIMG("ID_A831598AEE024989AFC91622758D1395",1)</f>
+        <v>=DISPIMG("ID_A831598AEE024989AFC91622758D1395",1)</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:H4 I4 J4 K4 L4:M4 O4 P4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:M4 O4:P4">
       <formula1>数据类型!$B$2:$B$51</formula1>
     </dataValidation>
   </dataValidations>
@@ -2933,13 +6540,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="43.375" style="21" customWidth="1"/>
     <col min="2" max="4" width="20.5" style="21" customWidth="1"/>
@@ -2961,10 +6568,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>56</v>
+        <v>116</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>57</v>
+        <v>117</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>3</v>
@@ -2979,7 +6586,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="I1" s="7" t="s">
         <v>8</v>
@@ -2991,7 +6598,7 @@
         <v>10</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="M1" s="7" t="s">
         <v>12</v>
@@ -3061,7 +6668,7 @@
         <v>17</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>18</v>
+        <v>119</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>19</v>
@@ -3167,19 +6774,22 @@
         <v>1</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>59</v>
+        <v>120</v>
       </c>
       <c r="E5" s="21" t="s">
         <v>42</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>60</v>
+        <v>121</v>
       </c>
       <c r="G5" s="21">
         <v>12</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>61</v>
+        <v>122</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>42</v>
       </c>
       <c r="K5" s="21">
         <v>1</v>
@@ -3195,69 +6805,75 @@
         <v>=DISPIMG("ID_34DE48E543EE4C9AA1105D48FE110B1C",1)</v>
       </c>
     </row>
-    <row r="6" s="21" customFormat="1" ht="33.3" spans="1:14">
+    <row r="6" s="21" customFormat="1" ht="33.5" spans="1:14">
       <c r="A6" s="21">
         <v>1</v>
       </c>
       <c r="B6" s="21">
-        <v>4002</v>
+        <v>4003</v>
       </c>
       <c r="C6" s="21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>62</v>
+        <v>123</v>
       </c>
       <c r="E6" s="21" t="s">
         <v>42</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>60</v>
+        <v>121</v>
       </c>
       <c r="G6" s="21">
         <v>12</v>
       </c>
       <c r="H6" s="21" t="s">
-        <v>61</v>
+        <v>122</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>42</v>
       </c>
       <c r="K6" s="21">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="L6" s="21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" s="21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" s="21" t="str">
-        <f>_xlfn.DISPIMG("ID_34DE48E543EE4C9AA1105D48FE110B1C",1)</f>
-        <v>=DISPIMG("ID_34DE48E543EE4C9AA1105D48FE110B1C",1)</v>
-      </c>
-    </row>
-    <row r="7" s="21" customFormat="1" ht="33.5" spans="1:14">
+        <f>_xlfn.DISPIMG("ID_EAA8DB7BB74F428C8066EAFDD8962BEC",1)</f>
+        <v>=DISPIMG("ID_EAA8DB7BB74F428C8066EAFDD8962BEC",1)</v>
+      </c>
+    </row>
+    <row r="7" s="21" customFormat="1" ht="18.6" spans="1:14">
       <c r="A7" s="21">
         <v>1</v>
       </c>
       <c r="B7" s="21">
-        <v>4003</v>
+        <v>4004</v>
       </c>
       <c r="C7" s="21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>63</v>
+        <v>124</v>
       </c>
       <c r="E7" s="21" t="s">
         <v>42</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="G7" s="21">
         <v>12</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>61</v>
+        <v>122</v>
+      </c>
+      <c r="I7" s="21" t="s">
+        <v>42</v>
       </c>
       <c r="K7" s="21">
         <v>1</v>
@@ -3269,52 +6885,433 @@
         <v>1</v>
       </c>
       <c r="N7" s="21" t="str">
-        <f>_xlfn.DISPIMG("ID_EAA8DB7BB74F428C8066EAFDD8962BEC",1)</f>
-        <v>=DISPIMG("ID_EAA8DB7BB74F428C8066EAFDD8962BEC",1)</v>
-      </c>
-    </row>
-    <row r="8" s="21" customFormat="1" ht="18.6" spans="1:14">
-      <c r="A8" s="21">
-        <v>1</v>
-      </c>
-      <c r="B8" s="21">
-        <v>4004</v>
-      </c>
-      <c r="C8" s="21">
-        <v>4</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="G8" s="21">
-        <v>12</v>
-      </c>
-      <c r="H8" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="K8" s="21">
-        <v>1</v>
-      </c>
-      <c r="L8" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="M8" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="N8" s="21" t="str">
         <f>_xlfn.DISPIMG("ID_180A1A64A691431C977DEE2E74F5A8A7",1)</f>
         <v>=DISPIMG("ID_180A1A64A691431C977DEE2E74F5A8A7",1)</v>
       </c>
     </row>
+    <row r="8" ht="113" spans="1:14">
+      <c r="A8" s="21">
+        <v>1</v>
+      </c>
+      <c r="B8" s="21">
+        <v>4005</v>
+      </c>
+      <c r="C8" s="21">
+        <v>1</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="G8" s="21">
+        <v>1</v>
+      </c>
+      <c r="H8" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="21">
+        <v>1</v>
+      </c>
+      <c r="L8" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="M8" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="N8" s="21" t="str">
+        <f t="shared" ref="N8:N10" si="0">_xlfn.DISPIMG("ID_9124E4D0DF134B80B13362422C801492",1)</f>
+        <v>=DISPIMG("ID_9124E4D0DF134B80B13362422C801492",1)</v>
+      </c>
+    </row>
+    <row r="9" ht="113" spans="1:14">
+      <c r="A9" s="21">
+        <v>1</v>
+      </c>
+      <c r="B9" s="21">
+        <v>4006</v>
+      </c>
+      <c r="C9" s="21">
+        <v>3</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="G9" s="21">
+        <v>1</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="I9" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="K9" s="21">
+        <v>1</v>
+      </c>
+      <c r="L9" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="M9" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="N9" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>=DISPIMG("ID_9124E4D0DF134B80B13362422C801492",1)</v>
+      </c>
+    </row>
+    <row r="10" ht="113" spans="1:14">
+      <c r="A10" s="21">
+        <v>1</v>
+      </c>
+      <c r="B10" s="21">
+        <v>4007</v>
+      </c>
+      <c r="C10" s="21">
+        <v>4</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="G10" s="21">
+        <v>1</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="K10" s="21">
+        <v>1</v>
+      </c>
+      <c r="L10" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="M10" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="N10" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>=DISPIMG("ID_9124E4D0DF134B80B13362422C801492",1)</v>
+      </c>
+    </row>
+    <row r="11" ht="48.35" spans="1:14">
+      <c r="A11" s="21">
+        <v>1</v>
+      </c>
+      <c r="B11" s="21">
+        <v>1001</v>
+      </c>
+      <c r="C11" s="21">
+        <v>1</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="G11" s="21">
+        <v>1</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="I11" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="K11" s="21">
+        <v>1</v>
+      </c>
+      <c r="L11" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="M11" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="N11" s="21" t="str">
+        <f>_xlfn.DISPIMG("ID_C2923B1264F94CAFB84089AA2A4ED65B",1)</f>
+        <v>=DISPIMG("ID_C2923B1264F94CAFB84089AA2A4ED65B",1)</v>
+      </c>
+    </row>
+    <row r="12" ht="90.85" spans="1:14">
+      <c r="A12" s="21">
+        <v>1</v>
+      </c>
+      <c r="B12" s="25">
+        <v>100001</v>
+      </c>
+      <c r="C12" s="21">
+        <v>1</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="G12" s="21">
+        <v>1</v>
+      </c>
+      <c r="H12" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="I12" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="K12" s="21">
+        <v>1</v>
+      </c>
+      <c r="L12" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="M12" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="N12" s="21" t="str">
+        <f>_xlfn.DISPIMG("ID_31DFA73456E24538B012C1A413189B55",1)</f>
+        <v>=DISPIMG("ID_31DFA73456E24538B012C1A413189B55",1)</v>
+      </c>
+    </row>
+    <row r="13" ht="66.25" spans="1:14">
+      <c r="A13" s="21">
+        <v>1</v>
+      </c>
+      <c r="B13" s="26">
+        <v>101001</v>
+      </c>
+      <c r="C13" s="21">
+        <v>1</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="G13" s="21">
+        <v>1</v>
+      </c>
+      <c r="H13" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="I13" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="K13" s="21">
+        <v>1</v>
+      </c>
+      <c r="L13" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="M13" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="N13" s="21" t="str">
+        <f>_xlfn.DISPIMG("ID_05FBD9B3867B4F6699B1995FF1D36E0C",1)</f>
+        <v>=DISPIMG("ID_05FBD9B3867B4F6699B1995FF1D36E0C",1)</v>
+      </c>
+    </row>
+    <row r="14" ht="49.3" spans="1:14">
+      <c r="A14" s="21">
+        <v>1</v>
+      </c>
+      <c r="B14" s="26">
+        <v>100901</v>
+      </c>
+      <c r="C14" s="21">
+        <v>1</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="G14" s="21">
+        <v>1</v>
+      </c>
+      <c r="H14" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="I14" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="K14" s="21">
+        <v>1</v>
+      </c>
+      <c r="L14" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="M14" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="N14" s="21" t="str">
+        <f>_xlfn.DISPIMG("ID_05AA549F3ECF4BA5BE1FF4FC2FC7E87F",1)</f>
+        <v>=DISPIMG("ID_05AA549F3ECF4BA5BE1FF4FC2FC7E87F",1)</v>
+      </c>
+    </row>
+    <row r="15" ht="54.6" spans="1:14">
+      <c r="A15" s="21">
+        <v>1</v>
+      </c>
+      <c r="B15" s="26">
+        <v>100501</v>
+      </c>
+      <c r="C15" s="21">
+        <v>1</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="G15" s="21">
+        <v>1</v>
+      </c>
+      <c r="H15" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="I15" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="K15" s="21">
+        <v>1</v>
+      </c>
+      <c r="L15" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="M15" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="N15" s="21" t="str">
+        <f>_xlfn.DISPIMG("ID_40811A8000854DB7B7BFFB9B27EFF2FC",1)</f>
+        <v>=DISPIMG("ID_40811A8000854DB7B7BFFB9B27EFF2FC",1)</v>
+      </c>
+    </row>
+    <row r="16" ht="70.65" spans="1:14">
+      <c r="A16" s="21">
+        <v>1</v>
+      </c>
+      <c r="B16" s="26">
+        <v>100301</v>
+      </c>
+      <c r="C16" s="21">
+        <v>1</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="G16" s="21">
+        <v>1</v>
+      </c>
+      <c r="H16" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="I16" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="K16" s="21">
+        <v>1</v>
+      </c>
+      <c r="L16" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="M16" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="N16" s="21" t="str">
+        <f>_xlfn.DISPIMG("ID_D701C71A38904E61BF087F5CAB0711C4",1)</f>
+        <v>=DISPIMG("ID_D701C71A38904E61BF087F5CAB0711C4",1)</v>
+      </c>
+    </row>
+    <row r="17" ht="62.55" spans="1:14">
+      <c r="A17" s="21">
+        <v>1</v>
+      </c>
+      <c r="B17" s="21">
+        <v>201</v>
+      </c>
+      <c r="C17" s="21">
+        <v>1</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="G17" s="21">
+        <v>1</v>
+      </c>
+      <c r="H17" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="I17" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="K17" s="21">
+        <v>1</v>
+      </c>
+      <c r="L17" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="M17" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="N17" s="21" t="str">
+        <f>_xlfn.DISPIMG("ID_9FC21DEA9DAD4D6CA596FC8D7B7D37B0",1)</f>
+        <v>=DISPIMG("ID_9FC21DEA9DAD4D6CA596FC8D7B7D37B0",1)</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:H4 I4 J4 K4 L4:M4 O4 P4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:M4 O4:P4">
       <formula1>数据类型!$B$2:$B$51</formula1>
     </dataValidation>
   </dataValidations>
@@ -3328,8 +7325,8 @@
   <sheetPr/>
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
@@ -3351,12 +7348,12 @@
     <col min="17" max="16384" width="9" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" ht="99.75" spans="1:16">
+    <row r="1" ht="114" spans="1:16">
       <c r="A1" s="3" t="s">
-        <v>66</v>
+        <v>145</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>67</v>
+        <v>146</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>2</v>
@@ -3374,7 +7371,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="I1" s="7" t="s">
         <v>8</v>
@@ -3386,7 +7383,7 @@
         <v>10</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="M1" s="7" t="s">
         <v>12</v>
@@ -3483,7 +7480,7 @@
         <v>26</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>68</v>
+        <v>147</v>
       </c>
       <c r="L3" s="10" t="s">
         <v>28</v>
@@ -3553,7 +7550,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:H4 I4 J4 K4:M4 O4 P4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:M4 O4:P4">
       <formula1>数据类型!$B$2:$B$51</formula1>
     </dataValidation>
   </dataValidations>
@@ -3568,7 +7565,7 @@
   <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E22" sqref="E21:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -3589,13 +7586,13 @@
   <sheetData>
     <row r="1" ht="131" customHeight="1" spans="1:16">
       <c r="A1" s="3" t="s">
-        <v>69</v>
+        <v>148</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>70</v>
+        <v>149</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>71</v>
+        <v>150</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>3</v>
@@ -3604,13 +7601,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>72</v>
+        <v>151</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>73</v>
+        <v>152</v>
       </c>
       <c r="I1" s="7" t="s">
         <v>8</v>
@@ -3622,7 +7619,7 @@
         <v>10</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="M1" s="7" t="s">
         <v>12</v>
@@ -3692,7 +7689,7 @@
         <v>17</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>19</v>
@@ -3719,7 +7716,7 @@
         <v>26</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>68</v>
+        <v>147</v>
       </c>
       <c r="L3" s="10" t="s">
         <v>28</v>
@@ -3792,25 +7789,25 @@
         <v>1</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>75</v>
+        <v>154</v>
       </c>
       <c r="C5" s="18">
         <v>1</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>76</v>
+        <v>155</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>42</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="G5" s="20">
         <v>1</v>
       </c>
       <c r="H5" s="20" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="I5" s="14"/>
       <c r="J5" s="14"/>
@@ -3830,7 +7827,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:H4 I4 J4 K4 L4:M4 O4 P4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:M4 O4:P4">
       <formula1>数据类型!$B$2:$B$51</formula1>
     </dataValidation>
   </dataValidations>
@@ -3844,8 +7841,8 @@
   <sheetPr/>
   <dimension ref="A1:P5"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -3869,10 +7866,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>78</v>
+        <v>157</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>79</v>
+        <v>158</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>3</v>
@@ -3896,10 +7893,10 @@
         <v>10</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>80</v>
+        <v>159</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="M1" s="7" t="s">
         <v>12</v>
@@ -3969,7 +7966,7 @@
         <v>17</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>81</v>
+        <v>160</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>19</v>
@@ -3993,10 +7990,10 @@
         <v>26</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>68</v>
+        <v>147</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>82</v>
+        <v>161</v>
       </c>
       <c r="L3" s="10" t="s">
         <v>28</v>
@@ -4075,13 +8072,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>83</v>
+        <v>162</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>84</v>
+        <v>163</v>
       </c>
       <c r="G5" s="13">
         <v>1</v>
@@ -4107,7 +8104,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:G4 H4 I4 J4 K4:M4 O4 P4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:M4 O4:P4">
       <formula1>数据类型!$B$2:$B$51</formula1>
     </dataValidation>
   </dataValidations>
@@ -4135,19 +8132,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>85</v>
+        <v>164</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>86</v>
+        <v>165</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>87</v>
+        <v>166</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>88</v>
+        <v>167</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4158,13 +8155,13 @@
         <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>90</v>
+        <v>169</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>91</v>
+        <v>170</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>92</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4172,16 +8169,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>93</v>
+        <v>172</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>94</v>
+        <v>173</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>95</v>
+        <v>174</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>96</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4192,13 +8189,13 @@
         <v>34</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>94</v>
+        <v>173</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>97</v>
+        <v>176</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>98</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4206,16 +8203,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>99</v>
+        <v>178</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>94</v>
+        <v>173</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>100</v>
+        <v>179</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>101</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -4223,16 +8220,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>102</v>
+        <v>181</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>94</v>
+        <v>173</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>103</v>
+        <v>182</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>104</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -4244,10 +8241,10 @@
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>105</v>
+        <v>184</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>106</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -4255,16 +8252,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>107</v>
+        <v>186</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>108</v>
+        <v>187</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>109</v>
+        <v>188</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>110</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -4272,16 +8269,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>111</v>
+        <v>190</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>108</v>
+        <v>187</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>112</v>
+        <v>191</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>113</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -4289,16 +8286,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>114</v>
+        <v>193</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>108</v>
+        <v>187</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>115</v>
+        <v>194</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>116</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -4306,16 +8303,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>117</v>
+        <v>196</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>108</v>
+        <v>187</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>118</v>
+        <v>197</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>119</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -4323,16 +8320,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>120</v>
+        <v>199</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>108</v>
+        <v>187</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>121</v>
+        <v>200</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>122</v>
+        <v>201</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -4340,13 +8337,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>123</v>
+        <v>202</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>108</v>
+        <v>187</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>124</v>
+        <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -4354,10 +8351,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>125</v>
+        <v>204</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>126</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -4365,10 +8362,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>127</v>
+        <v>206</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>126</v>
+        <v>205</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -4376,10 +8373,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>128</v>
+        <v>207</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>126</v>
+        <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -4387,10 +8384,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>129</v>
+        <v>208</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>126</v>
+        <v>205</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -4398,10 +8395,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>130</v>
+        <v>209</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>126</v>
+        <v>205</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -4409,10 +8406,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>131</v>
+        <v>210</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>126</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -4420,10 +8417,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>132</v>
+        <v>211</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>108</v>
+        <v>187</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -4431,10 +8428,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>133</v>
+        <v>212</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>108</v>
+        <v>187</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -4442,10 +8439,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>38</v>
+        <v>213</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>108</v>
+        <v>187</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -4453,10 +8450,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>134</v>
+        <v>214</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>108</v>
+        <v>187</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -4464,10 +8461,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>135</v>
+        <v>38</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>108</v>
+        <v>187</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -4475,10 +8472,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>136</v>
+        <v>215</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>108</v>
+        <v>187</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -4486,16 +8483,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>137</v>
+        <v>216</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>138</v>
+        <v>217</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>139</v>
+        <v>218</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -4506,13 +8503,13 @@
         <v>37</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>141</v>
+        <v>219</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>142</v>
+        <v>220</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>143</v>
+        <v>221</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -4520,16 +8517,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>144</v>
+        <v>222</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>108</v>
+        <v>187</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>145</v>
+        <v>223</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>146</v>
+        <v>224</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -4537,16 +8534,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>147</v>
+        <v>225</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>108</v>
+        <v>187</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>148</v>
+        <v>226</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>149</v>
+        <v>227</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -4557,10 +8554,10 @@
         <v>40</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>150</v>
+        <v>228</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>151</v>
+        <v>229</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -4571,13 +8568,13 @@
         <v>36</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>141</v>
+        <v>219</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>152</v>
+        <v>230</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>153</v>
+        <v>231</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -4585,16 +8582,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>154</v>
+        <v>232</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>94</v>
+        <v>173</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>155</v>
+        <v>233</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>156</v>
+        <v>234</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -4602,16 +8599,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>157</v>
+        <v>235</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>158</v>
+        <v>236</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>159</v>
+        <v>237</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>158</v>
+        <v>236</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -4619,16 +8616,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>160</v>
+        <v>238</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>161</v>
+        <v>239</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>162</v>
+        <v>240</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>161</v>
+        <v>239</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -4636,16 +8633,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>163</v>
+        <v>241</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>108</v>
+        <v>187</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>164</v>
+        <v>242</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>153</v>
+        <v>231</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -4653,14 +8650,14 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>165</v>
+        <v>243</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
-        <v>166</v>
+        <v>244</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>167</v>
+        <v>245</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -4668,11 +8665,11 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>168</v>
+        <v>246</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2" t="s">
-        <v>169</v>
+        <v>247</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -4680,16 +8677,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>170</v>
+        <v>248</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>108</v>
+        <v>187</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>171</v>
+        <v>249</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>172</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
